--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -153,9 +153,6 @@
     <t>A globally unique identifier for the collection object record.</t>
   </si>
   <si>
-    <t>Preferrably use a UUID. If this is not feasible an identifier can be created based on a unique field in the database, for example the catalogNumber|if doing so, the identifier must be stored in the database and cannot be changed or used for another record.</t>
-  </si>
-  <si>
     <t>"1cf74f91-e991-4382-8b20-42d2d8e6076a", "URN:catalog:PERTH:WAHERB:08444595"</t>
   </si>
   <si>
@@ -1691,6 +1688,9 @@
   </si>
   <si>
     <t>"missing"</t>
+  </si>
+  <si>
+    <t>Preferrably use a UUID. If this is not feasible an identifier can be created based on a unique field in the database, for example the catalogNumber. If doing so, the identifier must be stored in the database and cannot be changed or used for another record.</t>
   </si>
 </sst>
 </file>
@@ -2560,10 +2560,10 @@
   <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L127" sqref="L127"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2576,7 @@
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.7109375" customWidth="1"/>
     <col min="8" max="8" width="50.28515625" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" customWidth="1"/>
     <col min="10" max="10" width="67.140625" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1"/>
     <col min="12" max="12" width="65.7109375" customWidth="1"/>
@@ -2673,7 +2673,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>23</v>
@@ -2718,7 +2718,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -2751,7 +2751,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>22</v>
@@ -2761,7 +2761,7 @@
         <v>27</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>31</v>
@@ -2811,7 +2811,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>36</v>
@@ -2884,12 +2884,12 @@
         <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>555</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>22</v>
@@ -2911,7 +2911,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2922,7 +2922,7 @@
         <v>http://rs.tdwg.org/dwc/terms/catalogNumber</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
@@ -2931,23 +2931,23 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
@@ -2956,7 +2956,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2967,18 +2967,18 @@
         <v>http://rs.tdwg.org/dwc/terms/recordedBy</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
@@ -2988,16 +2988,16 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/30</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="2"/>
     </row>
@@ -3006,7 +3006,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3017,7 +3017,7 @@
         <v>http://rs.tdwg.org/dwc/terms/recordNumber</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
@@ -3031,16 +3031,16 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
@@ -3049,7 +3049,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3073,16 +3073,16 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/26</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="P11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
@@ -3091,7 +3091,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3102,13 +3102,13 @@
         <v>http://rs.tdwg.org/dwc/terms/otherCatalogNumbers</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3118,16 +3118,16 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="2"/>
     </row>
@@ -3136,7 +3136,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3147,13 +3147,13 @@
         <v>http://rs.tdwg.org/dwc/terms/occurrenceRemarks</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3166,16 +3166,16 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
@@ -3184,7 +3184,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3195,7 +3195,7 @@
         <v>http://rs.tdwg.org/dwc/terms/organismQuantity</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>20</v>
@@ -3206,10 +3206,10 @@
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
@@ -3219,19 +3219,19 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/22</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3250,14 +3250,14 @@
         <v>http://rs.tdwg.org/dwc/terms/establishmentMeans</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3269,16 +3269,16 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/4</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q15" s="2"/>
     </row>
@@ -3287,7 +3287,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -3298,7 +3298,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/lifeForm</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>20</v>
@@ -3308,7 +3308,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/17")</f>
@@ -3317,13 +3317,13 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3331,16 +3331,16 @@
         <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>20</v>
@@ -3350,14 +3350,14 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L17" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/18")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/18</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3369,7 +3369,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -3380,7 +3380,7 @@
         <v>http://rs.tdwg.org/dwc/terms/reproductiveCondition</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>20</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>22</v>
@@ -3402,27 +3402,27 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/12</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -3433,7 +3433,7 @@
         <v>http://rs.tdwg.org/dwc/terms/associatedTaxa</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>20</v>
@@ -3441,10 +3441,10 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>22</v>
@@ -3454,16 +3454,16 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/20</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="2"/>
     </row>
@@ -3472,7 +3472,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -3483,13 +3483,13 @@
         <v>http://hiscom.chah.org.au/hispid/terms/associationType</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="H20" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml")</f>
@@ -3498,7 +3498,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L20" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/33")</f>
@@ -3515,7 +3515,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -3526,19 +3526,19 @@
         <v>http://hiscom.chah.org.au/hispid/terms/associationTaxon</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3552,7 +3552,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -3563,19 +3563,19 @@
         <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L22" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/32")</f>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3594,7 +3594,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -3605,7 +3605,7 @@
         <v>http://rs.tdwg.org/dwc/terms/disposition</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>20</v>
@@ -3614,10 +3614,10 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L23" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/15")</f>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -3645,7 +3645,7 @@
         <v>http://rs.tdwg.org/dwc/terms/habitat</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
@@ -3662,25 +3662,25 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="P24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" ref="C25:C30" si="1">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -3691,7 +3691,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/topography</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>20</v>
@@ -3701,7 +3701,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L25" s="3" t="str">
         <f t="shared" ref="L25:L30" si="2">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/23")</f>
@@ -3709,22 +3709,22 @@
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="P25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3735,7 +3735,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
@@ -3745,7 +3745,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3753,22 +3753,22 @@
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="P26" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3779,7 +3779,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -3789,7 +3789,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3797,24 +3797,24 @@
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="P27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3825,7 +3825,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>20</v>
@@ -3835,7 +3835,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L28" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/14")</f>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3865,7 +3865,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
@@ -3875,7 +3875,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3883,24 +3883,24 @@
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3911,7 +3911,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
@@ -3921,7 +3921,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L30" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3929,24 +3929,24 @@
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="P30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" ref="C31:C58" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -3957,43 +3957,43 @@
         <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N31" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="P31" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4004,7 +4004,7 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -4018,25 +4018,25 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="P32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4047,7 +4047,7 @@
         <v>http://rs.tdwg.org/dwc/terms/locality</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
@@ -4061,25 +4061,25 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="P33" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4090,41 +4090,41 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="P34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4135,7 +4135,7 @@
         <v>http://rs.tdwg.org/dwc/terms/continent</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>20</v>
@@ -4144,17 +4144,17 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4176,7 +4176,7 @@
         <v>http://rs.tdwg.org/dwc/terms/country</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>20</v>
@@ -4185,32 +4185,32 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="P36" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4221,43 +4221,43 @@
         <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="P37" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4268,7 +4268,7 @@
         <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>20</v>
@@ -4277,34 +4277,34 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="P38" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4315,7 +4315,7 @@
         <v>http://rs.tdwg.org/dwc/terms/county</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>20</v>
@@ -4324,31 +4324,31 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="P39" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4359,7 +4359,7 @@
         <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>20</v>
@@ -4368,20 +4368,20 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L40" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -4389,10 +4389,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4403,7 +4403,7 @@
         <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>20</v>
@@ -4412,20 +4412,20 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L41" s="3" t="str">
         <f t="shared" ref="L41:L42" si="4">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -4433,10 +4433,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4447,7 +4447,7 @@
         <v>http://rs.tdwg.org/dwc/terms/island</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>20</v>
@@ -4456,20 +4456,20 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
       </c>
       <c r="M42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -4477,10 +4477,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4491,26 +4491,26 @@
         <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4532,26 +4532,26 @@
         <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -4559,10 +4559,10 @@
     </row>
     <row r="45" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4573,28 +4573,28 @@
         <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -4602,10 +4602,10 @@
     </row>
     <row r="46" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4616,43 +4616,43 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="P46" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4663,43 +4663,43 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O47" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="P47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4710,41 +4710,41 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4755,13 +4755,13 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="H49" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
@@ -4769,14 +4769,14 @@
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -4785,10 +4785,10 @@
     </row>
     <row r="50" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4799,41 +4799,41 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="P50" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="Q50" s="2"/>
     </row>
     <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4844,23 +4844,23 @@
         <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="52" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4883,15 +4883,15 @@
         <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
@@ -4899,25 +4899,25 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O52" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="O52" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="P52" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q52" s="2"/>
     </row>
     <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4928,7 +4928,7 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
@@ -4937,35 +4937,35 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L53" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/13")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q53" s="2"/>
     </row>
     <row r="54" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4976,7 +4976,7 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>20</v>
@@ -4985,7 +4985,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>22</v>
@@ -4995,25 +4995,25 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5024,26 +5024,26 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -5051,10 +5051,10 @@
     </row>
     <row r="56" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5065,7 +5065,7 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -5075,14 +5075,14 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -5090,10 +5090,10 @@
     </row>
     <row r="57" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5104,13 +5104,13 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H57" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
@@ -5119,17 +5119,17 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L57" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/19")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/19</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -5137,10 +5137,10 @@
     </row>
     <row r="58" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5151,7 +5151,7 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>20</v>
@@ -5161,14 +5161,14 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -5176,10 +5176,10 @@
     </row>
     <row r="59" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C59" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -5190,7 +5190,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>20</v>
@@ -5198,31 +5198,31 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q59" s="2"/>
     </row>
     <row r="60" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C60" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5233,10 +5233,10 @@
         <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5247,25 +5247,25 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N60" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="O60" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="P60" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q60" s="2"/>
     </row>
     <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C61" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5276,10 +5276,10 @@
         <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -5290,25 +5290,25 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q61" s="2"/>
     </row>
     <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5319,7 +5319,7 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
@@ -5329,14 +5329,14 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -5344,10 +5344,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5358,25 +5358,25 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q63" s="2"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5387,25 +5387,25 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q64" s="2"/>
     </row>
     <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -5416,7 +5416,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -5435,19 +5435,19 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q65" s="2"/>
     </row>
     <row r="66" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C66" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5458,10 +5458,10 @@
         <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -5472,25 +5472,25 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N66" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="O66" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="P66" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q66" s="2"/>
     </row>
     <row r="67" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C67" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5501,10 +5501,10 @@
         <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -5515,25 +5515,25 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N67" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="O67" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="P67" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q67" s="2"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C68" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5544,7 +5544,7 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>20</v>
@@ -5554,14 +5554,14 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5583,25 +5583,25 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q69" s="2"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5612,25 +5612,25 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q70" s="2"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -5641,7 +5641,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -5652,10 +5652,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -5666,7 +5666,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="C73" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5691,13 +5691,13 @@
         <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -5710,7 +5710,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="74" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C74" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5733,7 +5733,7 @@
         <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
@@ -5747,25 +5747,25 @@
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N74" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O74" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="O74" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="P74" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q74" s="2"/>
     </row>
     <row r="75" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C75" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -5776,7 +5776,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
@@ -5790,23 +5790,23 @@
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q75" s="2"/>
     </row>
     <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C76" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -5817,7 +5817,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>20</v>
@@ -5835,22 +5835,22 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O76" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="O76" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="P76" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q76" s="2"/>
     </row>
     <row r="77" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C77" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5867,32 +5867,32 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L77" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
       </c>
       <c r="M77" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="O77" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N77" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="P77" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q77" s="2"/>
     </row>
     <row r="78" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C78" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -5903,7 +5903,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>20</v>
@@ -5924,22 +5924,22 @@
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q78" s="2"/>
     </row>
     <row r="79" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C79" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5950,7 +5950,7 @@
         <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>20</v>
@@ -5964,25 +5964,25 @@
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q79" s="2"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C80" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5993,10 +5993,10 @@
         <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -6007,25 +6007,25 @@
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q80" s="2"/>
     </row>
     <row r="81" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C81" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -6036,7 +6036,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>20</v>
@@ -6051,22 +6051,22 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q81" s="2"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C82" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -6077,7 +6077,7 @@
         <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>20</v>
@@ -6094,23 +6094,23 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q82" s="2"/>
     </row>
     <row r="83" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C83" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -6121,13 +6121,13 @@
         <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -6137,25 +6137,25 @@
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q83" s="2"/>
     </row>
     <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C84" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -6166,7 +6166,7 @@
         <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
@@ -6180,23 +6180,23 @@
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q84" s="2"/>
     </row>
     <row r="85" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C85" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -6207,7 +6207,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>20</v>
@@ -6225,22 +6225,22 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O85" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="O85" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="P85" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q85" s="2"/>
     </row>
     <row r="86" spans="1:17" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C86" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -6251,7 +6251,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>20</v>
@@ -6262,7 +6262,7 @@
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
@@ -6270,25 +6270,25 @@
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N86" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="O86" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="O86" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="P86" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q86" s="2"/>
     </row>
     <row r="87" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C87" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -6299,7 +6299,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>20</v>
@@ -6314,22 +6314,22 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="O87" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="P87" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q87" s="2"/>
     </row>
     <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="C88" s="3" t="str">
         <f t="shared" ref="C88:C101" si="5">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -6340,25 +6340,25 @@
         <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -6367,10 +6367,10 @@
     </row>
     <row r="89" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C89" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6381,7 +6381,7 @@
         <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>20</v>
@@ -6390,17 +6390,17 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -6408,10 +6408,10 @@
     </row>
     <row r="90" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C90" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6422,7 +6422,7 @@
         <v>http://rs.tdwg.org/dwc/terms/phylum</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>20</v>
@@ -6431,17 +6431,17 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C91" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6463,7 +6463,7 @@
         <v>http://rs.tdwg.org/dwc/terms/class</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>20</v>
@@ -6472,17 +6472,17 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -6490,10 +6490,10 @@
     </row>
     <row r="92" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C92" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6504,7 +6504,7 @@
         <v>http://rs.tdwg.org/dwc/terms/order</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>20</v>
@@ -6513,17 +6513,17 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -6531,10 +6531,10 @@
     </row>
     <row r="93" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C93" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6545,7 +6545,7 @@
         <v>http://rs.tdwg.org/dwc/terms/family</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>20</v>
@@ -6554,32 +6554,32 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q93" s="2"/>
     </row>
     <row r="94" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C94" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6590,7 +6590,7 @@
         <v>http://rs.tdwg.org/dwc/terms/genus</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>20</v>
@@ -6599,32 +6599,32 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q94" s="2"/>
     </row>
     <row r="95" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C95" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6635,7 +6635,7 @@
         <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
@@ -6644,30 +6644,30 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q95" s="2"/>
     </row>
     <row r="96" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C96" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6678,7 +6678,7 @@
         <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>20</v>
@@ -6687,32 +6687,32 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q96" s="2"/>
     </row>
     <row r="97" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6723,7 +6723,7 @@
         <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
@@ -6732,32 +6732,32 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q97" s="2"/>
     </row>
     <row r="98" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6768,7 +6768,7 @@
         <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
@@ -6776,35 +6776,35 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q98" s="2"/>
     </row>
     <row r="99" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C99" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6815,25 +6815,25 @@
         <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -6842,10 +6842,10 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C100" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6862,29 +6862,29 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="N100" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="P100" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q100" s="2"/>
     </row>
     <row r="101" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C101" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6895,7 +6895,7 @@
         <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -6903,7 +6903,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2" t="s">
@@ -6911,23 +6911,23 @@
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q101" s="2"/>
     </row>
     <row r="102" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C102" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -6938,13 +6938,13 @@
         <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -6955,22 +6955,22 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q102" s="2"/>
     </row>
     <row r="103" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C103" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -6981,13 +6981,13 @@
         <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -6998,22 +6998,22 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q103" s="2"/>
     </row>
     <row r="104" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C104" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -7024,13 +7024,13 @@
         <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -7041,22 +7041,22 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q104" s="2"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -7067,7 +7067,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L105" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
@@ -7076,19 +7076,19 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q105" s="2"/>
     </row>
     <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -7099,7 +7099,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L106" s="3" t="str">
         <f t="shared" ref="L106:L116" si="6">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
@@ -7110,15 +7110,15 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -7129,7 +7129,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L107" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7138,19 +7138,19 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q107" s="2"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -7161,7 +7161,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L108" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7170,19 +7170,19 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q108" s="2"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -7193,7 +7193,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L109" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7202,19 +7202,19 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q109" s="2"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -7225,7 +7225,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L110" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7234,19 +7234,19 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q110" s="2"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -7257,7 +7257,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L111" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7266,19 +7266,19 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q111" s="2"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -7289,7 +7289,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L112" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7298,19 +7298,19 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q112" s="2"/>
     </row>
     <row r="113" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -7321,7 +7321,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L113" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7330,19 +7330,19 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q113" s="2"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -7353,7 +7353,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L114" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7362,19 +7362,19 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q114" s="2"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -7385,7 +7385,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L115" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7394,19 +7394,19 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q115" s="2"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -7417,7 +7417,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L116" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7426,19 +7426,19 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q116" s="2"/>
     </row>
     <row r="117" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="C117" s="3" t="str">
         <f t="shared" ref="C117:C137" si="7">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -7449,7 +7449,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>20</v>
@@ -7467,22 +7467,22 @@
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O117" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="O117" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="P117" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q117" s="2"/>
     </row>
     <row r="118" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7493,7 +7493,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/voucherFlag</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>20</v>
@@ -7511,22 +7511,22 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q118" s="2"/>
     </row>
     <row r="119" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C119" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7537,13 +7537,13 @@
         <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="H119" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
@@ -7557,24 +7557,24 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C120" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7585,13 +7585,13 @@
         <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -7608,10 +7608,10 @@
     </row>
     <row r="121" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="C121" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7622,7 +7622,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>20</v>
@@ -7632,29 +7632,29 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q121" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="P121" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q121" s="2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C122" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7665,41 +7665,41 @@
         <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q122" s="2"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C123" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7710,7 +7710,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>20</v>
@@ -7725,22 +7725,22 @@
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q123" s="2"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C124" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7751,13 +7751,13 @@
         <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -7768,22 +7768,22 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q124" s="2"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C125" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7794,7 +7794,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>20</v>
@@ -7809,22 +7809,22 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q125" s="2"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7835,7 +7835,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>20</v>
@@ -7850,22 +7850,22 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q126" s="2"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C127" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7876,7 +7876,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>20</v>
@@ -7891,22 +7891,22 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q127" s="2"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="C128" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7917,17 +7917,17 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -7938,10 +7938,10 @@
     </row>
     <row r="129" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C129" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7952,7 +7952,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -7960,7 +7960,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
@@ -7971,10 +7971,10 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C130" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7985,7 +7985,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -7993,7 +7993,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L130" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
@@ -8007,10 +8007,10 @@
     </row>
     <row r="131" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C131" s="3" t="str">
         <f t="shared" si="7"/>
@@ -8021,7 +8021,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -8029,7 +8029,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L131" s="3" t="str">
         <f t="shared" ref="L131:L137" si="8">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
@@ -8043,10 +8043,10 @@
     </row>
     <row r="132" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C132" s="3" t="str">
         <f t="shared" si="7"/>
@@ -8057,7 +8057,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -8065,7 +8065,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L132" s="3" t="str">
         <f t="shared" si="8"/>
@@ -8079,10 +8079,10 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C133" s="3" t="str">
         <f t="shared" si="7"/>
@@ -8093,19 +8093,19 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L133" s="3" t="str">
         <f t="shared" si="8"/>
@@ -8119,10 +8119,10 @@
     </row>
     <row r="134" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C134" s="3" t="str">
         <f t="shared" si="7"/>
@@ -8133,7 +8133,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>20</v>
@@ -8146,7 +8146,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L134" s="3" t="str">
         <f t="shared" si="8"/>
@@ -8160,10 +8160,10 @@
     </row>
     <row r="135" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C135" s="3" t="str">
         <f t="shared" si="7"/>
@@ -8174,7 +8174,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>20</v>
@@ -8184,7 +8184,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L135" s="3" t="str">
         <f t="shared" si="8"/>
@@ -8198,10 +8198,10 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C136" s="3" t="str">
         <f t="shared" si="7"/>
@@ -8212,7 +8212,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>20</v>
@@ -8222,7 +8222,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L136" s="3" t="str">
         <f t="shared" si="8"/>
@@ -8236,10 +8236,10 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C137" s="3" t="str">
         <f t="shared" si="7"/>
@@ -8250,7 +8250,7 @@
         <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>20</v>
@@ -8260,7 +8260,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L137" s="3" t="str">
         <f t="shared" si="8"/>

--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -2563,7 +2563,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="608">
   <si>
     <t>group</t>
   </si>
@@ -1205,73 +1205,10 @@
     <t>tranam</t>
   </si>
   <si>
-    <t>Hybrid Flag</t>
-  </si>
-  <si>
     <t>hyb</t>
   </si>
   <si>
-    <t>Hybrid Formula</t>
-  </si>
-  <si>
-    <t>Second Hybrid Genus Name</t>
-  </si>
-  <si>
     <t>genhy2</t>
-  </si>
-  <si>
-    <t>Second Hybrid Species Epithet</t>
-  </si>
-  <si>
-    <t>sphy2</t>
-  </si>
-  <si>
-    <t>Infraspecific Rank Flag</t>
-  </si>
-  <si>
-    <t>isprk</t>
-  </si>
-  <si>
-    <t>Second Hybrid Infraspecific Rank Flag</t>
-  </si>
-  <si>
-    <t>isprkhy2</t>
-  </si>
-  <si>
-    <t>Second Hybrid Infraspecific Epithet</t>
-  </si>
-  <si>
-    <t>isphy2</t>
-  </si>
-  <si>
-    <t>Second Infraspecific Rank Flag</t>
-  </si>
-  <si>
-    <t>isp2rk</t>
-  </si>
-  <si>
-    <t>Second Hybrid of the Second Infraspecific Flag</t>
-  </si>
-  <si>
-    <t>isp2rkhy2</t>
-  </si>
-  <si>
-    <t>Second Infraspecific Epithet</t>
-  </si>
-  <si>
-    <t>isp2</t>
-  </si>
-  <si>
-    <t>Second Hybrid of the Second Infraspecific Epithet</t>
-  </si>
-  <si>
-    <t>isp2hy2</t>
-  </si>
-  <si>
-    <t>Second Infraspecific Author</t>
-  </si>
-  <si>
-    <t>isp2au</t>
   </si>
   <si>
     <t>Collection object</t>
@@ -1615,9 +1552,6 @@
     <t>"L.", "(Taylor) Renauld"</t>
   </si>
   <si>
-    <t>//Unit/UnitExtension/hispid:HispidIdentification/hispid:NameFormula</t>
-  </si>
-  <si>
     <t>//Unit/Identifications/Identification/Result/TaxonIdentified/NameComments</t>
   </si>
   <si>
@@ -1691,13 +1625,235 @@
   </si>
   <si>
     <t>Preferrably use a UUID. If this is not feasible an identifier can be created based on a unique field in the database, for example the catalogNumber. If doing so, the identifier must be stored in the database and cannot be changed or used for another record.</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/sex</t>
+  </si>
+  <si>
+    <t>The sex of the individual</t>
+  </si>
+  <si>
+    <t>//Units/Unit/Sex</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms</t>
+  </si>
+  <si>
+    <t>"http://id.loc.gov/vocabulary/iso639-2/eng"</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/iso639-2</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Language of the resource</t>
+  </si>
+  <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
+    <t>For multimedia objects dcterms:language strictly speaking is the language of the resource. Audobon Core has a separate element, http://rs.tdwg.org/ac/terms/metadataLanguage, to transfer the language of the metadata.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>physicalSetting</t>
+  </si>
+  <si>
+    <t>subjectCategory</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>subjectPart</t>
+  </si>
+  <si>
+    <t>subjectOrientation</t>
+  </si>
+  <si>
+    <t>captureDevice</t>
+  </si>
+  <si>
+    <t>resourceCreationTechnique</t>
+  </si>
+  <si>
+    <t>relatedResourceID</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/creator</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/xap/1.0/CreateDate</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/xap/1.0</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/digitizationDate</t>
+  </si>
+  <si>
+    <t>digitizationDate</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/title</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/description</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/caption</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/physicalSetting</t>
+  </si>
+  <si>
+    <t>http://iptc.org/std/Iptc4xmpExt/2008-02-29</t>
+  </si>
+  <si>
+    <t>http://iptc.org/std/Iptc4xmpExt/2008-02-29/Cvterm</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/tag</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/subjectPart</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/subjectOrientation</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/captureDevice</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/resourceCreationTechnique</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/relatedResourceID</t>
+  </si>
+  <si>
+    <t>Title of the media object, including subtitles, if any.</t>
+  </si>
+  <si>
+    <t>Description of the media resource.</t>
+  </si>
+  <si>
+    <t>natural|artificial|edited</t>
+  </si>
+  <si>
+    <t>Under consideration</t>
+  </si>
+  <si>
+    <t>Tag or keyword.</t>
+  </si>
+  <si>
+    <t>Part of the subject that is imaged.</t>
+  </si>
+  <si>
+    <t>URL defining or elaborating on the licence statement.</t>
+  </si>
+  <si>
+    <t>"http://creativecommons.org/licenses/by/3.0/au/", "http://creativecommons.org/licenses/by/4.0/"</t>
+  </si>
+  <si>
+    <t>rightsHolder</t>
+  </si>
+  <si>
+    <t>Owner of the copyright over the resource.</t>
+  </si>
+  <si>
+    <t>Creator of the media object.</t>
+  </si>
+  <si>
+    <t>Date the media object, or its source, was created.</t>
+  </si>
+  <si>
+    <t>Date the media object was created.</t>
+  </si>
+  <si>
+    <t>Original source of the media object, if the resource was digitised from a non-digital source.</t>
+  </si>
+  <si>
+    <t>Free-form text to be displayed together with (rather than instead of) a media object that is suitable for captions.</t>
+  </si>
+  <si>
+    <t>The setting of the content represented in the media object</t>
+  </si>
+  <si>
+    <t>Broad subject or context of the media object.</t>
+  </si>
+  <si>
+    <t>Orientation of the subject represented in the media object with respect to the capturing device.</t>
+  </si>
+  <si>
+    <t>Device used to create the media object.</t>
+  </si>
+  <si>
+    <t>Information about technical aspects of the creation of the media object.</t>
+  </si>
+  <si>
+    <t>Identifier(s) of related media objects, e.g.different view angles of the same subject.</t>
+  </si>
+  <si>
+    <t>MediaItem</t>
+  </si>
+  <si>
+    <t>hybridFlag</t>
+  </si>
+  <si>
+    <t>hybridParent1</t>
+  </si>
+  <si>
+    <t>hybridParent2</t>
+  </si>
+  <si>
+    <t>Flag to indicate whether the plant name refers to a hybrid, graft chimaera or intergrade, without reference to rank.</t>
+  </si>
+  <si>
+    <t>Scientific name of the first parent of a hybrid</t>
+  </si>
+  <si>
+    <t>Scientific name of the second parent of a hybrid</t>
+  </si>
+  <si>
+    <t>The ABCD and HISPID 5 //Unit/Identifications/Identification/Result/TaxonIdentified/ScientificName/NameAtomised/Botanical/HybridFlag only applies to hybrid names (hybridFlag:"x").</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1844,6 +2000,20 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2212,7 +2382,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2234,6 +2404,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2557,32 +2740,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.7109375" customWidth="1"/>
-    <col min="8" max="8" width="50.28515625" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
-    <col min="10" max="10" width="67.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="65.7109375" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="87.85546875" customWidth="1"/>
-    <col min="17" max="17" width="53" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="50.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="67.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="65.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="87.85546875" style="2" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="53" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2659,21 +2843,17 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>23</v>
@@ -2681,7 +2861,6 @@
       <c r="P2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2704,25 +2883,18 @@
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+        <v>460</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2732,12 +2904,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://purl.org/dc/terms")</f>
+        <v>http://purl.org/dc/terms</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/modified")</f>
-        <v>http://rs.tdwg.org/dwc/terms/modified</v>
+        <f>HYPERLINK("http://purl.org/dc/terms/modified")</f>
+        <v>http://purl.org/dc/terms/modified</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -2748,20 +2920,17 @@
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>31</v>
@@ -2769,7 +2938,6 @@
       <c r="P4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2792,11 +2960,9 @@
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
@@ -2811,7 +2977,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>36</v>
@@ -2819,14 +2985,13 @@
       <c r="P5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>541</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -2842,396 +3007,304 @@
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>523</v>
+      </c>
       <c r="M6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" ref="C7:C15" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceID")</f>
-        <v>http://rs.tdwg.org/dwc/terms/occurrenceID</v>
+        <v>542</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f>HYPERLINK("http://purl.org/dc/terms")</f>
+        <v>http://purl.org/dc/terms</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>HYPERLINK("http://purl.org/dc/terms/language")</f>
+        <v>http://purl.org/dc/terms/language</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>543</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>539</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/2")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>42</v>
+        <v>544</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/catalogNumber")</f>
-        <v>http://rs.tdwg.org/dwc/terms/catalogNumber</v>
+        <v>587</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f>HYPERLINK("http://purl.org/dc/terms")</f>
+        <v>http://purl.org/dc/terms</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f>HYPERLINK("http://purl.org/dc/terms/rightsHolder")</f>
+        <v>http://purl.org/dc/terms/rightsHolder</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>588</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>559</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://purl.org/dc/terms")</f>
+        <v>http://purl.org/dc/terms</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/recordedBy</v>
+        <f>HYPERLINK("http://purl.org/dc/terms/license")</f>
+        <v>http://purl.org/dc/terms/license</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>585</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/30")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/30</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J9" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C10:C18" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordNumber")</f>
-        <v>http://rs.tdwg.org/dwc/terms/recordNumber</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/occurrenceID</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="K10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/2")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
+      </c>
       <c r="M10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/preparations")</f>
-        <v>http://rs.tdwg.org/dwc/terms/preparations</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/catalogNumber")</f>
+        <v>http://rs.tdwg.org/dwc/terms/catalogNumber</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="K11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/26")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/26</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>487</v>
+        <v>45</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/otherCatalogNumbers")</f>
-        <v>http://rs.tdwg.org/dwc/terms/otherCatalogNumbers</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/recordedBy</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="K12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/30")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/30</v>
+      </c>
       <c r="M12" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/occurrenceRemarks</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordNumber")</f>
+        <v>http://rs.tdwg.org/dwc/terms/recordNumber</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/1")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/1</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/organismQuantity")</f>
-        <v>http://rs.tdwg.org/dwc/terms/organismQuantity</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>70</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/preparations")</f>
+        <v>http://rs.tdwg.org/dwc/terms/preparations</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/22")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/22</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/26")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/26</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>495</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3239,660 +3312,591 @@
         <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/establishmentMeans")</f>
-        <v>http://rs.tdwg.org/dwc/terms/establishmentMeans</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/otherCatalogNumbers")</f>
+        <v>http://rs.tdwg.org/dwc/terms/otherCatalogNumbers</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="K15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/4")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/4</v>
-      </c>
       <c r="M15" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>492</v>
+        <v>62</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="0"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/lifeForm")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/lifeForm</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/occurrenceRemarks</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="K16" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/17")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/17</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/1")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="O16" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>550</v>
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/organismQuantity")</f>
+        <v>http://rs.tdwg.org/dwc/terms/organismQuantity</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>551</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="H17" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="K17" s="2" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/18")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/18</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/22")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/22</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/reproductiveCondition")</f>
-        <v>http://rs.tdwg.org/dwc/terms/reproductiveCondition</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/establishmentMeans")</f>
+        <v>http://rs.tdwg.org/dwc/terms/establishmentMeans</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>81</v>
+      <c r="H18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/12")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/12</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/4")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/4</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedTaxa")</f>
-        <v>http://rs.tdwg.org/dwc/terms/associatedTaxa</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/lifeForm")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/lifeForm</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/20")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/20</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>497</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/17")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/17</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/associationType</v>
+        <v>526</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>529</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="H20" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+        <f>HYPERLINK("http://rs.gbif.org/vocabulary/gbif/sex.xml")</f>
+        <v>http://rs.gbif.org/vocabulary/gbif/sex.xml</v>
+      </c>
       <c r="K20" s="2" t="s">
-        <v>545</v>
+        <v>278</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/33")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/33</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/18")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/18</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationTaxon")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/associationTaxon</v>
+        <v>534</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>91</v>
+        <v>536</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/reproductiveCondition")</f>
+        <v>http://rs.tdwg.org/dwc/terms/reproductiveCondition</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="H22" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K22" s="2" t="s">
-        <v>545</v>
+        <v>22</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/32")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/32</v>
-      </c>
-      <c r="M22" s="2"/>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/12")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/12</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="N22" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>552</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D23" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedTaxa")</f>
+        <v>http://rs.tdwg.org/dwc/terms/associatedTaxa</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/20")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/20</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/associationType</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/33")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationTaxon")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/associationTaxon</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/32")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/32</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D27" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/disposition")</f>
         <v>http://rs.tdwg.org/dwc/terms/disposition</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L23" s="3" t="str">
+      <c r="L27" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/15")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/15</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="28" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C28" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D24" s="3" t="str">
+      <c r="D28" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/habitat")</f>
         <v>http://rs.tdwg.org/dwc/terms/habitat</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="3" t="str">
+      <c r="L28" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/23")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="3" t="str">
-        <f t="shared" ref="C25:C30" si="1">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/topography")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/topography</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L25" s="3" t="str">
-        <f t="shared" ref="L25:L30" si="2">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/23")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D27" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D28" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/14")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/14</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C29:C34" si="1">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/topography")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/topography</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
         <v>77</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L29:L34" si="2">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/23")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
-      <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>501</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3900,26 +3904,22 @@
         <v>96</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
         <v>77</v>
       </c>
@@ -3927,18 +3927,14 @@
         <f t="shared" si="2"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
-      <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>502</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3946,357 +3942,311 @@
         <v>96</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f t="shared" ref="C31:C58" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="1"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>503</v>
+        <v>111</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>504</v>
+        <v>112</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q31" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="1"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimEventDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/14")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/14</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q32" s="2"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="1"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/locality</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
-        <v>133</v>
+        <v>77</v>
+      </c>
+      <c r="L33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q33" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="1"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2" t="s">
-        <v>137</v>
+        <v>77</v>
+      </c>
+      <c r="L34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q34" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C35:C62" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
-        <v>http://rs.tdwg.org/dwc/terms/continent</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="J35" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L35" s="2"/>
+        <v>22</v>
+      </c>
       <c r="M35" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
-        <v>http://rs.tdwg.org/dwc/terms/country</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimEventDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q36" s="2"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/locality</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="2"/>
       <c r="M37" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q37" s="2"/>
+        <v>136</v>
+      </c>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
-        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2" t="s">
-        <v>157</v>
+      <c r="G38" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="2"/>
+        <v>523</v>
+      </c>
       <c r="M38" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>505</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -4304,2958 +4254,2574 @@
         <v>132</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
-        <v>http://rs.tdwg.org/dwc/terms/county</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
+        <v>http://rs.tdwg.org/dwc/terms/continent</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="2"/>
+        <v>523</v>
+      </c>
       <c r="M39" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
-        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
+        <v>http://rs.tdwg.org/dwc/terms/country</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L40" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
+        <v>22</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
-        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="J41" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L41" s="3" t="str">
-        <f t="shared" ref="L41:L42" si="4">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
+        <v>22</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
-        <v>http://rs.tdwg.org/dwc/terms/island</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
+        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L42" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
+        <v>22</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
+        <v>http://rs.tdwg.org/dwc/terms/county</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+        <v>20</v>
+      </c>
       <c r="J43" s="2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q43"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
+        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+        <v>20</v>
+      </c>
       <c r="J44" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="L44" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
+      </c>
       <c r="M44" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
+        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="L45" s="3" t="str">
+        <f t="shared" ref="L45:L46" si="4">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
+      </c>
       <c r="M45" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
+        <v>http://rs.tdwg.org/dwc/terms/island</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="L46" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
+      </c>
       <c r="M46" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+        <v>179</v>
+      </c>
       <c r="J47" s="2" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+        <v>179</v>
+      </c>
       <c r="J48" s="2" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H49" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>188</v>
+      </c>
       <c r="J49" s="2" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L49" s="2"/>
+        <v>22</v>
+      </c>
       <c r="M49" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+        <v>193</v>
+      </c>
       <c r="J50" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="O50" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
-        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="J51" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L51" s="2"/>
+        <v>22</v>
+      </c>
       <c r="M51" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J52" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="K52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H53" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
+      </c>
       <c r="J53" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L53" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/13")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
+        <v>523</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="J54" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/13")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
-      </c>
       <c r="M54" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
+        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="K55" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L55" s="2"/>
+        <v>523</v>
+      </c>
       <c r="M55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="K56" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L56" s="2"/>
+        <v>22</v>
+      </c>
       <c r="M56" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H57" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="K57" s="2" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/19")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/19</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/13")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D58" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/13")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H61" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L61" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/19")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/19</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D62" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceRemarks")</f>
         <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" ht="165" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="63" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C63" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D59" s="3" t="str">
+      <c r="D63" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2" t="s">
+      <c r="F63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="O59" s="2" t="s">
+      <c r="N63" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="P63" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    </row>
+    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C64" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D60" s="3" t="str">
+      <c r="D64" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
         <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="N64" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="O64" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="P64" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    </row>
+    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C65" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D61" s="3" t="str">
+      <c r="D65" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
         <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D62" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C65" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D65" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
       <c r="K65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="M65" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="O65" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C66" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D66" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="K67" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="K68" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D69" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D70" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
         <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="O70" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="P70" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    </row>
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C71" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D67" s="3" t="str">
+      <c r="D71" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
         <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="O71" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="P71" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    </row>
+    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C72" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D68" s="3" t="str">
+      <c r="D72" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
         <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2" t="s">
+      <c r="F72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="N72" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="K73" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="P73" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B74" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="K74" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2" t="s">
+      <c r="O74" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="P74" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B75" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="K75" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="K76" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C73" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D73" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/2")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C74" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D74" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C75" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D75" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C76" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D76" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
-      </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C77" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D77" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/2")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D78" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D80" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D81" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
         <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L77" s="3" t="str">
+      <c r="L81" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
       </c>
-      <c r="M77" s="2" t="s">
+      <c r="M81" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="N77" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="O77" s="2" t="s">
+      <c r="N81" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="O81" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="P81" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    </row>
+    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C82" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D78" s="3" t="str">
+      <c r="D82" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="3" t="str">
+      <c r="F82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
       </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L78" s="3" t="str">
+      <c r="L82" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/31")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/31</v>
       </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="O78" s="2" t="s">
+      <c r="N82" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O82" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="P82" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C79" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D79" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C80" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D80" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
-        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C81" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D81" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C82" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D82" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C83" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
-        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L83" s="2"/>
       <c r="M83" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C84" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
+        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+        <v>125</v>
+      </c>
       <c r="K84" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L84" s="2"/>
       <c r="M84" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="P84" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C85" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D85" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D86" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D87" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
+        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D88" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D89" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="3" t="str">
+      <c r="F89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
       </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2" t="s">
+      <c r="N89" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="O89" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="P85" s="2" t="s">
+      <c r="P89" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="Q85" s="2"/>
-    </row>
-    <row r="86" spans="1:17" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+    </row>
+    <row r="90" spans="1:16" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C86" s="3" t="str">
+      <c r="C90" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D86" s="3" t="str">
+      <c r="D90" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="3" t="str">
+      <c r="F90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
       </c>
-      <c r="I86" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2" t="s">
+      <c r="I90" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K90" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2" t="s">
+      <c r="M90" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="N90" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="O86" s="2" t="s">
+      <c r="O90" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="P86" s="2" t="s">
+      <c r="P90" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    </row>
+    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C87" s="3" t="str">
+      <c r="C91" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D87" s="3" t="str">
+      <c r="D91" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2" t="s">
+      <c r="N91" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="O87" s="2" t="s">
+      <c r="O91" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="P87" s="2" t="s">
+      <c r="P91" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    </row>
+    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C88" s="3" t="str">
-        <f t="shared" ref="C88:C101" si="5">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+      <c r="C92" s="3" t="str">
+        <f t="shared" ref="C92:C105" si="5">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D88" s="3" t="str">
+      <c r="D92" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
         <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="3" t="s">
+      <c r="F92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C89" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D89" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
-        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C90" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D90" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C91" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D91" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
-        <v>http://rs.tdwg.org/dwc/terms/class</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C92" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D92" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
-        <v>http://rs.tdwg.org/dwc/terms/order</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L92" s="2"/>
       <c r="M92" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
-        <v>http://rs.tdwg.org/dwc/terms/family</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
+        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L93" s="2"/>
       <c r="M93" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/genus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L94" s="2"/>
       <c r="M94" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q94" s="2"/>
-    </row>
-    <row r="95" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
+        <v>http://rs.tdwg.org/dwc/terms/class</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L95" s="2"/>
       <c r="M95" s="2" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q95" s="2"/>
-    </row>
-    <row r="96" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
+        <v>http://rs.tdwg.org/dwc/terms/order</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L96" s="2"/>
       <c r="M96" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q96" s="2"/>
-    </row>
-    <row r="97" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
+        <v>http://rs.tdwg.org/dwc/terms/family</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L97" s="2"/>
       <c r="M97" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q97" s="2"/>
-    </row>
-    <row r="98" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/genus</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="J98" s="2" t="s">
-        <v>529</v>
+        <v>358</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L98" s="2"/>
       <c r="M98" s="2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q98" s="2"/>
-    </row>
-    <row r="99" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L99" s="2"/>
+        <v>22</v>
+      </c>
       <c r="M99" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C100" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="K100" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L100" s="2"/>
+        <v>22</v>
+      </c>
       <c r="M100" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q100" s="2"/>
-    </row>
-    <row r="101" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C101" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D101" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C102" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D102" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D103" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C104" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D104" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C105" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D105" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
         <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2" t="s">
+      <c r="M105" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2" t="s">
+      <c r="O105" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P101" s="2" t="s">
+      <c r="P105" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="Q101" s="2"/>
-    </row>
-    <row r="102" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    </row>
+    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C102" s="3" t="str">
+      <c r="C106" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D102" s="3" t="str">
+      <c r="D106" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2" t="s">
+      <c r="K106" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O102" s="2" t="s">
+      <c r="N106" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="O106" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="P102" s="2" t="s">
+      <c r="P106" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="Q102" s="2"/>
-    </row>
-    <row r="103" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    </row>
+    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C103" s="3" t="str">
+      <c r="C107" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D103" s="3" t="str">
+      <c r="D107" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2" t="s">
+      <c r="K107" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O103" s="2" t="s">
+      <c r="N107" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="O107" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="P103" s="2" t="s">
+      <c r="P107" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="Q103" s="2"/>
-    </row>
-    <row r="104" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    </row>
+    <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C104" s="3" t="str">
+      <c r="C108" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D104" s="3" t="str">
+      <c r="D108" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2" t="s">
+      <c r="K108" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="O104" s="2" t="s">
+      <c r="N108" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="O108" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="P104" s="2" t="s">
+      <c r="P108" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="Q104" s="2"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    </row>
+    <row r="109" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2" t="s">
+      <c r="B109" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C109" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D109" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L105" s="3" t="str">
+      <c r="L109" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
       </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q105" s="2"/>
-    </row>
-    <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L106" s="3" t="str">
-        <f t="shared" ref="L106:L116" si="6">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L107" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q107" s="2"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L108" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q108" s="2"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L109" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
       <c r="O109" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q109" s="2"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
+      <c r="B110" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="C110" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D110" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K110" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L110" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L110:L111" si="6">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
       </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="P110" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q110" s="2"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="B111" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C111" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D111" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K111" s="2" t="s">
         <v>278</v>
       </c>
@@ -7263,1028 +6829,1106 @@
         <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
       </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
       <c r="O111" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q111" s="2"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C112" s="3" t="str">
+        <f t="shared" ref="C112:C132" si="7">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D112" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K112" s="2" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="L112" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/1")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/1</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="O112" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q112" s="2"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="113" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B113" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D113" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/voucherFlag</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C114" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D114" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H114" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C115" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D115" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L113" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="P113" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q113" s="2"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B114" s="5" t="s">
+      <c r="K115" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L114" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2" t="s">
+      <c r="B116" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="P114" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q114" s="2"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B115" s="5" t="s">
+      <c r="C116" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D116" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L115" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q115" s="2"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="F116" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K116" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L116" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+      <c r="N116" s="2" t="s">
+        <v>515</v>
+      </c>
       <c r="O116" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q116" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="117" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C117" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D117" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="J117" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C117" s="3" t="str">
-        <f t="shared" ref="C117:C137" si="7">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D117" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="K117" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="O117" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L117" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/1")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/1</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2" t="s">
+      <c r="P117" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="P117" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q117" s="2"/>
-    </row>
-    <row r="118" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D118" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/voucherFlag</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="2"/>
-      <c r="H118" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml</v>
-      </c>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
       <c r="K118" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
       <c r="N118" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q118" s="2"/>
-    </row>
-    <row r="119" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C119" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H119" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
-      </c>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
+        <v>425</v>
+      </c>
       <c r="K119" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
       <c r="N119" s="2" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q119" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C120" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
       <c r="K120" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-    </row>
-    <row r="121" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="N120" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C121" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
       <c r="K121" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
+        <v>22</v>
+      </c>
       <c r="N121" s="2" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q121" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C122" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D122" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="K122" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
+        <v>22</v>
+      </c>
       <c r="N122" s="2" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q122" s="2"/>
+        <v>435</v>
+      </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C123" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
+      <c r="J123" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="K123" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="O123" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="P123" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q123" s="2"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C124" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
       <c r="K124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q124" s="2"/>
+        <v>523</v>
+      </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C125" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
       <c r="K125" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="O125" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="P125" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q125" s="2"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="L125" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
       <c r="K126" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q126" s="2"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="L126" s="3" t="str">
+        <f t="shared" ref="L126:L132" si="8">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C127" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
+        <v>125</v>
+      </c>
       <c r="K127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q127" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="L127" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C128" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-    </row>
-    <row r="129" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="L128" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C129" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+      </c>
       <c r="K129" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="L129" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C130" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K130" s="2" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="L130" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
+        <f t="shared" si="8"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-    </row>
-    <row r="131" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C131" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D131" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K131" s="2" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="L131" s="3" t="str">
-        <f t="shared" ref="L131:L137" si="8">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
+        <f t="shared" si="8"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-    </row>
-    <row r="132" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C132" s="3" t="str">
         <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D132" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K132" s="2" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="L132" s="3" t="str">
         <f t="shared" si="8"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>457</v>
+        <v>600</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C133" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D133" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
+        <v>547</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>560</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>470</v>
+        <v>589</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G133" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L133" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-    </row>
-    <row r="134" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C134" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D134" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" s="2"/>
-      <c r="H134" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
-      </c>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L134" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-      <c r="Q134" s="2"/>
-    </row>
-    <row r="135" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>457</v>
+        <v>600</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C135" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D135" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
+        <v>565</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>564</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>474</v>
+        <v>591</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L135" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>457</v>
+        <v>600</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
+        <v>http://purl.org/dc/elements/1.1</v>
       </c>
       <c r="D136" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
+        <v>http://purl.org/dc/elements/1.1/source</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>476</v>
+        <v>592</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L136" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>457</v>
+        <v>600</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C137" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D137" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
+        <v>548</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>566</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>478</v>
+        <v>579</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L137" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="4"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
     <hyperlink ref="H6" r:id="rId2"/>
-    <hyperlink ref="H14" r:id="rId3" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
-    <hyperlink ref="H15" r:id="rId4"/>
-    <hyperlink ref="H88" r:id="rId5"/>
-    <hyperlink ref="H99" r:id="rId6"/>
-    <hyperlink ref="N53" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
-    <hyperlink ref="C17" r:id="rId8"/>
-    <hyperlink ref="D17" r:id="rId9"/>
+    <hyperlink ref="H17" r:id="rId3" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
+    <hyperlink ref="H18" r:id="rId4"/>
+    <hyperlink ref="H92" r:id="rId5"/>
+    <hyperlink ref="H103" r:id="rId6"/>
+    <hyperlink ref="N57" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
+    <hyperlink ref="C20" r:id="rId8"/>
+    <hyperlink ref="D20" r:id="rId9"/>
+    <hyperlink ref="C21" r:id="rId10"/>
+    <hyperlink ref="D21" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D7" r:id="rId13" display="http://rs.tdwg.org/ac/terms/metadataLanguage"/>
+    <hyperlink ref="H7" r:id="rId14"/>
+    <hyperlink ref="C8" r:id="rId15" display="http://ns.adobe.com/xap/1.0/rights"/>
+    <hyperlink ref="D8" r:id="rId16" display="http://ns.adobe.com/xap/1.0/rights/Owner"/>
+    <hyperlink ref="C9" r:id="rId17" display="http://ns.adobe.com/xap/1.0/rights"/>
+    <hyperlink ref="D9" r:id="rId18" display="http://ns.adobe.com/xap/1.0/rights/WebStatement"/>
+    <hyperlink ref="C133" r:id="rId19"/>
+    <hyperlink ref="D133" r:id="rId20"/>
+    <hyperlink ref="C134" r:id="rId21"/>
+    <hyperlink ref="D134" r:id="rId22"/>
+    <hyperlink ref="C135" r:id="rId23"/>
+    <hyperlink ref="D135" r:id="rId24"/>
+    <hyperlink ref="C137" r:id="rId25"/>
+    <hyperlink ref="D137" r:id="rId26"/>
+    <hyperlink ref="C138" r:id="rId27"/>
+    <hyperlink ref="D138" r:id="rId28"/>
+    <hyperlink ref="C139" r:id="rId29"/>
+    <hyperlink ref="D139" r:id="rId30"/>
+    <hyperlink ref="C140" r:id="rId31"/>
+    <hyperlink ref="D140" r:id="rId32"/>
+    <hyperlink ref="C143" r:id="rId33"/>
+    <hyperlink ref="C141" r:id="rId34"/>
+    <hyperlink ref="D141" r:id="rId35"/>
+    <hyperlink ref="C142" r:id="rId36"/>
+    <hyperlink ref="D142" r:id="rId37"/>
+    <hyperlink ref="D143" r:id="rId38"/>
+    <hyperlink ref="C144" r:id="rId39"/>
+    <hyperlink ref="D144" r:id="rId40"/>
+    <hyperlink ref="C145" r:id="rId41"/>
+    <hyperlink ref="D145" r:id="rId42"/>
+    <hyperlink ref="C146" r:id="rId43"/>
+    <hyperlink ref="D146" r:id="rId44"/>
+    <hyperlink ref="C147" r:id="rId45"/>
+    <hyperlink ref="D147" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="618">
   <si>
     <t>group</t>
   </si>
@@ -1847,6 +1847,36 @@
   </si>
   <si>
     <t>The ABCD and HISPID 5 //Unit/Identifications/Identification/Result/TaxonIdentified/ScientificName/NameAtomised/Botanical/HybridFlag only applies to hybrid names (hybridFlag:"x").</t>
+  </si>
+  <si>
+    <t>List of preparations from a specimen</t>
+  </si>
+  <si>
+    <t>"sheet", "alcohol", "sheet|slide", "sheet|silica gel|molecular isolate"</t>
+  </si>
+  <si>
+    <t>https://github.com/hiscom/hispid-review-2014-15/issues/5</t>
+  </si>
+  <si>
+    <t>exsiccataSeries</t>
+  </si>
+  <si>
+    <t>exsiccataFascicle</t>
+  </si>
+  <si>
+    <t>exsiccataNumber</t>
+  </si>
+  <si>
+    <t>Exsiccata series</t>
+  </si>
+  <si>
+    <t>Fascicle in exsiccata series</t>
+  </si>
+  <si>
+    <t>Number in exsiccata series</t>
+  </si>
+  <si>
+    <t>https://github.com/hiscom/hispid-review-2014-15/issues/7</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2412,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2402,13 +2432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2416,6 +2439,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2740,13 +2766,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q160"/>
+  <dimension ref="A1:Q163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J109" sqref="J109"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,18 +3046,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
         <v>http://purl.org/dc/terms</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/language")</f>
         <v>http://purl.org/dc/terms/language</v>
       </c>
@@ -3070,11 +3096,11 @@
       <c r="B8" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
         <v>http://purl.org/dc/terms</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/rightsHolder")</f>
         <v>http://purl.org/dc/terms/rightsHolder</v>
       </c>
@@ -3272,7 +3298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -3287,6 +3313,19 @@
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/preparations")</f>
         <v>http://rs.tdwg.org/dwc/terms/preparations</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>609</v>
+      </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
@@ -4448,7 +4487,6 @@
       <c r="P43" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Q43"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -6058,7 +6096,7 @@
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I90" s="10" t="s">
         <v>525</v>
       </c>
       <c r="K90" s="2" t="s">
@@ -6631,7 +6669,7 @@
         <v>384</v>
       </c>
       <c r="C106" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" ref="C106:C111" si="6">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D106" s="3" t="str">
@@ -6668,7 +6706,7 @@
         <v>388</v>
       </c>
       <c r="C107" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D107" s="3" t="str">
@@ -6705,7 +6743,7 @@
         <v>391</v>
       </c>
       <c r="C108" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D108" s="3" t="str">
@@ -6738,18 +6776,18 @@
       <c r="A109" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="8" t="s">
         <v>601</v>
       </c>
       <c r="C109" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D109" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E109" s="9" t="s">
         <v>604</v>
       </c>
       <c r="F109" s="2" t="s">
@@ -6776,11 +6814,11 @@
       <c r="A110" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="8" t="s">
         <v>602</v>
       </c>
       <c r="C110" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D110" s="3" t="str">
@@ -6797,7 +6835,7 @@
         <v>278</v>
       </c>
       <c r="L110" s="3" t="str">
-        <f t="shared" ref="L110:L111" si="6">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
+        <f t="shared" ref="L110:L111" si="7">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
       </c>
     </row>
@@ -6805,11 +6843,11 @@
       <c r="A111" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C111" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D111" s="3" t="str">
@@ -6826,7 +6864,7 @@
         <v>278</v>
       </c>
       <c r="L111" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
       </c>
       <c r="O111" s="2" t="s">
@@ -6844,7 +6882,7 @@
         <v>397</v>
       </c>
       <c r="C112" s="3" t="str">
-        <f t="shared" ref="C112:C132" si="7">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" ref="C112:C135" si="8">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D112" s="3" t="str">
@@ -6874,296 +6912,266 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C113" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D113" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C114" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D114" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C115" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D115" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C113" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="C116" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D113" s="3" t="str">
+      <c r="D116" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFlag")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/voucherFlag</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="3" t="str">
+      <c r="F116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N113" s="2" t="s">
+      <c r="N116" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="O113" s="2" t="s">
+      <c r="O116" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="P113" s="2" t="s">
+      <c r="P116" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="117" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C114" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="C117" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D114" s="3" t="str">
+      <c r="D117" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H114" s="3" t="str">
+      <c r="H117" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K117" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N114" s="2" t="s">
+      <c r="N117" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="O114" s="2" t="s">
+      <c r="O117" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="P114" s="2" t="s">
+      <c r="P117" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="Q114" s="2" t="s">
+      <c r="Q117" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="118" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C115" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="C118" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D115" s="3" t="str">
+      <c r="D118" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="F118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K118" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="119" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C116" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="C119" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D116" s="3" t="str">
+      <c r="D119" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="F119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="N116" s="2" t="s">
+      <c r="N119" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="O116" s="2" t="s">
+      <c r="O119" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="P116" s="2" t="s">
+      <c r="P119" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="Q116" s="2" t="s">
+      <c r="Q119" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="120" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C117" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="C120" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D117" s="3" t="str">
+      <c r="D120" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="F120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="N117" s="2" t="s">
+      <c r="N120" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="O117" s="2" t="s">
+      <c r="O120" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="P117" s="2" t="s">
+      <c r="P120" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C118" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D118" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C119" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D119" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="P119" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C120" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D120" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="O120" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
@@ -7171,18 +7179,18 @@
         <v>411</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C121" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>20</v>
@@ -7191,13 +7199,13 @@
         <v>22</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -7205,144 +7213,166 @@
         <v>411</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C122" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D122" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C123" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D123" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C124" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D124" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C122" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="C125" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D122" s="3" t="str">
+      <c r="D125" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="N125" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="O122" s="2" t="s">
+      <c r="O125" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="P122" s="2" t="s">
+      <c r="P125" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C123" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="C126" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D123" s="3" t="str">
+      <c r="D126" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J123" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C124" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D124" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C125" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D125" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L125" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C126" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D126" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="L126" s="3" t="str">
-        <f t="shared" ref="L126:L132" si="8">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -7350,28 +7380,24 @@
         <v>436</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C127" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="L127" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
@@ -7379,30 +7405,27 @@
         <v>436</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C128" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>523</v>
       </c>
       <c r="L128" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
@@ -7411,60 +7434,56 @@
         <v>436</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C129" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H129" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>523</v>
       </c>
       <c r="L129" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L129:L135" si="9">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>523</v>
       </c>
       <c r="L130" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
@@ -7473,145 +7492,174 @@
         <v>436</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C131" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D131" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L131" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C132" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D132" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L132" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C133" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D133" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L133" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C131" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="C134" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D131" s="3" t="str">
+      <c r="D134" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K134" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="L131" s="3" t="str">
+      <c r="L134" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C135" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C132" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D132" s="3" t="str">
+      <c r="D135" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="F135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="L132" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="L135" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C136" s="3" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
-        <v>http://purl.org/dc/elements/1.1</v>
-      </c>
-      <c r="D136" s="3" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
-        <v>http://purl.org/dc/elements/1.1/source</v>
+        <v>547</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7619,19 +7667,25 @@
         <v>600</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>566</v>
+        <v>558</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -7639,19 +7693,25 @@
         <v>600</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7659,42 +7719,47 @@
         <v>600</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>569</v>
+        <v>546</v>
+      </c>
+      <c r="C139" s="3" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
+        <v>http://purl.org/dc/elements/1.1</v>
+      </c>
+      <c r="D139" s="3" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
+        <v>http://purl.org/dc/elements/1.1/source</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K139" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>570</v>
+        <v>548</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H140" s="2" t="s">
-        <v>581</v>
+      <c r="K140" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -7702,42 +7767,45 @@
         <v>600</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>572</v>
+        <v>4</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H141" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K141" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>538</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -7745,139 +7813,232 @@
         <v>600</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>538</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H143" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H144" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>538</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="K145" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>538</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="K146" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>538</v>
       </c>
       <c r="D147" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="4"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="4"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="4"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7899,36 +8060,38 @@
     <hyperlink ref="D8" r:id="rId16" display="http://ns.adobe.com/xap/1.0/rights/Owner"/>
     <hyperlink ref="C9" r:id="rId17" display="http://ns.adobe.com/xap/1.0/rights"/>
     <hyperlink ref="D9" r:id="rId18" display="http://ns.adobe.com/xap/1.0/rights/WebStatement"/>
-    <hyperlink ref="C133" r:id="rId19"/>
-    <hyperlink ref="D133" r:id="rId20"/>
-    <hyperlink ref="C134" r:id="rId21"/>
-    <hyperlink ref="D134" r:id="rId22"/>
-    <hyperlink ref="C135" r:id="rId23"/>
-    <hyperlink ref="D135" r:id="rId24"/>
-    <hyperlink ref="C137" r:id="rId25"/>
-    <hyperlink ref="D137" r:id="rId26"/>
-    <hyperlink ref="C138" r:id="rId27"/>
-    <hyperlink ref="D138" r:id="rId28"/>
-    <hyperlink ref="C139" r:id="rId29"/>
-    <hyperlink ref="D139" r:id="rId30"/>
-    <hyperlink ref="C140" r:id="rId31"/>
-    <hyperlink ref="D140" r:id="rId32"/>
-    <hyperlink ref="C143" r:id="rId33"/>
-    <hyperlink ref="C141" r:id="rId34"/>
-    <hyperlink ref="D141" r:id="rId35"/>
-    <hyperlink ref="C142" r:id="rId36"/>
-    <hyperlink ref="D142" r:id="rId37"/>
-    <hyperlink ref="D143" r:id="rId38"/>
-    <hyperlink ref="C144" r:id="rId39"/>
-    <hyperlink ref="D144" r:id="rId40"/>
-    <hyperlink ref="C145" r:id="rId41"/>
-    <hyperlink ref="D145" r:id="rId42"/>
-    <hyperlink ref="C146" r:id="rId43"/>
-    <hyperlink ref="D146" r:id="rId44"/>
-    <hyperlink ref="C147" r:id="rId45"/>
-    <hyperlink ref="D147" r:id="rId46"/>
+    <hyperlink ref="C136" r:id="rId19"/>
+    <hyperlink ref="D136" r:id="rId20"/>
+    <hyperlink ref="C137" r:id="rId21"/>
+    <hyperlink ref="D137" r:id="rId22"/>
+    <hyperlink ref="C138" r:id="rId23"/>
+    <hyperlink ref="D138" r:id="rId24"/>
+    <hyperlink ref="C140" r:id="rId25"/>
+    <hyperlink ref="D140" r:id="rId26"/>
+    <hyperlink ref="C141" r:id="rId27"/>
+    <hyperlink ref="D141" r:id="rId28"/>
+    <hyperlink ref="C142" r:id="rId29"/>
+    <hyperlink ref="D142" r:id="rId30"/>
+    <hyperlink ref="C143" r:id="rId31"/>
+    <hyperlink ref="D143" r:id="rId32"/>
+    <hyperlink ref="C146" r:id="rId33"/>
+    <hyperlink ref="C144" r:id="rId34"/>
+    <hyperlink ref="D144" r:id="rId35"/>
+    <hyperlink ref="C145" r:id="rId36"/>
+    <hyperlink ref="D145" r:id="rId37"/>
+    <hyperlink ref="D146" r:id="rId38"/>
+    <hyperlink ref="C147" r:id="rId39"/>
+    <hyperlink ref="D147" r:id="rId40"/>
+    <hyperlink ref="C148" r:id="rId41"/>
+    <hyperlink ref="D148" r:id="rId42"/>
+    <hyperlink ref="C149" r:id="rId43"/>
+    <hyperlink ref="D149" r:id="rId44"/>
+    <hyperlink ref="C150" r:id="rId45"/>
+    <hyperlink ref="D150" r:id="rId46"/>
+    <hyperlink ref="H14" r:id="rId47" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
+    <hyperlink ref="L144" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="609">
   <si>
     <t>group</t>
   </si>
@@ -393,9 +393,6 @@
     <t>eventDate</t>
   </si>
   <si>
-    <t>The date or period when the specimen was colleced</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -726,18 +723,12 @@
     <t>georeferencedDate</t>
   </si>
   <si>
-    <t>The date on which the Location was georeferen</t>
-  </si>
-  <si>
     <t>Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E).</t>
   </si>
   <si>
     <t>georeferenceSources</t>
   </si>
   <si>
-    <t>A list (concatenated and separated) of maps, gazetteers, or other resources used to georeference the Location, described specifically enough to allow anyone in the future to use the same resource.</t>
-  </si>
-  <si>
     <t>//Unit/Gathering/SiteCoordinateSets/SiteCoordinates/GeoreferenceSources</t>
   </si>
   <si>
@@ -796,18 +787,6 @@
   </si>
   <si>
     <t>//Unit/Gathering/Altitude/MeasurementOrFactText</t>
-  </si>
-  <si>
-    <t>Accuracy of Maximum Altitude</t>
-  </si>
-  <si>
-    <t>altacyx</t>
-  </si>
-  <si>
-    <t>Source of Altitude Accuracy Flag</t>
-  </si>
-  <si>
-    <t>altsou</t>
   </si>
   <si>
     <t>elevationMethod</t>
@@ -854,27 +833,9 @@
     <t>//Unit/Gathering/Depth/MeasurementOrFactText</t>
   </si>
   <si>
-    <t>Accuracy of Depth</t>
-  </si>
-  <si>
     <t>under consideration</t>
   </si>
   <si>
-    <t>depacy</t>
-  </si>
-  <si>
-    <t>Accuracy of Maximum Depth</t>
-  </si>
-  <si>
-    <t>depacyx</t>
-  </si>
-  <si>
-    <t>Source of Depth Accuracy Flag</t>
-  </si>
-  <si>
-    <t>Method of Depth Determination</t>
-  </si>
-  <si>
     <t>Identification</t>
   </si>
   <si>
@@ -1227,9 +1188,6 @@
   </si>
   <si>
     <t>voucherFlag</t>
-  </si>
-  <si>
-    <t>Term to indicate the collection onject has served as a voucher for a special purpose.</t>
   </si>
   <si>
     <t>vou</t>
@@ -1877,13 +1835,28 @@
   </si>
   <si>
     <t>https://github.com/hiscom/hispid-review-2014-15/issues/7</t>
+  </si>
+  <si>
+    <t>Verification status of the identification, or an indication of how reliable the identification is deemed to be.</t>
+  </si>
+  <si>
+    <t>The date or period when the specimen was collected</t>
+  </si>
+  <si>
+    <t>The date on which the Location was georeferenced.</t>
+  </si>
+  <si>
+    <t>A list of maps, gazetteers, or other resources used to georeference the Location, described specifically enough to allow anyone in the future to use the same resource.</t>
+  </si>
+  <si>
+    <t>Term to indicate the collection object has served as a voucher for a special purpose.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2022,14 +1995,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2412,7 +2377,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2426,19 +2391,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2766,13 +2728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q163"/>
+  <dimension ref="A1:Q157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,7 +2743,7 @@
     <col min="2" max="2" width="45.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="81.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="50.28515625" style="2" customWidth="1"/>
@@ -2879,7 +2841,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>23</v>
@@ -2919,7 +2881,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -2947,7 +2909,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>22</v>
@@ -2955,8 +2917,8 @@
       <c r="M4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>461</v>
+      <c r="N4" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>31</v>
@@ -3002,8 +2964,8 @@
       <c r="M5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>462</v>
+      <c r="N5" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>36</v>
@@ -3017,7 +2979,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -3040,18 +3002,18 @@
         <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -3062,27 +3024,27 @@
         <v>http://purl.org/dc/terms/language</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -3094,7 +3056,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -3105,7 +3067,7 @@
         <v>http://purl.org/dc/terms/rightsHolder</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
@@ -3116,7 +3078,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -3127,13 +3089,13 @@
         <v>http://purl.org/dc/terms/license</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>586</v>
+      <c r="J9" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -3158,7 +3120,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>44</v>
@@ -3204,8 +3166,8 @@
       <c r="M11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>463</v>
+      <c r="N11" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>48</v>
@@ -3252,7 +3214,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>53</v>
@@ -3289,7 +3251,7 @@
         <v>54</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>56</v>
@@ -3314,7 +3276,7 @@
         <v>http://rs.tdwg.org/dwc/terms/preparations</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>20</v>
@@ -3324,7 +3286,7 @@
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
@@ -3337,7 +3299,7 @@
         <v>57</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>58</v>
@@ -3377,7 +3339,7 @@
         <v>59</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>62</v>
@@ -3421,7 +3383,7 @@
         <v>63</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>66</v>
@@ -3472,7 +3434,7 @@
         <v>67</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>71</v>
@@ -3481,7 +3443,7 @@
         <v>71</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3519,13 +3481,13 @@
         <v>72</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3563,7 +3525,7 @@
         <v>78</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -3571,16 +3533,16 @@
         <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>20</v>
@@ -3590,14 +3552,14 @@
         <v>http://rs.gbif.org/vocabulary/gbif/sex.xml</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L20" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/18")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/18</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -3605,29 +3567,29 @@
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="2" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3669,7 +3631,7 @@
         <v>79</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>82</v>
@@ -3678,7 +3640,7 @@
         <v>82</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="120" x14ac:dyDescent="0.25">
@@ -3703,7 +3665,7 @@
         <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>85</v>
@@ -3719,7 +3681,7 @@
         <v>83</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>86</v>
@@ -3757,7 +3719,7 @@
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L24" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/33")</f>
@@ -3789,7 +3751,7 @@
         <v>92</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3817,14 +3779,14 @@
         <v>95</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L26" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/32")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/32</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3832,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -3843,16 +3805,16 @@
         <v>http://rs.tdwg.org/dwc/terms/disposition</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L27" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/15")</f>
@@ -4014,7 +3976,7 @@
         <v>112</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -4087,7 +4049,7 @@
         <v>116</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -4128,7 +4090,7 @@
         <v>122</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -4147,16 +4109,16 @@
         <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>22</v>
@@ -4165,13 +4127,13 @@
         <v>123</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -4179,7 +4141,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4190,7 +4152,7 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>20</v>
@@ -4199,24 +4161,24 @@
         <v>22</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="P36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4227,7 +4189,7 @@
         <v>http://rs.tdwg.org/dwc/terms/locality</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>20</v>
@@ -4236,24 +4198,24 @@
         <v>22</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="P37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4264,36 +4226,36 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="K38" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="P38" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4304,30 +4266,30 @@
         <v>http://rs.tdwg.org/dwc/terms/continent</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4338,36 +4300,36 @@
         <v>http://rs.tdwg.org/dwc/terms/country</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="P40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4378,39 +4340,39 @@
         <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O41" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="P41" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4421,39 +4383,39 @@
         <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="P42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4464,36 +4426,36 @@
         <v>http://rs.tdwg.org/dwc/terms/county</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O43" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="P43" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4504,34 +4466,34 @@
         <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="K44" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L44" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4542,34 +4504,34 @@
         <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="K45" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L45" s="3" t="str">
         <f t="shared" ref="L45:L46" si="4">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4580,34 +4542,34 @@
         <v>http://rs.tdwg.org/dwc/terms/island</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="K46" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L46" s="3" t="str">
         <f t="shared" si="4"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
       </c>
       <c r="M46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4618,30 +4580,30 @@
         <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4652,30 +4614,30 @@
         <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4686,33 +4648,33 @@
         <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4723,39 +4685,39 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="O50" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="P50" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4766,39 +4728,39 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="O51" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="P51" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4809,36 +4771,36 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P52" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4849,34 +4811,34 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="H53" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4887,36 +4849,36 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P54" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4927,27 +4889,27 @@
         <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="K55" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4958,36 +4920,36 @@
         <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="O56" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="P56" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4998,40 +4960,40 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="K57" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L57" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/13")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5042,13 +5004,13 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>22</v>
@@ -5058,24 +5020,24 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5086,30 +5048,30 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5120,27 +5082,27 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>238</v>
+        <v>607</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5151,38 +5113,38 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H61" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L61" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/19")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/19</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5193,27 +5155,27 @@
         <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C63" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
@@ -5224,33 +5186,33 @@
         <v>http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C64" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5261,33 +5223,33 @@
         <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M64" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="N64" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="P64" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C65" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5298,33 +5260,33 @@
         <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C66" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -5335,51 +5297,85 @@
         <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="N66" s="2" t="s">
+      <c r="F67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="P67" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="K67" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="O67" s="2" t="s">
+      <c r="C68" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D68" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="F68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N68" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="K68" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>262</v>
@@ -5390,297 +5386,390 @@
     </row>
     <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C69" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
+        <v>178</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M69" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="O69" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C70" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="N70" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="O70" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="P70" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C71" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>179</v>
+        <v>20</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L71" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/2")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
+      </c>
       <c r="M71" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="N71" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="O71" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C72" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="N72" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D73" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K73" s="2" t="s">
-        <v>278</v>
+        <v>22</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D74" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
+      </c>
       <c r="K74" s="2" t="s">
-        <v>278</v>
+        <v>22</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K75" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="L75" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D76" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
+      </c>
       <c r="K76" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="L76" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/31")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/31</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C77" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L77" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/2")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
-      </c>
       <c r="M77" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C78" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
+        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>290</v>
+        <v>479</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C79" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>20</v>
@@ -5688,222 +5777,227 @@
       <c r="K79" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M79" s="2" t="s">
-        <v>288</v>
+      <c r="N79" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C80" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H80" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>297</v>
+      <c r="L80" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C81" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
+        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L81" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
+        <v>22</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C82" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D82" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D82" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/31")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/31</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C83" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
       <c r="D83" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="H83" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M83" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="N83" s="2" t="s">
-        <v>492</v>
+        <v>312</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
-        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>125</v>
+        <v>20</v>
+      </c>
+      <c r="H84" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>511</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>493</v>
+        <v>316</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C85" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>20</v>
@@ -5912,769 +6006,754 @@
         <v>22</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>494</v>
+        <v>320</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C86" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <f t="shared" ref="C86:C99" si="5">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
+        <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L86" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
-      </c>
       <c r="M86" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C87" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
-        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
+        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>318</v>
+      <c r="J87" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>319</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C88" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="P88" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="B89" s="4" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C89" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="5"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
+        <v>http://rs.tdwg.org/dwc/terms/class</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
+      <c r="J89" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M89" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="N89" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C90" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="5"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
+        <v>http://rs.tdwg.org/dwc/terms/order</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>525</v>
+      <c r="J90" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C91" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="5"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
+        <v>http://rs.tdwg.org/dwc/terms/family</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M91" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="N91" s="2" t="s">
-        <v>333</v>
+        <v>487</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C92" s="3" t="str">
-        <f t="shared" ref="C92:C105" si="5">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
-        <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/genus</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="J92" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
-        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
-        <v>http://rs.tdwg.org/dwc/terms/class</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
-        <v>http://rs.tdwg.org/dwc/terms/order</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I96" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="J96" s="2" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
-        <v>http://rs.tdwg.org/dwc/terms/family</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="H97" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="J97" s="2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>22</v>
+        <v>509</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/genus</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>358</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
+        <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>362</v>
+      <c r="I99" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>503</v>
+        <v>368</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C100" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" ref="C100:C105" si="6">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>366</v>
+      <c r="G100" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M100" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="N100" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C101" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="6"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>370</v>
+      <c r="G101" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M101" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="N101" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C102" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="6"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M102" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="N102" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>375</v>
+        <v>322</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>587</v>
       </c>
       <c r="C103" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="6"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>376</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>590</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>378</v>
+      <c r="I103" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="L103" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>379</v>
+        <v>322</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>588</v>
       </c>
       <c r="C104" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="6"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="L104" s="3" t="str">
+        <f t="shared" ref="L104:L105" si="7">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>381</v>
+        <v>322</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>589</v>
       </c>
       <c r="C105" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="6"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
-        <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>458</v>
+        <v>592</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="K105" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L105" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
+      </c>
+      <c r="O105" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="O105" s="2" t="s">
+      <c r="P105" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C106" s="3" t="str">
-        <f t="shared" ref="C106:C111" si="6">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" ref="C106:C129" si="8">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>385</v>
@@ -6682,14 +6761,15 @@
       <c r="F106" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="K106" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L106" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/1")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/1</v>
+      </c>
       <c r="N106" s="2" t="s">
-        <v>510</v>
+        <v>386</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>387</v>
@@ -6698,1347 +6778,1133 @@
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C107" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D107" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C108" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D108" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C109" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D109" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C107" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="C110" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D107" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="D110" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/voucherFlag</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="O110" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="P110" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C111" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D111" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H111" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N107" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C108" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="N111" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C112" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D108" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C109" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D109" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L109" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="C110" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D110" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L110" s="3" t="str">
-        <f t="shared" ref="L110:L111" si="7">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C111" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D111" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L111" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
-      </c>
-      <c r="O111" s="2" t="s">
+      <c r="D112" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="P111" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="F112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C112" s="3" t="str">
-        <f t="shared" ref="C112:C135" si="8">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D112" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L112" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/1")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/1</v>
-      </c>
-      <c r="N112" s="2" t="s">
+    </row>
+    <row r="113" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C113" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D113" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="O112" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="O113" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="P112" s="2" t="s">
+      <c r="P113" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="C113" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+      <c r="Q113" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C114" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D113" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="C114" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
       <c r="D114" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>615</v>
+        <v>402</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>617</v>
+        <v>270</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>613</v>
+        <v>406</v>
       </c>
       <c r="C115" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>616</v>
+        <v>407</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C116" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/voucherFlag</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H116" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml</v>
+      <c r="G116" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C117" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D117" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H117" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q117" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D118" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="N118" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C119" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q119" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C120" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="J120" s="2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="O120" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C121" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="P121" s="2" t="s">
-        <v>422</v>
+        <v>509</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C122" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D122" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="K122" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="P122" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="L122" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C123" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="O123" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="P123" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="L123" s="3" t="str">
+        <f t="shared" ref="L123:L129" si="9">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C124" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>432</v>
+        <v>509</v>
+      </c>
+      <c r="L124" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C125" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N125" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="O125" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="P125" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="L125" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L126" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="C127" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
+      </c>
+      <c r="L127" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C128" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L128" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
+        <f t="shared" si="9"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C129" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L129" s="3" t="str">
-        <f t="shared" ref="L129:L135" si="9">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C130" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D130" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L130" s="3" t="str">
         <f t="shared" si="9"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>436</v>
+        <v>586</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C131" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D131" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
+        <v>544</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>449</v>
+        <v>576</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="K131" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L131" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>436</v>
+        <v>586</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C132" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D132" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
+        <v>551</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>451</v>
+        <v>577</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+        <v>29</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L132" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>436</v>
+        <v>586</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>452</v>
+        <v>532</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
+        <v>http://purl.org/dc/elements/1.1</v>
       </c>
       <c r="D133" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
+        <v>http://purl.org/dc/elements/1.1/source</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L133" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>436</v>
+        <v>586</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C134" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D134" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
+        <v>534</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>455</v>
+        <v>565</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L134" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>436</v>
+        <v>586</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C135" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D135" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
+        <v>4</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>457</v>
+        <v>566</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L135" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>561</v>
+        <v>524</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>126</v>
+        <v>20</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C139" s="3" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
-        <v>http://purl.org/dc/elements/1.1</v>
-      </c>
-      <c r="D139" s="3" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
-        <v>http://purl.org/dc/elements/1.1/source</v>
+      <c r="C139" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>4</v>
+        <v>540</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="K143" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="K144" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K150" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="4"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="4"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="4"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="4"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8046,8 +7912,8 @@
     <hyperlink ref="H6" r:id="rId2"/>
     <hyperlink ref="H17" r:id="rId3" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
     <hyperlink ref="H18" r:id="rId4"/>
-    <hyperlink ref="H92" r:id="rId5"/>
-    <hyperlink ref="H103" r:id="rId6"/>
+    <hyperlink ref="H86" r:id="rId5"/>
+    <hyperlink ref="H97" r:id="rId6"/>
     <hyperlink ref="N57" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
     <hyperlink ref="C20" r:id="rId8"/>
     <hyperlink ref="D20" r:id="rId9"/>
@@ -8060,36 +7926,36 @@
     <hyperlink ref="D8" r:id="rId16" display="http://ns.adobe.com/xap/1.0/rights/Owner"/>
     <hyperlink ref="C9" r:id="rId17" display="http://ns.adobe.com/xap/1.0/rights"/>
     <hyperlink ref="D9" r:id="rId18" display="http://ns.adobe.com/xap/1.0/rights/WebStatement"/>
-    <hyperlink ref="C136" r:id="rId19"/>
-    <hyperlink ref="D136" r:id="rId20"/>
-    <hyperlink ref="C137" r:id="rId21"/>
-    <hyperlink ref="D137" r:id="rId22"/>
-    <hyperlink ref="C138" r:id="rId23"/>
-    <hyperlink ref="D138" r:id="rId24"/>
-    <hyperlink ref="C140" r:id="rId25"/>
-    <hyperlink ref="D140" r:id="rId26"/>
-    <hyperlink ref="C141" r:id="rId27"/>
-    <hyperlink ref="D141" r:id="rId28"/>
-    <hyperlink ref="C142" r:id="rId29"/>
-    <hyperlink ref="D142" r:id="rId30"/>
-    <hyperlink ref="C143" r:id="rId31"/>
-    <hyperlink ref="D143" r:id="rId32"/>
-    <hyperlink ref="C146" r:id="rId33"/>
-    <hyperlink ref="C144" r:id="rId34"/>
-    <hyperlink ref="D144" r:id="rId35"/>
-    <hyperlink ref="C145" r:id="rId36"/>
-    <hyperlink ref="D145" r:id="rId37"/>
-    <hyperlink ref="D146" r:id="rId38"/>
-    <hyperlink ref="C147" r:id="rId39"/>
-    <hyperlink ref="D147" r:id="rId40"/>
-    <hyperlink ref="C148" r:id="rId41"/>
-    <hyperlink ref="D148" r:id="rId42"/>
-    <hyperlink ref="C149" r:id="rId43"/>
-    <hyperlink ref="D149" r:id="rId44"/>
-    <hyperlink ref="C150" r:id="rId45"/>
-    <hyperlink ref="D150" r:id="rId46"/>
+    <hyperlink ref="C130" r:id="rId19"/>
+    <hyperlink ref="D130" r:id="rId20"/>
+    <hyperlink ref="C131" r:id="rId21"/>
+    <hyperlink ref="D131" r:id="rId22"/>
+    <hyperlink ref="C132" r:id="rId23"/>
+    <hyperlink ref="D132" r:id="rId24"/>
+    <hyperlink ref="C134" r:id="rId25"/>
+    <hyperlink ref="D134" r:id="rId26"/>
+    <hyperlink ref="C135" r:id="rId27"/>
+    <hyperlink ref="D135" r:id="rId28"/>
+    <hyperlink ref="C136" r:id="rId29"/>
+    <hyperlink ref="D136" r:id="rId30"/>
+    <hyperlink ref="C137" r:id="rId31"/>
+    <hyperlink ref="D137" r:id="rId32"/>
+    <hyperlink ref="C140" r:id="rId33"/>
+    <hyperlink ref="C138" r:id="rId34"/>
+    <hyperlink ref="D138" r:id="rId35"/>
+    <hyperlink ref="C139" r:id="rId36"/>
+    <hyperlink ref="D139" r:id="rId37"/>
+    <hyperlink ref="D140" r:id="rId38"/>
+    <hyperlink ref="C141" r:id="rId39"/>
+    <hyperlink ref="D141" r:id="rId40"/>
+    <hyperlink ref="C142" r:id="rId41"/>
+    <hyperlink ref="D142" r:id="rId42"/>
+    <hyperlink ref="C143" r:id="rId43"/>
+    <hyperlink ref="D143" r:id="rId44"/>
+    <hyperlink ref="C144" r:id="rId45"/>
+    <hyperlink ref="D144" r:id="rId46"/>
     <hyperlink ref="H14" r:id="rId47" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
-    <hyperlink ref="L144" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
+    <hyperlink ref="L138" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>

--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\hispid-review-2014-15\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="HISPID2015" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="762">
   <si>
     <t>group</t>
   </si>
@@ -99,9 +94,6 @@
     <t>An acronym or code of a collection or source within the institution.</t>
   </si>
   <si>
-    <t>"CBG", "QRS"</t>
-  </si>
-  <si>
     <t>modified</t>
   </si>
   <si>
@@ -228,9 +220,6 @@
     <t>An indication of abundance of the taxon at the collecting locality as recorded by the collector</t>
   </si>
   <si>
-    <t>organismQuantityUnit with the value "Tansley (1946) scale" must be delivered alongside this term.</t>
-  </si>
-  <si>
     <t>"dominant", "rare"</t>
   </si>
   <si>
@@ -649,9 +638,6 @@
   </si>
   <si>
     <t>Recommended best practice is to use a controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>:decimal degrees", "UTM"</t>
   </si>
   <si>
     <t>verbatimSRS</t>
@@ -1185,9 +1171,6 @@
   </si>
   <si>
     <t>misc</t>
-  </si>
-  <si>
-    <t>voucherFlag</t>
   </si>
   <si>
     <t>vou</t>
@@ -1747,9 +1730,6 @@
     <t>rightsHolder</t>
   </si>
   <si>
-    <t>Owner of the copyright over the resource.</t>
-  </si>
-  <si>
     <t>Creator of the media object.</t>
   </si>
   <si>
@@ -1850,13 +1830,487 @@
   </si>
   <si>
     <t>Term to indicate the collection object has served as a voucher for a special purpose.</t>
+  </si>
+  <si>
+    <t>"CBG", "QRS", "WAHERB"</t>
+  </si>
+  <si>
+    <t>May be the same as institutionCode</t>
+  </si>
+  <si>
+    <t>The format of names is not strictly enforced, but when available should be provided in the standard form.</t>
+  </si>
+  <si>
+    <t>Note - this is a broader definition than implied by the HISPID 3 mapping</t>
+  </si>
+  <si>
+    <t>organismQuantityType</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/organismQuantityType</t>
+  </si>
+  <si>
+    <t>The value should be from "Tansley (1946) scale"</t>
+  </si>
+  <si>
+    <t>"Tansley (1946) scale"</t>
+  </si>
+  <si>
+    <t>organismQuantityType  must be delivered alongside this term.</t>
+  </si>
+  <si>
+    <t>The type of entity to which the number or enumeration value reported for the quantity of organisms in organismQuantity refers</t>
+  </si>
+  <si>
+    <t>This may not reflect the currently political boundaries</t>
+  </si>
+  <si>
+    <t>"decimal degrees", "UTM"; "NZMG"</t>
+  </si>
+  <si>
+    <t>spadat</t>
+  </si>
+  <si>
+    <t>voucherFor</t>
+  </si>
+  <si>
+    <t>Audubon Core</t>
+  </si>
+  <si>
+    <t>dc:type</t>
+  </si>
+  <si>
+    <t>mediaItemID</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/identifier</t>
+  </si>
+  <si>
+    <t>An arbitrary code that is unique for the resource, with the resource being either a provider, collection, or media item</t>
+  </si>
+  <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
+    <t>subtype</t>
+  </si>
+  <si>
+    <t>dcterms:modified</t>
+  </si>
+  <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/subtype</t>
+  </si>
+  <si>
+    <t>Any URI may be used that provides for more specialization than the type. Possible values are community-defined.</t>
+  </si>
+  <si>
+    <t>URI to vocabulary term</t>
+  </si>
+  <si>
+    <t>Drawing, Painting, Logo, Icon, Illustration, Graphic, Photograph, Animation, Film, SlideShow, DesignPlan, Diagram, Map, MusicalNotation, IdentificationKey, ScannedText, RecordedText, RecordedOrganism, TaxonPage, MultimediaLearningObject, VirtualRealityEnvironment, GlossaryPage.</t>
+  </si>
+  <si>
+    <t>metadataDate</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/xap/1.0/MetadataDate</t>
+  </si>
+  <si>
+    <t>Point in time recording when the last modification to metadata (not necessarily the media object itself) occurred.</t>
+  </si>
+  <si>
+    <t>xmp:MetadataDate</t>
+  </si>
+  <si>
+    <t>ac:subtype</t>
+  </si>
+  <si>
+    <t>providerManagedID</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/providerManagedID</t>
+  </si>
+  <si>
+    <t>A free-form identifier (a simple number, an alphanumeric code, a URL, etc.) that is unique and meaningful primarily for the data provider.</t>
+  </si>
+  <si>
+    <t>ac:providerManagedID</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/available</t>
+  </si>
+  <si>
+    <t>The date (often a range) that the resource became or will become available.</t>
+  </si>
+  <si>
+    <t>dcterms:available</t>
+  </si>
+  <si>
+    <t>hasServiceAccessPoint</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/hasServiceAccessPoint</t>
+  </si>
+  <si>
+    <t>Service access point for metadata about this media resource</t>
+  </si>
+  <si>
+    <t>ac:hasServiceAccessPoint</t>
+  </si>
+  <si>
+    <t>rights</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/rights</t>
+  </si>
+  <si>
+    <t>Information about rights held in and over the resource.</t>
+  </si>
+  <si>
+    <t>cf. dc:rightsHolder which is "A person or organization owning or managing rights over the resource."</t>
+  </si>
+  <si>
+    <t>This definition maps more closely to xmprights:Owner  than dc:rightsHolder.  This mapping may be incorrect</t>
+  </si>
+  <si>
+    <t>xmpRights:Owner</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>[The name of] Owner of the copyright over the resource.</t>
+  </si>
+  <si>
+    <t>xmpRights:WebStatement</t>
+  </si>
+  <si>
+    <t>this defintion matches with the Audubon Core field which is restricted to a URL, but not necessarily to the dc field, which is potentially permits more than a URL - this mapping to dc therefore needs to be reviewed</t>
+  </si>
+  <si>
+    <t>licenseTerms</t>
+  </si>
+  <si>
+    <t>licenseURL</t>
+  </si>
+  <si>
+    <t>licenseLogoURL</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>attributionURL</t>
+  </si>
+  <si>
+    <t>attributionLinkURL</t>
+  </si>
+  <si>
+    <t>funding</t>
+  </si>
+  <si>
+    <t>dc:source</t>
+  </si>
+  <si>
+    <t>dc:creator</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>xmpRights:UsageTerms</t>
+  </si>
+  <si>
+    <t>ac:licenseLogoUR</t>
+  </si>
+  <si>
+    <t>photoshop:Credit</t>
+  </si>
+  <si>
+    <t>ac:attributionLogoURL</t>
+  </si>
+  <si>
+    <t>ac:attributionLinkURL</t>
+  </si>
+  <si>
+    <t>ac:fundingAttribution</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/licenseLogoURL</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/attributionLogoURL</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/photoshop/1.0/Credit</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/photoshop/1.0</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/xap/1.0/rights/WebStatement</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/xap/1.0/rights/UsageTerms</t>
+  </si>
+  <si>
+    <t>The license statement defining how resources may be used.</t>
+  </si>
+  <si>
+    <t>A URL defining or further elaborating on the license statement (e. g., a web page explaining the precise terms of use).</t>
+  </si>
+  <si>
+    <t>A URL providing access to a logo that symbolizes the License.</t>
+  </si>
+  <si>
+    <t>free text for "Please cite this as…"</t>
+  </si>
+  <si>
+    <t>The URL of the icon or logo image to appear in source attribution.</t>
+  </si>
+  <si>
+    <t>The URL where information about ownership, attribution, etc. of the resource may be found.</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/attributionLinkURL</t>
+  </si>
+  <si>
+    <t>Organizations or individuals who funded the creation of the resource.</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/fundingAttribution</t>
+  </si>
+  <si>
+    <t>ac:providerLiteral</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/providerLiteral</t>
+  </si>
+  <si>
+    <t>Person or organization responsible for presenting the media resource.</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>ac:caption</t>
+  </si>
+  <si>
+    <t>ac:metadataLanguageLiteral, ac:metadataLanguage, dcterms:language</t>
+  </si>
+  <si>
+    <t>ac:physicalSetting</t>
+  </si>
+  <si>
+    <t>Iptc4xmpExt:CVterm</t>
+  </si>
+  <si>
+    <t>subjectCategoryVocabulary</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/subjectCategoryVocabulary</t>
+  </si>
+  <si>
+    <t>Any vocabulary or formal classification from which terms in the Subject Category have been drawn.</t>
+  </si>
+  <si>
+    <t>ac:subjectCategoryVocabulary</t>
+  </si>
+  <si>
+    <t>ac:tag</t>
+  </si>
+  <si>
+    <t>Iptc4xmpExt:CountryCode</t>
+  </si>
+  <si>
+    <t>Iptc4xmpExt:CountryName</t>
+  </si>
+  <si>
+    <t>Iptc4xmpExt:ProvinceState</t>
+  </si>
+  <si>
+    <t>Iptc4xmpExt:Sublocation</t>
+  </si>
+  <si>
+    <t>dcterms:temporal</t>
+  </si>
+  <si>
+    <t>xmp:CreateDate</t>
+  </si>
+  <si>
+    <t>taxonCoverage</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/taxonCoverage</t>
+  </si>
+  <si>
+    <t>A higher taxon (e. g., a genus, family, or order) at the level of the genus or higher, that covers all taxa that are the primary subject of the resource</t>
+  </si>
+  <si>
+    <t>ac:taxonCoverage</t>
+  </si>
+  <si>
+    <t>dwc:scientificName</t>
+  </si>
+  <si>
+    <t>dwc:identificationQualifier</t>
+  </si>
+  <si>
+    <t>dwc:vernacularName</t>
+  </si>
+  <si>
+    <t>scientificNameId</t>
+  </si>
+  <si>
+    <t>dwc:scientificNameID</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/scientificNameID</t>
+  </si>
+  <si>
+    <t>An identifier for the nomenclatural (not taxonomic) details of a scientific name.</t>
+  </si>
+  <si>
+    <t>dwc:identifiedBy</t>
+  </si>
+  <si>
+    <t>dwc:dateIdentified</t>
+  </si>
+  <si>
+    <t>ac:subjectPart</t>
+  </si>
+  <si>
+    <t>dwc:sex</t>
+  </si>
+  <si>
+    <t>dwc:lifeStage</t>
+  </si>
+  <si>
+    <t>ac:subjectOrientation</t>
+  </si>
+  <si>
+    <t>dwc:preparations</t>
+  </si>
+  <si>
+    <t>ac:digitizationDate</t>
+  </si>
+  <si>
+    <t>ac:captureDevice</t>
+  </si>
+  <si>
+    <t>ac:resourceCreationTechnique</t>
+  </si>
+  <si>
+    <t>ac:relatedResourceID</t>
+  </si>
+  <si>
+    <t>derivedFrom</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/derivedFrom</t>
+  </si>
+  <si>
+    <t>A reference to an original resource from which the current one is derived.</t>
+  </si>
+  <si>
+    <t>ac:derivedFrom</t>
+  </si>
+  <si>
+    <t>associatedSpecimenReference</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/associatedSpecimenReference</t>
+  </si>
+  <si>
+    <t>A reference to a specimen associated with this resource.</t>
+  </si>
+  <si>
+    <t>This should be in the same form as catalogNumber</t>
+  </si>
+  <si>
+    <t>ac:associatedSpecimenReference</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/associatedObservationReference</t>
+  </si>
+  <si>
+    <t>associatedObservationReference</t>
+  </si>
+  <si>
+    <t>A reference to an observation associated with this resource.</t>
+  </si>
+  <si>
+    <t>ac:associatedObservationReference</t>
+  </si>
+  <si>
+    <t>accessURI</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/accessURI</t>
+  </si>
+  <si>
+    <t>A URI that uniquely identifies a service that provides a representation of the underlying resource. If this resource can be acquired by an http request, its http URL should be given. If not, but it has some URI in another URI scheme, that may be given here.</t>
+  </si>
+  <si>
+    <t>ac:accessURI</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>A string describing the technical format of the resource (file format or physical medium).</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/format</t>
+  </si>
+  <si>
+    <t>dc:format</t>
+  </si>
+  <si>
+    <t>maybe be more appropriate to use  dcterms:format?</t>
+  </si>
+  <si>
+    <t>variant</t>
+  </si>
+  <si>
+    <t>MediaItem (Access)</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/variant</t>
+  </si>
+  <si>
+    <t>A URI designating what this Service Access Point provides. Some suggested values are the URIs ac:Thumbnail, ac:Trailer, ac:LowerQuality, ac:MediumQuality, ac:GoodQuality, ac:BestQuality, and ac:Offline. Additional URIs from communities of practice may be introduced.</t>
+  </si>
+  <si>
+    <t>ac:variant</t>
+  </si>
+  <si>
+    <t>furtherInformationURL</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/furtherInformationURL</t>
+  </si>
+  <si>
+    <t>The URL of a Web site that provides additional information about the version of the media resource that is provided by the Service Access Point.</t>
+  </si>
+  <si>
+    <t>ac:furtherInformationURL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2013,8 +2467,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2200,6 +2660,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2377,7 +2843,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2405,6 +2871,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2720,7 +3213,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2728,24 +3221,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q157"/>
+  <dimension ref="A1:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E127" sqref="E127"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54" style="2" customWidth="1"/>
+    <col min="4" max="4" width="66" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="50.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="42.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="67.140625" style="2" customWidth="1"/>
@@ -2753,11 +3246,12 @@
     <col min="12" max="12" width="65.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="87.85546875" style="2" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="2"/>
+    <col min="15" max="16" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="53" style="2" customWidth="1"/>
+    <col min="18" max="18" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2809,8 +3303,11 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2841,7 +3338,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>23</v>
@@ -2850,7 +3347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2871,8 +3368,11 @@
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>605</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>604</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>22</v>
@@ -2881,15 +3381,15 @@
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -2900,39 +3400,42 @@
         <v>http://purl.org/dc/terms/modified</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
@@ -2943,16 +3446,16 @@
         <v>http://rs.tdwg.org/dwc/terms/basisOfRecord</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>22</v>
@@ -2962,24 +3465,24 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/27</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -2990,30 +3493,33 @@
         <v>http://purl.org/dc/terms/type</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -3024,39 +3530,42 @@
         <v>http://purl.org/dc/terms/language</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>509</v>
+        <v>267</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -3067,18 +3576,27 @@
         <v>http://purl.org/dc/terms/rightsHolder</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
@@ -3089,24 +3607,33 @@
         <v>http://purl.org/dc/terms/license</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="J9" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="C10" s="3" t="str">
-        <f t="shared" ref="C10:C18" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <f t="shared" ref="C10:C19" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D10" s="3" t="str">
@@ -3114,16 +3641,16 @@
         <v>http://rs.tdwg.org/dwc/terms/occurrenceID</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>22</v>
@@ -3133,15 +3660,15 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3152,36 +3679,36 @@
         <v>http://rs.tdwg.org/dwc/terms/catalogNumber</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3192,16 +3719,19 @@
         <v>http://rs.tdwg.org/dwc/terms/recordedBy</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>22</v>
@@ -3211,24 +3741,24 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/30</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3239,7 +3769,7 @@
         <v>http://rs.tdwg.org/dwc/terms/recordNumber</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>20</v>
@@ -3248,24 +3778,24 @@
         <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3276,7 +3806,7 @@
         <v>http://rs.tdwg.org/dwc/terms/preparations</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>20</v>
@@ -3286,7 +3816,7 @@
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
@@ -3296,24 +3826,27 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/26</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3324,36 +3857,39 @@
         <v>http://rs.tdwg.org/dwc/terms/otherCatalogNumbers</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>61</v>
+      <c r="I15" s="11" t="s">
+        <v>607</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3364,13 +3900,13 @@
         <v>http://rs.tdwg.org/dwc/terms/occurrenceRemarks</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>22</v>
@@ -3380,816 +3916,835 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/1</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="14" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/organismQuantity")</f>
         <v>http://rs.tdwg.org/dwc/terms/organismQuantity</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3" t="str">
+      <c r="E17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="H17" s="14" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="3" t="str">
+      <c r="I17" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="L17" s="14" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/22")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/22</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="3" t="str">
+      <c r="M17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="C18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="D18" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="L18" s="14" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/22")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/22</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D19" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/establishmentMeans")</f>
         <v>http://rs.tdwg.org/dwc/terms/establishmentMeans</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="3" t="str">
+      <c r="L19" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/4")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/4</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="3" t="str">
+      <c r="M19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D20" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/lifeForm")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/lifeForm</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="3" t="str">
+      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/17")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/17</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3" t="str">
+      <c r="O20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3" t="str">
         <f>HYPERLINK("http://rs.gbif.org/vocabulary/gbif/sex.xml")</f>
         <v>http://rs.gbif.org/vocabulary/gbif/sex.xml</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="3" t="str">
+      <c r="K21" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L21" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/18")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/18</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L21" s="3"/>
       <c r="M21" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/reproductiveCondition")</f>
-        <v>http://rs.tdwg.org/dwc/terms/reproductiveCondition</v>
+        <v>516</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="K22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/12")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/12</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="L22" s="3"/>
       <c r="M22" s="2" t="s">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="R22" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D23" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/reproductiveCondition")</f>
+        <v>http://rs.tdwg.org/dwc/terms/reproductiveCondition</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/12")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/12</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="14" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D24" s="14" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedTaxa")</f>
         <v>http://rs.tdwg.org/dwc/terms/associatedTaxa</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="E24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="3" t="str">
+      <c r="L24" s="14" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/20")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/20</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/associationType</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L24" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/33")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="M24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D25" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/associationType</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/33")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D26" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationTaxon")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/associationTaxon</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L26" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/32")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/32</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>516</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/disposition")</f>
-        <v>http://rs.tdwg.org/dwc/terms/disposition</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>517</v>
+        <v>92</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>518</v>
+      <c r="G27" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>270</v>
+        <v>505</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/15")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/32")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/32</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>97</v>
+        <v>512</v>
       </c>
       <c r="C28" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D28" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/disposition")</f>
+        <v>http://rs.tdwg.org/dwc/terms/disposition</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/15")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D29" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/habitat")</f>
         <v>http://rs.tdwg.org/dwc/terms/habitat</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="3" t="str">
+      <c r="L29" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/23")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="O29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="3" t="str">
-        <f t="shared" ref="C29:C34" si="1">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+      <c r="C30" s="3" t="str">
+        <f t="shared" ref="C30:C35" si="1">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D30" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/topography")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/topography</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="3" t="str">
+        <f t="shared" ref="L30:L35" si="2">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/23")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="3" t="str">
-        <f t="shared" ref="L29:L34" si="2">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/23")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
-      </c>
-      <c r="N29" s="2" t="s">
+      <c r="P30" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D30" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/14")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/14</v>
+        <f t="shared" si="2"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/14")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/14</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
       </c>
       <c r="N34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/23</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f t="shared" ref="C35:C62" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+      <c r="C36" s="3" t="str">
+        <f t="shared" ref="C36:C63" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D35" s="3" t="str">
+      <c r="D36" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventDate")</f>
         <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D36" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimEventDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>129</v>
+        <v>464</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>130</v>
+        <v>465</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="R36" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/locality</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimEventDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>20</v>
@@ -4198,1349 +4753,1367 @@
         <v>22</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/locality</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="K38" s="2" t="s">
-        <v>509</v>
+        <v>22</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
-        <v>http://rs.tdwg.org/dwc/terms/continent</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>141</v>
+      <c r="G39" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
-        <v>http://rs.tdwg.org/dwc/terms/country</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
+        <v>http://rs.tdwg.org/dwc/terms/continent</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>22</v>
+        <v>505</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
+        <v>http://rs.tdwg.org/dwc/terms/country</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>150</v>
+      <c r="I41" s="10" t="s">
+        <v>615</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="R41" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
-        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="J42" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="R42" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
-        <v>http://rs.tdwg.org/dwc/terms/county</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
+        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="R43" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
-        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
+        <v>http://rs.tdwg.org/dwc/terms/county</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L44" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
+        <v>22</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
-        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
+        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" ref="L45:L46" si="4">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
-        <v>http://rs.tdwg.org/dwc/terms/island</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
+        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L46" s="3" t="str">
+        <f t="shared" ref="L46:L47" si="4">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/21")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L46" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
+        <v>http://rs.tdwg.org/dwc/terms/island</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>22</v>
+        <v>505</v>
+      </c>
+      <c r="L47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/21</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H53" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
+        <v>201</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>509</v>
+        <v>22</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
+      </c>
+      <c r="H54" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>214</v>
+        <v>616</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>22</v>
+        <v>505</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
-        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>509</v>
+        <v>22</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
+        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>222</v>
+        <v>176</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>22</v>
+        <v>505</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>227</v>
+        <v>176</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L57" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/13")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
+        <v>22</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>471</v>
+        <v>220</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>22</v>
+        <v>505</v>
       </c>
       <c r="L58" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/13")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>232</v>
+        <v>467</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>606</v>
+        <v>227</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>234</v>
+      <c r="J59" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>509</v>
+        <v>22</v>
+      </c>
+      <c r="L59" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/13")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/13</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>472</v>
+        <v>229</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G60" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="K60" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>238</v>
+        <v>602</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H61" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
-      </c>
       <c r="K61" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L61" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/19")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/19</v>
+        <v>505</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D62" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H62" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L62" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/19")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/19</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D63" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceRemarks")</f>
         <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="M62" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="N62" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C63" s="3" t="str">
+      <c r="C64" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D63" s="3" t="str">
+      <c r="D64" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C64" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D64" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>248</v>
+        <v>469</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C65" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>475</v>
+        <v>245</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C66" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D66" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D67" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
         <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="M66" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="N66" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C67" s="3" t="str">
+      <c r="C68" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D67" s="3" t="str">
+      <c r="D68" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="3" t="str">
+      <c r="E68" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C68" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D68" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="K68" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M68" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="O68" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C69" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C70" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>509</v>
+        <v>22</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C71" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="K71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L71" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/2")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
+        <v>505</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C72" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D72" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/2")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/2</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D73" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
         <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C73" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D73" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
@@ -5549,261 +6122,273 @@
         <v>22</v>
       </c>
       <c r="M73" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="O73" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="O73" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="P73" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C74" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D74" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D75" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="3" t="str">
+      <c r="E75" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N74" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C75" s="3" t="str">
+      <c r="N75" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D75" s="3" t="str">
+      <c r="D76" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
         <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L75" s="3" t="str">
+      <c r="E76" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L76" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
       </c>
-      <c r="M75" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C76" s="3" t="str">
+      <c r="M76" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D76" s="3" t="str">
+      <c r="D77" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="3" t="str">
+      <c r="E77" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="3" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L76" s="3" t="str">
+      <c r="L77" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/31")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/31</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C77" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D77" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="N77" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C78" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D78" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R78" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D79" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
         <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M78" s="2" t="s">
+      <c r="M79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="R79" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="N78" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C79" s="3" t="str">
+      <c r="C80" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D79" s="3" t="str">
+      <c r="D80" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C80" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D80" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>20</v>
@@ -5811,1357 +6396,1363 @@
       <c r="K80" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L80" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>301</v>
+      <c r="N80" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C81" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
-        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L81" s="3" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/16")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/16</v>
+      </c>
       <c r="M81" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>481</v>
+        <v>298</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C82" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D82" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
+        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D83" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
         <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C83" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D83" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H83" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M83" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="N83" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C84" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>511</v>
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M84" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="N84" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C85" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D85" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D86" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N85" s="2" t="s">
+      <c r="B87" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="O85" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C86" s="3" t="str">
-        <f t="shared" ref="C86:C99" si="5">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+      <c r="C87" s="3" t="str">
+        <f t="shared" ref="C87:C100" si="5">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D86" s="3" t="str">
+      <c r="D87" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
         <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M86" s="2" t="s">
+      <c r="E87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C87" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D87" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
-        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C88" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
+        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C89" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
-        <v>http://rs.tdwg.org/dwc/terms/class</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C90" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
-        <v>http://rs.tdwg.org/dwc/terms/order</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
+        <v>http://rs.tdwg.org/dwc/terms/class</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
-        <v>http://rs.tdwg.org/dwc/terms/family</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
+        <v>http://rs.tdwg.org/dwc/terms/order</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/genus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
+        <v>http://rs.tdwg.org/dwc/terms/family</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/genus</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="J96" s="2" t="s">
-        <v>494</v>
+        <v>354</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="R96" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>364</v>
+      <c r="I97" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>365</v>
+        <v>490</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>509</v>
+        <v>22</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>270</v>
+        <v>505</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D99" s="3" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C100" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D100" s="3" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
         <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="M100" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="R100" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="O99" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C100" s="3" t="str">
-        <f t="shared" ref="C100:C105" si="6">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+      <c r="C101" s="3" t="str">
+        <f t="shared" ref="C101:C106" si="6">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D100" s="3" t="str">
+      <c r="D101" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C101" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D101" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C102" s="3" t="str">
         <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>587</v>
+        <v>319</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="C103" s="3" t="str">
         <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>590</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>593</v>
+      <c r="G103" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L103" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
+        <v>22</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C104" s="3" t="str">
         <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>591</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>585</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I104" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="K104" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L104" s="3" t="str">
-        <f t="shared" ref="L104:L105" si="7">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O104" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C105" s="3" t="str">
         <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D105" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L105" s="3" t="str">
+        <f t="shared" ref="L105:L106" si="7">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/11")</f>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C106" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D106" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L105" s="3" t="str">
+      <c r="E106" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L106" s="3" t="str">
         <f t="shared" si="7"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
       </c>
-      <c r="O105" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C106" s="3" t="str">
-        <f t="shared" ref="C106:C129" si="8">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+      <c r="O106" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C107" s="3" t="str">
+        <f t="shared" ref="C107:C130" si="8">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D106" s="3" t="str">
+      <c r="D107" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L106" s="3" t="str">
+      <c r="L107" s="3" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/1")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/1</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="N107" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C107" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D107" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O107" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C108" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C109" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D109" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C110" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D110" s="3" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C110" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D110" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/voucherFlag</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H110" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_flag.xml</v>
+        <v>597</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="P110" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>390</v>
+        <v>380</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="C111" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>391</v>
+        <v>603</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="H111" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q111" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C112" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
+      </c>
+      <c r="H112" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="N112" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C113" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G113" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="K113" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C114" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="K114" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="C115" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G115" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="K115" s="2" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C116" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C117" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D117" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D118" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>20</v>
@@ -7170,32 +7761,32 @@
         <v>22</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C119" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>20</v>
@@ -7204,721 +7795,1703 @@
         <v>22</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C120" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="K120" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C121" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J121" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="K121" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="C122" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D122" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L122" s="3" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
-        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C123" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L123" s="3" t="str">
-        <f t="shared" ref="L123:L129" si="9">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
+        <f>HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C124" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L124" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L124:L130" si="9">HYPERLINK("https://github.com/hiscom/hispid-review-2014-15/issues/10")</f>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C125" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L125" s="3" t="str">
         <f t="shared" si="9"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H126" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+        <v>122</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L126" s="3" t="str">
         <f t="shared" si="9"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C127" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="H127" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+      </c>
       <c r="K127" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L127" s="3" t="str">
         <f t="shared" si="9"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C128" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L128" s="3" t="str">
         <f t="shared" si="9"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C129" s="3" t="str">
         <f t="shared" si="8"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L129" s="3" t="str">
         <f t="shared" si="9"/>
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>586</v>
+        <v>418</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C130" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C130" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D130" s="3" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L130" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R131" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R132" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="C133" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="C133" s="3" t="str">
+      <c r="E133" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R133" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C134" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
         <v>http://purl.org/dc/elements/1.1</v>
       </c>
-      <c r="D133" s="3" t="str">
+      <c r="D134" s="3" t="str">
         <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
         <v>http://purl.org/dc/elements/1.1/source</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E134" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134"/>
+      <c r="K134" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R134" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R135" s="10" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R136" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R137" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R138" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="R139" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R140" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R141" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R142" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R143" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="F144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R144" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="F145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R145" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B144" s="4" t="s">
+      <c r="B146" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="E146" t="s">
+        <v>623</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R146" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="E147" t="s">
+        <v>629</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H147" t="s">
+        <v>631</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R147" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E148" t="s">
+        <v>634</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R148" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R149" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="E150" t="s">
+        <v>643</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R150" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E151" t="s">
+        <v>647</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R151" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R152" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E153" t="s">
+        <v>681</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R153" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E154" t="s">
+        <v>682</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R154" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="E155" t="s">
+        <v>683</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R155" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E156" t="s">
+        <v>684</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R156" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="E157" t="s">
+        <v>685</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R157" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R158" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R159" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E160" t="s">
+        <v>692</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R160" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R161" s="20" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="E162" t="s">
+        <v>711</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R162" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E163" t="s">
+        <v>719</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R163" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E164" t="s">
+        <v>733</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R164" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E165" t="s">
+        <v>737</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R165" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E166" t="s">
+        <v>742</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R166" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E167" t="s">
+        <v>746</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R167" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="4"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="4"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="4"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="4"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="4"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="4"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="4"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="4"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="4"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="4"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="4"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="4"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="4"/>
+      <c r="D168" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E168" t="s">
+        <v>749</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R168" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E169" t="s">
+        <v>756</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R169" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E170" t="s">
+        <v>760</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R170" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B171" s="18"/>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B172" s="18"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B173" s="18"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B174" s="18"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B175" s="18"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B176" s="18"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="18"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="18"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="18"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="18"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="18"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="18"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="18"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="18"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="18"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="18"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="18"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="18"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="18"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="18"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="18"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="18"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="18"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="18"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="18"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="18"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="18"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="18"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="18"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="18"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="18"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="18"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="18"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="18"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="18"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="18"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="18"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="18"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="18"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="18"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="18"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="18"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="18"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="18"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="18"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="18"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="18"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="18"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="18"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="18"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="18"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="18"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="18"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="18"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="18"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="18"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="18"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="18"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="18"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="18"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="18"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="18"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="18"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="18"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="18"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="18"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="18"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="18"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="18"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="18"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="18"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="18"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="18"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="18"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="18"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="18"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="18"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="18"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="18"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="18"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="18"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="18"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="18"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="18"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="18"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="18"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="18"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="18"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="18"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
     <hyperlink ref="H6" r:id="rId2"/>
     <hyperlink ref="H17" r:id="rId3" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
-    <hyperlink ref="H18" r:id="rId4"/>
-    <hyperlink ref="H86" r:id="rId5"/>
-    <hyperlink ref="H97" r:id="rId6"/>
-    <hyperlink ref="N57" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
-    <hyperlink ref="C20" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="C21" r:id="rId10"/>
-    <hyperlink ref="D21" r:id="rId11"/>
+    <hyperlink ref="H19" r:id="rId4"/>
+    <hyperlink ref="H87" r:id="rId5"/>
+    <hyperlink ref="H98" r:id="rId6"/>
+    <hyperlink ref="N58" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
+    <hyperlink ref="C21" r:id="rId8"/>
+    <hyperlink ref="D21" r:id="rId9"/>
+    <hyperlink ref="C22" r:id="rId10"/>
+    <hyperlink ref="D22" r:id="rId11"/>
     <hyperlink ref="C7" r:id="rId12" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D7" r:id="rId13" display="http://rs.tdwg.org/ac/terms/metadataLanguage"/>
     <hyperlink ref="H7" r:id="rId14"/>
@@ -7926,38 +9499,89 @@
     <hyperlink ref="D8" r:id="rId16" display="http://ns.adobe.com/xap/1.0/rights/Owner"/>
     <hyperlink ref="C9" r:id="rId17" display="http://ns.adobe.com/xap/1.0/rights"/>
     <hyperlink ref="D9" r:id="rId18" display="http://ns.adobe.com/xap/1.0/rights/WebStatement"/>
-    <hyperlink ref="C130" r:id="rId19"/>
-    <hyperlink ref="D130" r:id="rId20"/>
-    <hyperlink ref="C131" r:id="rId21"/>
-    <hyperlink ref="D131" r:id="rId22"/>
-    <hyperlink ref="C132" r:id="rId23"/>
-    <hyperlink ref="D132" r:id="rId24"/>
-    <hyperlink ref="C134" r:id="rId25"/>
-    <hyperlink ref="D134" r:id="rId26"/>
-    <hyperlink ref="C135" r:id="rId27"/>
-    <hyperlink ref="D135" r:id="rId28"/>
-    <hyperlink ref="C136" r:id="rId29"/>
-    <hyperlink ref="D136" r:id="rId30"/>
-    <hyperlink ref="C137" r:id="rId31"/>
-    <hyperlink ref="D137" r:id="rId32"/>
-    <hyperlink ref="C140" r:id="rId33"/>
-    <hyperlink ref="C138" r:id="rId34"/>
-    <hyperlink ref="D138" r:id="rId35"/>
-    <hyperlink ref="C139" r:id="rId36"/>
-    <hyperlink ref="D139" r:id="rId37"/>
-    <hyperlink ref="D140" r:id="rId38"/>
-    <hyperlink ref="C141" r:id="rId39"/>
-    <hyperlink ref="D141" r:id="rId40"/>
-    <hyperlink ref="C142" r:id="rId41"/>
-    <hyperlink ref="D142" r:id="rId42"/>
-    <hyperlink ref="C143" r:id="rId43"/>
-    <hyperlink ref="D143" r:id="rId44"/>
-    <hyperlink ref="C144" r:id="rId45"/>
-    <hyperlink ref="D144" r:id="rId46"/>
+    <hyperlink ref="C131" r:id="rId19"/>
+    <hyperlink ref="D131" r:id="rId20"/>
+    <hyperlink ref="C132" r:id="rId21"/>
+    <hyperlink ref="D132" r:id="rId22"/>
+    <hyperlink ref="C133" r:id="rId23"/>
+    <hyperlink ref="D133" r:id="rId24"/>
+    <hyperlink ref="C135" r:id="rId25"/>
+    <hyperlink ref="D135" r:id="rId26"/>
+    <hyperlink ref="C136" r:id="rId27"/>
+    <hyperlink ref="D136" r:id="rId28"/>
+    <hyperlink ref="C137" r:id="rId29"/>
+    <hyperlink ref="D137" r:id="rId30"/>
+    <hyperlink ref="C138" r:id="rId31"/>
+    <hyperlink ref="D138" r:id="rId32"/>
+    <hyperlink ref="C141" r:id="rId33"/>
+    <hyperlink ref="C139" r:id="rId34"/>
+    <hyperlink ref="D139" r:id="rId35"/>
+    <hyperlink ref="C140" r:id="rId36"/>
+    <hyperlink ref="D140" r:id="rId37"/>
+    <hyperlink ref="D141" r:id="rId38"/>
+    <hyperlink ref="C142" r:id="rId39"/>
+    <hyperlink ref="D142" r:id="rId40"/>
+    <hyperlink ref="C143" r:id="rId41"/>
+    <hyperlink ref="D143" r:id="rId42"/>
+    <hyperlink ref="C144" r:id="rId43"/>
+    <hyperlink ref="D144" r:id="rId44"/>
+    <hyperlink ref="C145" r:id="rId45"/>
+    <hyperlink ref="D145" r:id="rId46"/>
     <hyperlink ref="H14" r:id="rId47" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
-    <hyperlink ref="L138" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
+    <hyperlink ref="L139" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
+    <hyperlink ref="D18" r:id="rId49"/>
+    <hyperlink ref="C146" r:id="rId50"/>
+    <hyperlink ref="D146" r:id="rId51"/>
+    <hyperlink ref="C147" r:id="rId52"/>
+    <hyperlink ref="D147" r:id="rId53"/>
+    <hyperlink ref="D148" r:id="rId54"/>
+    <hyperlink ref="C148" r:id="rId55"/>
+    <hyperlink ref="C149" r:id="rId56"/>
+    <hyperlink ref="D149" r:id="rId57"/>
+    <hyperlink ref="D150" r:id="rId58"/>
+    <hyperlink ref="C150" r:id="rId59"/>
+    <hyperlink ref="C151" r:id="rId60"/>
+    <hyperlink ref="D151" r:id="rId61"/>
+    <hyperlink ref="D152" r:id="rId62"/>
+    <hyperlink ref="C152" r:id="rId63"/>
+    <hyperlink ref="C157" r:id="rId64"/>
+    <hyperlink ref="D155" r:id="rId65"/>
+    <hyperlink ref="C155" r:id="rId66"/>
+    <hyperlink ref="D157" r:id="rId67"/>
+    <hyperlink ref="D156" r:id="rId68"/>
+    <hyperlink ref="C156" r:id="rId69"/>
+    <hyperlink ref="D154" r:id="rId70"/>
+    <hyperlink ref="C154" r:id="rId71"/>
+    <hyperlink ref="D153" r:id="rId72"/>
+    <hyperlink ref="C153" r:id="rId73"/>
+    <hyperlink ref="D158" r:id="rId74"/>
+    <hyperlink ref="C158" r:id="rId75"/>
+    <hyperlink ref="D159" r:id="rId76"/>
+    <hyperlink ref="C159" r:id="rId77"/>
+    <hyperlink ref="D160" r:id="rId78"/>
+    <hyperlink ref="C160" r:id="rId79"/>
+    <hyperlink ref="C161" r:id="rId80"/>
+    <hyperlink ref="D161" r:id="rId81"/>
+    <hyperlink ref="C162" r:id="rId82"/>
+    <hyperlink ref="D162" r:id="rId83"/>
+    <hyperlink ref="D163" r:id="rId84"/>
+    <hyperlink ref="C163" r:id="rId85"/>
+    <hyperlink ref="C164" r:id="rId86"/>
+    <hyperlink ref="D164" r:id="rId87"/>
+    <hyperlink ref="C165" r:id="rId88"/>
+    <hyperlink ref="D165" r:id="rId89"/>
+    <hyperlink ref="D166" r:id="rId90"/>
+    <hyperlink ref="C166" r:id="rId91"/>
+    <hyperlink ref="C167" r:id="rId92"/>
+    <hyperlink ref="D167" r:id="rId93"/>
+    <hyperlink ref="C168" r:id="rId94"/>
+    <hyperlink ref="D168" r:id="rId95"/>
+    <hyperlink ref="C169" r:id="rId96"/>
+    <hyperlink ref="D169" r:id="rId97"/>
+    <hyperlink ref="C170" r:id="rId98"/>
+    <hyperlink ref="D170" r:id="rId99"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>
--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="HISPID2015" sheetId="1" r:id="rId1"/>
@@ -1868,9 +1868,6 @@
     <t>This may not reflect the currently political boundaries</t>
   </si>
   <si>
-    <t>"decimal degrees", "UTM"; "NZMG"</t>
-  </si>
-  <si>
     <t>spadat</t>
   </si>
   <si>
@@ -2304,6 +2301,9 @@
   </si>
   <si>
     <t>ac:furtherInformationURL</t>
+  </si>
+  <si>
+    <t>"decimal degrees", "UTM", "NZMG"</t>
   </si>
 </sst>
 </file>
@@ -3001,7 +3001,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3036,7 +3036,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3213,7 +3213,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3224,34 +3224,34 @@
   <dimension ref="A1:R260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="50.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="67.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="65.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="87.85546875" style="2" customWidth="1"/>
-    <col min="15" max="16" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="67.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="65.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="87.88671875" style="2" customWidth="1"/>
+    <col min="15" max="16" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="53" style="2" customWidth="1"/>
-    <col min="18" max="18" width="49.5703125" customWidth="1"/>
+    <col min="18" max="18" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3304,10 +3304,10 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -3427,10 +3427,10 @@
         <v>30</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3511,10 +3511,10 @@
         <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3557,10 +3557,10 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3576,22 +3576,22 @@
         <v>http://purl.org/dc/terms/rightsHolder</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>267</v>
       </c>
       <c r="R8" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>568</v>
@@ -3622,10 +3622,10 @@
         <v>267</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3838,10 +3838,10 @@
         <v>57</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4142,10 +4142,10 @@
         <v>508</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -4175,10 +4175,10 @@
         <v>519</v>
       </c>
       <c r="R22" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="15" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>40</v>
       </c>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/33</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/15</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>94</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>94</v>
       </c>
@@ -4725,10 +4725,10 @@
         <v>465</v>
       </c>
       <c r="R36" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>129</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>129</v>
       </c>
@@ -4842,10 +4842,10 @@
         <v>133</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>129</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>129</v>
       </c>
@@ -4922,10 +4922,10 @@
         <v>145</v>
       </c>
       <c r="R41" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>129</v>
       </c>
@@ -4968,10 +4968,10 @@
         <v>151</v>
       </c>
       <c r="R42" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>129</v>
       </c>
@@ -5014,10 +5014,10 @@
         <v>466</v>
       </c>
       <c r="R43" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>129</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>129</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>129</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>129</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>129</v>
       </c>
@@ -5276,10 +5276,10 @@
         <v>187</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>129</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>129</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>129</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>129</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>616</v>
+        <v>761</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>505</v>
@@ -5443,7 +5443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>129</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>129</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>129</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>129</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>129</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>129</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>129</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>129</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>129</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>129</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>129</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>129</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>129</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>268</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>268</v>
       </c>
@@ -6134,10 +6134,10 @@
         <v>275</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>268</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>268</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>268</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>268</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>268</v>
       </c>
@@ -6329,10 +6329,10 @@
         <v>290</v>
       </c>
       <c r="R78" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>268</v>
       </c>
@@ -6369,10 +6369,10 @@
         <v>293</v>
       </c>
       <c r="R79" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>268</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>268</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>268</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>268</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>268</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>268</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>268</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>319</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>319</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>319</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>319</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>319</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>319</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>319</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>319</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>319</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>319</v>
       </c>
@@ -7001,10 +7001,10 @@
         <v>355</v>
       </c>
       <c r="R96" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>319</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>319</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>319</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>319</v>
       </c>
@@ -7149,10 +7149,10 @@
         <v>367</v>
       </c>
       <c r="R100" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>319</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>319</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>319</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>319</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>319</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/11</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>319</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>380</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>380</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>380</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>380</v>
       </c>
@@ -7478,12 +7478,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C111" s="3" t="str">
         <f t="shared" si="8"/>
@@ -7516,7 +7516,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>380</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>380</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>393</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>393</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>393</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>393</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>393</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>393</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>393</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>418</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>418</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>418</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>418</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>418</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>418</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>418</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>418</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>418</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>418</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>https://github.com/hiscom/hispid-review-2014-15/issues/10</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>581</v>
       </c>
@@ -8153,10 +8153,10 @@
         <v>267</v>
       </c>
       <c r="R131" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>581</v>
       </c>
@@ -8182,10 +8182,10 @@
         <v>267</v>
       </c>
       <c r="R132" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>581</v>
       </c>
@@ -8211,10 +8211,10 @@
         <v>267</v>
       </c>
       <c r="R133" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>581</v>
       </c>
@@ -8240,10 +8240,10 @@
         <v>267</v>
       </c>
       <c r="R134" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>581</v>
       </c>
@@ -8266,10 +8266,10 @@
         <v>267</v>
       </c>
       <c r="R135" s="10" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>581</v>
       </c>
@@ -8292,10 +8292,10 @@
         <v>267</v>
       </c>
       <c r="R136" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>581</v>
       </c>
@@ -8318,10 +8318,10 @@
         <v>267</v>
       </c>
       <c r="R137" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>581</v>
       </c>
@@ -8347,10 +8347,10 @@
         <v>267</v>
       </c>
       <c r="R138" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>581</v>
       </c>
@@ -8379,10 +8379,10 @@
         <v>591</v>
       </c>
       <c r="R139" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>581</v>
       </c>
@@ -8405,10 +8405,10 @@
         <v>267</v>
       </c>
       <c r="R140" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>581</v>
       </c>
@@ -8431,10 +8431,10 @@
         <v>267</v>
       </c>
       <c r="R141" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>581</v>
       </c>
@@ -8457,10 +8457,10 @@
         <v>267</v>
       </c>
       <c r="R142" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>581</v>
       </c>
@@ -8483,10 +8483,10 @@
         <v>267</v>
       </c>
       <c r="R143" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>581</v>
       </c>
@@ -8509,10 +8509,10 @@
         <v>267</v>
       </c>
       <c r="R144" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>581</v>
       </c>
@@ -8535,24 +8535,24 @@
         <v>267</v>
       </c>
       <c r="R145" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C146" s="17" t="s">
         <v>549</v>
       </c>
       <c r="D146" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="E146" t="s">
         <v>622</v>
-      </c>
-      <c r="E146" t="s">
-        <v>623</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>20</v>
@@ -8561,56 +8561,56 @@
         <v>267</v>
       </c>
       <c r="R146" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D147" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="E147" t="s">
         <v>628</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="H147" t="s">
         <v>630</v>
-      </c>
-      <c r="H147" t="s">
-        <v>631</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>267</v>
       </c>
       <c r="R147" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C148" s="17" t="s">
         <v>545</v>
       </c>
       <c r="D148" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E148" t="s">
         <v>633</v>
-      </c>
-      <c r="E148" t="s">
-        <v>634</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>28</v>
@@ -8622,24 +8622,24 @@
         <v>267</v>
       </c>
       <c r="R148" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D149" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E149" s="10" t="s">
         <v>638</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>639</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>20</v>
@@ -8648,24 +8648,24 @@
         <v>267</v>
       </c>
       <c r="R149" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C150" s="17" t="s">
         <v>549</v>
       </c>
       <c r="D150" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="E150" t="s">
         <v>642</v>
-      </c>
-      <c r="E150" t="s">
-        <v>643</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>28</v>
@@ -8677,24 +8677,24 @@
         <v>267</v>
       </c>
       <c r="R150" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D151" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E151" t="s">
         <v>646</v>
-      </c>
-      <c r="E151" t="s">
-        <v>647</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>20</v>
@@ -8703,53 +8703,53 @@
         <v>267</v>
       </c>
       <c r="R151" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>549</v>
       </c>
       <c r="D152" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E152" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="F152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>267</v>
       </c>
       <c r="R152" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>545</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E153" t="s">
         <v>680</v>
-      </c>
-      <c r="E153" t="s">
-        <v>681</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>20</v>
@@ -8758,24 +8758,24 @@
         <v>267</v>
       </c>
       <c r="R153" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>545</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E154" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>20</v>
@@ -8784,24 +8784,24 @@
         <v>267</v>
       </c>
       <c r="R154" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E155" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>20</v>
@@ -8810,24 +8810,24 @@
         <v>267</v>
       </c>
       <c r="R155" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E156" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>20</v>
@@ -8836,24 +8836,24 @@
         <v>267</v>
       </c>
       <c r="R156" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E157" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>20</v>
@@ -8862,24 +8862,24 @@
         <v>267</v>
       </c>
       <c r="R157" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>520</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>20</v>
@@ -8888,24 +8888,24 @@
         <v>267</v>
       </c>
       <c r="R158" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>20</v>
@@ -8914,24 +8914,24 @@
         <v>267</v>
       </c>
       <c r="R159" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C160" s="17" t="s">
         <v>520</v>
       </c>
       <c r="D160" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E160" t="s">
         <v>691</v>
-      </c>
-      <c r="E160" t="s">
-        <v>692</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>20</v>
@@ -8940,24 +8940,24 @@
         <v>267</v>
       </c>
       <c r="R160" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>20</v>
@@ -8966,24 +8966,24 @@
         <v>267</v>
       </c>
       <c r="R161" s="20" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D162" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="E162" t="s">
         <v>710</v>
-      </c>
-      <c r="E162" t="s">
-        <v>711</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>20</v>
@@ -8992,24 +8992,24 @@
         <v>267</v>
       </c>
       <c r="R162" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C163" s="17" t="s">
         <v>509</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E163" t="s">
         <v>718</v>
-      </c>
-      <c r="E163" t="s">
-        <v>719</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>20</v>
@@ -9018,21 +9018,21 @@
         <v>267</v>
       </c>
       <c r="R163" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C164" s="17" t="s">
         <v>520</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E164" t="s">
         <v>732</v>
-      </c>
-      <c r="E164" t="s">
-        <v>733</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>20</v>
@@ -9041,53 +9041,53 @@
         <v>267</v>
       </c>
       <c r="R164" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D165" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E165" t="s">
         <v>736</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>267</v>
       </c>
       <c r="R165" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E166" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>20</v>
@@ -9096,24 +9096,24 @@
         <v>267</v>
       </c>
       <c r="R166" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>744</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D167" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E167" t="s">
         <v>745</v>
-      </c>
-      <c r="E167" t="s">
-        <v>746</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>20</v>
@@ -9122,56 +9122,56 @@
         <v>267</v>
       </c>
       <c r="R167" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>747</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>748</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>543</v>
       </c>
       <c r="D168" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="E168" t="s">
+        <v>748</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="E168" t="s">
-        <v>749</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H168" s="2" t="s">
+      <c r="I168" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>267</v>
       </c>
       <c r="R168" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D169" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E169" t="s">
         <v>755</v>
-      </c>
-      <c r="E169" t="s">
-        <v>756</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>20</v>
@@ -9180,24 +9180,24 @@
         <v>267</v>
       </c>
       <c r="R169" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>757</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>758</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>520</v>
       </c>
       <c r="D170" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E170" t="s">
         <v>759</v>
-      </c>
-      <c r="E170" t="s">
-        <v>760</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>20</v>
@@ -9206,277 +9206,277 @@
         <v>267</v>
       </c>
       <c r="R170" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B171" s="18"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B172" s="18"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B173" s="18"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B174" s="18"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B175" s="18"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B176" s="18"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="18"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="18"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="18"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="18"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="18"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="18"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="18"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="18"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="18"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="18"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="18"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="18"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="18"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="18"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="18"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="18"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="18"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="18"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="18"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="18"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="18"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="18"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="18"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="18"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="18"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="18"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="18"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="18"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="18"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="18"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="18"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="18"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="18"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="18"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="18"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="18"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="18"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="18"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="18"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="18"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="18"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="18"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="18"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="18"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="18"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="18"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="18"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="18"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="18"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="18"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="18"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="18"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="18"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="18"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="18"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="18"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="18"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="18"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="18"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="18"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="18"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="18"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="18"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="18"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="18"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="18"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="18"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="18"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="18"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="18"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="18"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="18"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="18"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="18"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="18"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="18"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="18"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="18"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="18"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="18"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="18"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="18"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="18"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="18"/>
     </row>
   </sheetData>

--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="760">
   <si>
     <t>group</t>
   </si>
@@ -2161,9 +2161,6 @@
     <t>dwc:vernacularName</t>
   </si>
   <si>
-    <t>scientificNameId</t>
-  </si>
-  <si>
     <t>dwc:scientificNameID</t>
   </si>
   <si>
@@ -2275,9 +2272,6 @@
     <t>variant</t>
   </si>
   <si>
-    <t>MediaItem (Access)</t>
-  </si>
-  <si>
     <t>http://rs.tdwg.org/ac/terms/variant</t>
   </si>
   <si>
@@ -2306,6 +2300,9 @@
   </si>
   <si>
     <t>https://github.com/hiscom/hispid/issues/5</t>
+  </si>
+  <si>
+    <t>scientificNameID</t>
   </si>
 </sst>
 </file>
@@ -3209,10 +3206,10 @@
   <dimension ref="A1:R260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I152" sqref="I152"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,7 +3891,7 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -4229,7 +4226,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -4269,7 +4266,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5723,7 +5720,7 @@
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>505</v>
@@ -6795,7 +6792,7 @@
       </c>
       <c r="Q78" s="4"/>
       <c r="R78" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -6841,7 +6838,7 @@
       </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -7163,7 +7160,7 @@
         <v>320</v>
       </c>
       <c r="C87" s="7" t="str">
-        <f t="shared" ref="C87:C100" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <f t="shared" ref="C87:C101" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D87" s="7" t="str">
@@ -7547,23 +7544,21 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C96" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D96" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
+        <v>759</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>353</v>
+        <v>714</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>20</v>
@@ -7571,267 +7566,263 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="O96" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="P96" s="4" t="s">
-        <v>355</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C97" s="7" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D97" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="4" t="s">
-        <v>489</v>
-      </c>
+      <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
-        <v>490</v>
+        <v>354</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-    </row>
-    <row r="98" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="R97" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C98" s="7" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D98" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="4"/>
-      <c r="H98" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="I98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4" t="s">
+        <v>489</v>
+      </c>
       <c r="J98" s="4" t="s">
-        <v>362</v>
+        <v>490</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
+        <v>356</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C99" s="7" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D99" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
+      <c r="H99" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="J99" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="K99" s="4" t="s">
-        <v>267</v>
+        <v>505</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="N99" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="O99" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="P99" s="4" t="s">
-        <v>364</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C100" s="7" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
       <c r="D100" s="7" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+    </row>
+    <row r="101" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C101" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D101" s="7" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
         <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4" t="s">
+      <c r="F101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C101" s="7" t="str">
-        <f t="shared" ref="C101:C106" si="4">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D101" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4" t="s">
-        <v>492</v>
-      </c>
+      <c r="M101" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N101" s="4"/>
       <c r="O101" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
+      <c r="R101" s="4" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="102" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C102" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C102:C107" si="4">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D102" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>20</v>
@@ -7851,10 +7842,10 @@
         <v>492</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
@@ -7864,18 +7855,18 @@
         <v>319</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C103" s="7" t="str">
         <f t="shared" si="4"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D103" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>20</v>
@@ -7892,86 +7883,87 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>582</v>
+      <c r="B104" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="C104" s="7" t="str">
         <f t="shared" si="4"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D104" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>585</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="4"/>
+      <c r="G104" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="H104" s="4"/>
-      <c r="I104" s="4" t="s">
-        <v>588</v>
-      </c>
+      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L104" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
-        <v>https://github.com/hiscom/hispid/issues/11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
+      <c r="N104" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="O104" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C105" s="7" t="str">
         <f t="shared" si="4"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D105" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>586</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>585</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="I105" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4" t="s">
         <v>267</v>
@@ -7982,8 +7974,12 @@
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
+      <c r="O105" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>378</v>
+      </c>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
@@ -7992,18 +7988,18 @@
         <v>319</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C106" s="7" t="str">
         <f t="shared" si="4"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D106" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>20</v>
@@ -8021,32 +8017,28 @@
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
-      <c r="O106" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="P106" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>381</v>
+        <v>319</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>584</v>
       </c>
       <c r="C107" s="7" t="str">
-        <f t="shared" ref="C107:C130" si="5">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" si="4"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D107" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>382</v>
+        <v>587</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>20</v>
@@ -8056,21 +8048,19 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L107" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
-        <v>https://github.com/hiscom/hispid/issues/1</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
+        <v>https://github.com/hiscom/hispid/issues/11</v>
       </c>
       <c r="M107" s="4"/>
-      <c r="N107" s="4" t="s">
-        <v>383</v>
-      </c>
+      <c r="N107" s="4"/>
       <c r="O107" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
@@ -8080,34 +8070,43 @@
         <v>380</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>591</v>
+        <v>381</v>
       </c>
       <c r="C108" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <f t="shared" ref="C108:C131" si="5">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D108" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F108" s="4"/>
+        <v>382</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L108" s="7" t="s">
-        <v>759</v>
+        <v>22</v>
+      </c>
+      <c r="L108" s="7" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
+        <v>https://github.com/hiscom/hispid/issues/1</v>
       </c>
       <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
+      <c r="N108" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="P108" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
@@ -8116,18 +8115,18 @@
         <v>380</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C109" s="7" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D109" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8138,7 +8137,7 @@
         <v>505</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -8152,18 +8151,18 @@
         <v>380</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C110" s="7" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D110" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8174,7 +8173,7 @@
         <v>505</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -8183,48 +8182,39 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>380</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="C111" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D111" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml</v>
-      </c>
+      <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L111" s="4"/>
+        <v>505</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="M111" s="4"/>
-      <c r="N111" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="O111" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="P111" s="4" t="s">
-        <v>385</v>
-      </c>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
@@ -8233,28 +8223,26 @@
         <v>380</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>386</v>
+        <v>615</v>
       </c>
       <c r="C112" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D112" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>387</v>
+        <v>601</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>388</v>
-      </c>
+      <c r="G112" s="4"/>
       <c r="H112" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
@@ -8264,44 +8252,45 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q112" s="4" t="s">
-        <v>495</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
     </row>
-    <row r="113" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>380</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C113" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D113" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H113" s="4"/>
+        <v>388</v>
+      </c>
+      <c r="H113" s="7" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+      </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4" t="s">
@@ -8309,168 +8298,170 @@
       </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
+      <c r="N113" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="O113" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P113" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q113" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="R113" s="4"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C114" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D114" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G114" s="4"/>
+      <c r="G114" s="4" t="s">
+        <v>392</v>
+      </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
-      <c r="N114" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="O114" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="P114" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q114" s="4" t="s">
-        <v>498</v>
-      </c>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
     </row>
-    <row r="115" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C115" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D115" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>399</v>
-      </c>
+      <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="4" t="s">
-        <v>400</v>
-      </c>
+      <c r="J115" s="4"/>
       <c r="K115" s="4" t="s">
         <v>267</v>
       </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q115" s="4"/>
+        <v>396</v>
+      </c>
+      <c r="Q115" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="R115" s="4"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C116" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D116" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
+      <c r="J116" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="K116" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
     </row>
-    <row r="117" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C117" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D117" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>407</v>
-      </c>
+      <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -8480,39 +8471,41 @@
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C118" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D118" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -8522,13 +8515,13 @@
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
@@ -8538,18 +8531,18 @@
         <v>393</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C119" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D119" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>20</v>
@@ -8564,13 +8557,13 @@
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
@@ -8580,18 +8573,18 @@
         <v>393</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C120" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D120" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>20</v>
@@ -8606,34 +8599,34 @@
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C121" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D121" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>20</v>
@@ -8641,17 +8634,21 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
-      <c r="J121" s="4" t="s">
-        <v>421</v>
-      </c>
+      <c r="J121" s="4"/>
       <c r="K121" s="4" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
+      <c r="N121" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="O121" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="P121" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
     </row>
@@ -8660,18 +8657,18 @@
         <v>418</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C122" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D122" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>20</v>
@@ -8679,7 +8676,9 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
+      <c r="J122" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="K122" s="4" t="s">
         <v>505</v>
       </c>
@@ -8696,18 +8695,18 @@
         <v>418</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C123" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D123" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>20</v>
@@ -8719,10 +8718,7 @@
       <c r="K123" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="L123" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
-        <v>https://github.com/hiscom/hispid/issues/10</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -8735,18 +8731,18 @@
         <v>418</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C124" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D124" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>20</v>
@@ -8759,7 +8755,7 @@
         <v>505</v>
       </c>
       <c r="L124" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
+        <f t="shared" ref="L124:L131" si="6">HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M124" s="4"/>
@@ -8774,21 +8770,21 @@
         <v>418</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C125" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D125" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -8798,7 +8794,7 @@
         <v>505</v>
       </c>
       <c r="L125" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M125" s="4"/>
@@ -8813,25 +8809,23 @@
         <v>418</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C126" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D126" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -8839,7 +8833,7 @@
         <v>505</v>
       </c>
       <c r="L126" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M126" s="4"/>
@@ -8849,39 +8843,38 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
     </row>
-    <row r="127" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>418</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C127" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D127" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" s="4"/>
-      <c r="H127" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4" t="s">
         <v>505</v>
       </c>
       <c r="L127" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M127" s="4"/>
@@ -8896,31 +8889,34 @@
         <v>418</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C128" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D128" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
+      <c r="H128" s="7" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+      </c>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4" t="s">
         <v>505</v>
       </c>
       <c r="L128" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M128" s="4"/>
@@ -8930,23 +8926,23 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>418</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C129" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D129" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>20</v>
@@ -8959,7 +8955,7 @@
         <v>505</v>
       </c>
       <c r="L129" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M129" s="4"/>
@@ -8974,18 +8970,18 @@
         <v>418</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C130" s="7" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
       <c r="D130" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>20</v>
@@ -8998,7 +8994,7 @@
         <v>505</v>
       </c>
       <c r="L130" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M130" s="4"/>
@@ -9010,19 +9006,21 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>581</v>
+        <v>418</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>542</v>
+        <v>438</v>
+      </c>
+      <c r="C131" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D131" s="7" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>570</v>
+        <v>439</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>20</v>
@@ -9032,40 +9030,39 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L131" s="4"/>
+        <v>505</v>
+      </c>
+      <c r="L131" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>https://github.com/hiscom/hispid/issues/10</v>
+      </c>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="4"/>
-      <c r="R131" s="4" t="s">
-        <v>663</v>
-      </c>
+      <c r="R131" s="4"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -9079,7 +9076,7 @@
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
       <c r="R132" s="4" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -9087,16 +9084,16 @@
         <v>581</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>28</v>
@@ -9117,31 +9114,31 @@
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C134" s="7" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
-        <v>http://purl.org/dc/elements/1.1</v>
-      </c>
-      <c r="D134" s="7" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
-        <v>http://purl.org/dc/elements/1.1/source</v>
+        <v>547</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>546</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -9155,24 +9152,26 @@
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
       <c r="R134" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>548</v>
+        <v>528</v>
+      </c>
+      <c r="C135" s="7" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
+        <v>http://purl.org/dc/elements/1.1</v>
+      </c>
+      <c r="D135" s="7" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
+        <v>http://purl.org/dc/elements/1.1/source</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>20</v>
@@ -9190,8 +9189,8 @@
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
-      <c r="R135" s="14" t="s">
-        <v>624</v>
+      <c r="R135" s="4" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -9199,16 +9198,16 @@
         <v>581</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>4</v>
+        <v>530</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>549</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>20</v>
@@ -9226,25 +9225,25 @@
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
-      <c r="R136" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="R136" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>531</v>
+        <v>4</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>20</v>
@@ -9263,32 +9262,30 @@
       <c r="P137" s="4"/>
       <c r="Q137" s="4"/>
       <c r="R137" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="4" t="s">
-        <v>563</v>
-      </c>
+      <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4" t="s">
@@ -9301,7 +9298,7 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -9309,39 +9306,37 @@
         <v>581</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L139" s="7" t="s">
-        <v>760</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -9349,35 +9344,39 @@
         <v>581</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
+      <c r="H140" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L140" s="4"/>
+      <c r="L140" s="7" t="s">
+        <v>758</v>
+      </c>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -9385,16 +9384,16 @@
         <v>581</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>20</v>
@@ -9413,24 +9412,24 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>20</v>
@@ -9449,24 +9448,24 @@
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>20</v>
@@ -9485,7 +9484,7 @@
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -9493,16 +9492,16 @@
         <v>581</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>20</v>
@@ -9521,7 +9520,7 @@
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -9529,16 +9528,16 @@
         <v>581</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>20</v>
@@ -9557,24 +9556,24 @@
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>618</v>
+        <v>539</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>20</v>
@@ -9593,34 +9592,30 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>628</v>
-      </c>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4" t="s">
@@ -9633,32 +9628,34 @@
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H148" s="4"/>
+        <v>627</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>628</v>
+      </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4" t="s">
@@ -9671,29 +9668,31 @@
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>636</v>
+        <v>630</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>631</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -9707,31 +9706,29 @@
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
       <c r="R149" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>17</v>
+        <v>581</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>636</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -9745,7 +9742,7 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -9753,21 +9750,23 @@
         <v>581</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -9781,24 +9780,24 @@
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>17</v>
+        <v>581</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>20</v>
@@ -9817,24 +9816,24 @@
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>20</v>
@@ -9853,24 +9852,24 @@
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>545</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>20</v>
@@ -9889,24 +9888,24 @@
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>20</v>
@@ -9925,7 +9924,7 @@
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="4" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -9933,16 +9932,16 @@
         <v>581</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>674</v>
+        <v>520</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>20</v>
@@ -9961,7 +9960,7 @@
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -9969,16 +9968,16 @@
         <v>581</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>520</v>
+        <v>674</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>20</v>
@@ -9997,24 +9996,24 @@
       <c r="P157" s="4"/>
       <c r="Q157" s="4"/>
       <c r="R157" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>20</v>
@@ -10033,24 +10032,24 @@
       <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
       <c r="R158" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>20</v>
@@ -10069,7 +10068,7 @@
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
       <c r="R159" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -10077,16 +10076,16 @@
         <v>581</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>20</v>
@@ -10105,24 +10104,24 @@
       <c r="P160" s="4"/>
       <c r="Q160" s="4"/>
       <c r="R160" s="4" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>20</v>
@@ -10140,8 +10139,8 @@
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
       <c r="Q161" s="4"/>
-      <c r="R161" s="15" t="s">
-        <v>697</v>
+      <c r="R161" s="4" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -10149,16 +10148,16 @@
         <v>581</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>20</v>
@@ -10176,25 +10175,25 @@
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
-      <c r="R162" s="4" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R162" s="15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>268</v>
+        <v>581</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>20</v>
@@ -10213,22 +10212,24 @@
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
       <c r="R163" s="4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
+      <c r="A164" s="4" t="s">
+        <v>581</v>
+      </c>
       <c r="B164" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D164" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>729</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>20</v>
@@ -10247,7 +10248,7 @@
       <c r="P164" s="4"/>
       <c r="Q164" s="4"/>
       <c r="R164" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -10255,22 +10256,22 @@
         <v>581</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D165" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="E165" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="F165" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>734</v>
       </c>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
@@ -10285,7 +10286,7 @@
       <c r="P165" s="4"/>
       <c r="Q165" s="4"/>
       <c r="R165" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -10293,16 +10294,16 @@
         <v>581</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>20</v>
@@ -10321,24 +10322,24 @@
       <c r="P166" s="4"/>
       <c r="Q166" s="4"/>
       <c r="R166" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>750</v>
+        <v>581</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D167" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E167" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>20</v>
@@ -10357,34 +10358,34 @@
       <c r="P167" s="4"/>
       <c r="Q167" s="4"/>
       <c r="R167" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>750</v>
+        <v>581</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>543</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="I168" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>748</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4" t="s">
@@ -10397,24 +10398,24 @@
       <c r="P168" s="4"/>
       <c r="Q168" s="4"/>
       <c r="R168" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>750</v>
+        <v>581</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>20</v>
@@ -10433,24 +10434,24 @@
       <c r="P169" s="4"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>750</v>
+        <v>581</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>20</v>
@@ -10469,7 +10470,7 @@
       <c r="P170" s="4"/>
       <c r="Q170" s="4"/>
       <c r="R170" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -10839,7 +10840,7 @@
     <hyperlink ref="H17" r:id="rId3" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
     <hyperlink ref="H19" r:id="rId4"/>
     <hyperlink ref="H87" r:id="rId5"/>
-    <hyperlink ref="H98" r:id="rId6"/>
+    <hyperlink ref="H99" r:id="rId6"/>
     <hyperlink ref="N58" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
     <hyperlink ref="C21" r:id="rId8"/>
     <hyperlink ref="D21" r:id="rId9"/>
@@ -10852,73 +10853,73 @@
     <hyperlink ref="D8" r:id="rId16" display="http://ns.adobe.com/xap/1.0/rights/Owner"/>
     <hyperlink ref="C9" r:id="rId17" display="http://ns.adobe.com/xap/1.0/rights"/>
     <hyperlink ref="D9" r:id="rId18" display="http://ns.adobe.com/xap/1.0/rights/WebStatement"/>
-    <hyperlink ref="C131" r:id="rId19"/>
-    <hyperlink ref="D131" r:id="rId20"/>
-    <hyperlink ref="C132" r:id="rId21"/>
-    <hyperlink ref="D132" r:id="rId22"/>
-    <hyperlink ref="C133" r:id="rId23"/>
-    <hyperlink ref="D133" r:id="rId24"/>
-    <hyperlink ref="C135" r:id="rId25"/>
-    <hyperlink ref="D135" r:id="rId26"/>
-    <hyperlink ref="C136" r:id="rId27"/>
-    <hyperlink ref="D136" r:id="rId28"/>
-    <hyperlink ref="C137" r:id="rId29"/>
-    <hyperlink ref="D137" r:id="rId30"/>
-    <hyperlink ref="C138" r:id="rId31"/>
-    <hyperlink ref="D138" r:id="rId32"/>
-    <hyperlink ref="C141" r:id="rId33"/>
-    <hyperlink ref="C139" r:id="rId34"/>
-    <hyperlink ref="D139" r:id="rId35"/>
-    <hyperlink ref="C140" r:id="rId36"/>
-    <hyperlink ref="D140" r:id="rId37"/>
-    <hyperlink ref="D141" r:id="rId38"/>
-    <hyperlink ref="C142" r:id="rId39"/>
-    <hyperlink ref="D142" r:id="rId40"/>
-    <hyperlink ref="C143" r:id="rId41"/>
-    <hyperlink ref="D143" r:id="rId42"/>
-    <hyperlink ref="C144" r:id="rId43"/>
-    <hyperlink ref="D144" r:id="rId44"/>
-    <hyperlink ref="C145" r:id="rId45"/>
-    <hyperlink ref="D145" r:id="rId46"/>
+    <hyperlink ref="C132" r:id="rId19"/>
+    <hyperlink ref="D132" r:id="rId20"/>
+    <hyperlink ref="C133" r:id="rId21"/>
+    <hyperlink ref="D133" r:id="rId22"/>
+    <hyperlink ref="C134" r:id="rId23"/>
+    <hyperlink ref="D134" r:id="rId24"/>
+    <hyperlink ref="C136" r:id="rId25"/>
+    <hyperlink ref="D136" r:id="rId26"/>
+    <hyperlink ref="C137" r:id="rId27"/>
+    <hyperlink ref="D137" r:id="rId28"/>
+    <hyperlink ref="C138" r:id="rId29"/>
+    <hyperlink ref="D138" r:id="rId30"/>
+    <hyperlink ref="C139" r:id="rId31"/>
+    <hyperlink ref="D139" r:id="rId32"/>
+    <hyperlink ref="C142" r:id="rId33"/>
+    <hyperlink ref="C140" r:id="rId34"/>
+    <hyperlink ref="D140" r:id="rId35"/>
+    <hyperlink ref="C141" r:id="rId36"/>
+    <hyperlink ref="D141" r:id="rId37"/>
+    <hyperlink ref="D142" r:id="rId38"/>
+    <hyperlink ref="C143" r:id="rId39"/>
+    <hyperlink ref="D143" r:id="rId40"/>
+    <hyperlink ref="C144" r:id="rId41"/>
+    <hyperlink ref="D144" r:id="rId42"/>
+    <hyperlink ref="C145" r:id="rId43"/>
+    <hyperlink ref="D145" r:id="rId44"/>
+    <hyperlink ref="C146" r:id="rId45"/>
+    <hyperlink ref="D146" r:id="rId46"/>
     <hyperlink ref="H14" r:id="rId47" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
-    <hyperlink ref="L139" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
+    <hyperlink ref="L140" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
     <hyperlink ref="D18" r:id="rId49"/>
-    <hyperlink ref="C146" r:id="rId50"/>
-    <hyperlink ref="D146" r:id="rId51"/>
-    <hyperlink ref="C147" r:id="rId52"/>
-    <hyperlink ref="D147" r:id="rId53"/>
-    <hyperlink ref="D148" r:id="rId54"/>
-    <hyperlink ref="C148" r:id="rId55"/>
-    <hyperlink ref="C149" r:id="rId56"/>
-    <hyperlink ref="D149" r:id="rId57"/>
-    <hyperlink ref="D150" r:id="rId58"/>
-    <hyperlink ref="C150" r:id="rId59"/>
-    <hyperlink ref="C151" r:id="rId60"/>
-    <hyperlink ref="D151" r:id="rId61"/>
-    <hyperlink ref="D152" r:id="rId62"/>
-    <hyperlink ref="C152" r:id="rId63"/>
-    <hyperlink ref="C157" r:id="rId64"/>
-    <hyperlink ref="D155" r:id="rId65"/>
-    <hyperlink ref="C155" r:id="rId66"/>
-    <hyperlink ref="D157" r:id="rId67"/>
-    <hyperlink ref="D156" r:id="rId68"/>
-    <hyperlink ref="C156" r:id="rId69"/>
-    <hyperlink ref="D154" r:id="rId70"/>
-    <hyperlink ref="C154" r:id="rId71"/>
-    <hyperlink ref="D153" r:id="rId72"/>
-    <hyperlink ref="C153" r:id="rId73"/>
-    <hyperlink ref="D158" r:id="rId74"/>
-    <hyperlink ref="C158" r:id="rId75"/>
-    <hyperlink ref="D159" r:id="rId76"/>
-    <hyperlink ref="C159" r:id="rId77"/>
-    <hyperlink ref="D160" r:id="rId78"/>
-    <hyperlink ref="C160" r:id="rId79"/>
-    <hyperlink ref="C161" r:id="rId80"/>
-    <hyperlink ref="D161" r:id="rId81"/>
-    <hyperlink ref="C162" r:id="rId82"/>
-    <hyperlink ref="D162" r:id="rId83"/>
-    <hyperlink ref="D163" r:id="rId84"/>
-    <hyperlink ref="C163" r:id="rId85"/>
+    <hyperlink ref="C147" r:id="rId50"/>
+    <hyperlink ref="D147" r:id="rId51"/>
+    <hyperlink ref="C148" r:id="rId52"/>
+    <hyperlink ref="D148" r:id="rId53"/>
+    <hyperlink ref="D149" r:id="rId54"/>
+    <hyperlink ref="C149" r:id="rId55"/>
+    <hyperlink ref="C150" r:id="rId56"/>
+    <hyperlink ref="D150" r:id="rId57"/>
+    <hyperlink ref="D151" r:id="rId58"/>
+    <hyperlink ref="C151" r:id="rId59"/>
+    <hyperlink ref="C152" r:id="rId60"/>
+    <hyperlink ref="D152" r:id="rId61"/>
+    <hyperlink ref="D153" r:id="rId62"/>
+    <hyperlink ref="C153" r:id="rId63"/>
+    <hyperlink ref="C158" r:id="rId64"/>
+    <hyperlink ref="D156" r:id="rId65"/>
+    <hyperlink ref="C156" r:id="rId66"/>
+    <hyperlink ref="D158" r:id="rId67"/>
+    <hyperlink ref="D157" r:id="rId68"/>
+    <hyperlink ref="C157" r:id="rId69"/>
+    <hyperlink ref="D155" r:id="rId70"/>
+    <hyperlink ref="C155" r:id="rId71"/>
+    <hyperlink ref="D154" r:id="rId72"/>
+    <hyperlink ref="C154" r:id="rId73"/>
+    <hyperlink ref="D159" r:id="rId74"/>
+    <hyperlink ref="C159" r:id="rId75"/>
+    <hyperlink ref="D160" r:id="rId76"/>
+    <hyperlink ref="C160" r:id="rId77"/>
+    <hyperlink ref="D161" r:id="rId78"/>
+    <hyperlink ref="C161" r:id="rId79"/>
+    <hyperlink ref="C162" r:id="rId80"/>
+    <hyperlink ref="D162" r:id="rId81"/>
+    <hyperlink ref="C163" r:id="rId82"/>
+    <hyperlink ref="D163" r:id="rId83"/>
+    <hyperlink ref="D96" r:id="rId84"/>
+    <hyperlink ref="C96" r:id="rId85"/>
     <hyperlink ref="C164" r:id="rId86"/>
     <hyperlink ref="D164" r:id="rId87"/>
     <hyperlink ref="C165" r:id="rId88"/>

--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="764">
   <si>
     <t>group</t>
   </si>
@@ -1161,9 +1161,6 @@
   </si>
   <si>
     <t>genhy2</t>
-  </si>
-  <si>
-    <t>Collection object</t>
   </si>
   <si>
     <t>miscellaneousRemarks</t>
@@ -2303,6 +2300,21 @@
   </si>
   <si>
     <t>scientificNameID</t>
+  </si>
+  <si>
+    <t>https://github.com/hiscom/hispid/issues/54</t>
+  </si>
+  <si>
+    <t>collectingTrip</t>
+  </si>
+  <si>
+    <t>The collecting trip or expedition where the specimen was collected</t>
+  </si>
+  <si>
+    <t>CollectionObject</t>
+  </si>
+  <si>
+    <t>https://github.com/hiscom/hispid/issues/66</t>
   </si>
 </sst>
 </file>
@@ -2836,7 +2848,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2848,9 +2860,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3203,13 +3212,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R260"/>
+  <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="L102" sqref="L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,7 +3233,7 @@
     <col min="8" max="8" width="50.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="42.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="67.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="65.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="87.85546875" style="2" customWidth="1"/>
@@ -3286,21 +3295,21 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/institutionCode")</f>
         <v>http://rs.tdwg.org/dwc/terms/institutionCode</v>
       </c>
@@ -3324,7 +3333,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>23</v>
@@ -3339,14 +3348,14 @@
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D3" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/collectionCode")</f>
         <v>http://rs.tdwg.org/dwc/terms/collectionCode</v>
       </c>
@@ -3359,10 +3368,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>22</v>
@@ -3372,7 +3381,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -3383,14 +3392,14 @@
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
         <v>http://purl.org/dc/terms</v>
       </c>
-      <c r="D4" s="7" t="str">
+      <c r="D4" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/modified")</f>
         <v>http://purl.org/dc/terms/modified</v>
       </c>
@@ -3406,7 +3415,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>22</v>
@@ -3415,8 +3424,8 @@
       <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>443</v>
+      <c r="N4" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>30</v>
@@ -3426,21 +3435,21 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/basisOfRecord")</f>
         <v>http://rs.tdwg.org/dwc/terms/basisOfRecord</v>
       </c>
@@ -3451,7 +3460,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="4"/>
@@ -3461,15 +3470,15 @@
       <c r="K5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="L5" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/27")</f>
         <v>https://github.com/hiscom/hispid/issues/27</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>444</v>
+      <c r="N5" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>35</v>
@@ -3484,14 +3493,14 @@
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="C6" s="7" t="str">
+      <c r="B6" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C6" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
         <v>http://purl.org/dc/terms</v>
       </c>
-      <c r="D6" s="7" t="str">
+      <c r="D6" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/type")</f>
         <v>http://purl.org/dc/terms/type</v>
       </c>
@@ -3502,7 +3511,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="4"/>
@@ -3510,7 +3519,7 @@
         <v>39</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
@@ -3521,72 +3530,72 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C7" s="7" t="str">
+      <c r="B7" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
         <v>http://purl.org/dc/terms</v>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/language")</f>
         <v>http://purl.org/dc/terms/language</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="7" t="s">
-        <v>522</v>
+      <c r="H7" s="6" t="s">
+        <v>521</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>267</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C8" s="7" t="str">
+      <c r="B8" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C8" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
         <v>http://purl.org/dc/terms</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/rightsHolder")</f>
         <v>http://purl.org/dc/terms/rightsHolder</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -3594,7 +3603,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
@@ -3607,26 +3616,26 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" s="7" t="str">
+      <c r="B9" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C9" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms")</f>
         <v>http://purl.org/dc/terms</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/license")</f>
         <v>http://purl.org/dc/terms/license</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -3634,10 +3643,10 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>568</v>
+        <v>653</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>567</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>267</v>
@@ -3649,21 +3658,21 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="6" t="str">
         <f t="shared" ref="C10:C19" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceID")</f>
         <v>http://rs.tdwg.org/dwc/terms/occurrenceID</v>
       </c>
@@ -3674,7 +3683,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -3684,7 +3693,7 @@
       <c r="K10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="L10" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
         <v>https://github.com/hiscom/hispid/issues/2</v>
       </c>
@@ -3701,14 +3710,14 @@
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="7" t="str">
+      <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/catalogNumber")</f>
         <v>http://rs.tdwg.org/dwc/terms/catalogNumber</v>
       </c>
@@ -3731,8 +3740,8 @@
       <c r="M11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>445</v>
+      <c r="N11" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>47</v>
@@ -3747,14 +3756,14 @@
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordedBy")</f>
         <v>http://rs.tdwg.org/dwc/terms/recordedBy</v>
       </c>
@@ -3768,8 +3777,8 @@
         <v>50</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="10" t="s">
-        <v>604</v>
+      <c r="I12" s="9" t="s">
+        <v>603</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>51</v>
@@ -3777,7 +3786,7 @@
       <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="L12" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/30")</f>
         <v>https://github.com/hiscom/hispid/issues/30</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>48</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>52</v>
@@ -3800,14 +3809,14 @@
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="7" t="str">
+      <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordNumber")</f>
         <v>http://rs.tdwg.org/dwc/terms/recordNumber</v>
       </c>
@@ -3829,7 +3838,7 @@
         <v>53</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>55</v>
@@ -3844,36 +3853,36 @@
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="7" t="str">
+      <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D14" s="7" t="str">
+      <c r="D14" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/preparations")</f>
         <v>http://rs.tdwg.org/dwc/terms/preparations</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="7" t="str">
+      <c r="H14" s="6" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="L14" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/26")</f>
         <v>https://github.com/hiscom/hispid/issues/26</v>
       </c>
@@ -3881,7 +3890,7 @@
         <v>56</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>57</v>
@@ -3891,21 +3900,21 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D15" s="7" t="str">
+      <c r="D15" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/otherCatalogNumbers")</f>
         <v>http://rs.tdwg.org/dwc/terms/otherCatalogNumbers</v>
       </c>
@@ -3919,8 +3928,8 @@
         <v>60</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="10" t="s">
-        <v>605</v>
+      <c r="I15" s="9" t="s">
+        <v>604</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
@@ -3931,7 +3940,7 @@
         <v>58</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>61</v>
@@ -3946,14 +3955,14 @@
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceRemarks")</f>
         <v>http://rs.tdwg.org/dwc/terms/occurrenceRemarks</v>
       </c>
@@ -3972,7 +3981,7 @@
       <c r="K16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="L16" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
         <v>https://github.com/hiscom/hispid/issues/1</v>
       </c>
@@ -3980,7 +3989,7 @@
         <v>62</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>65</v>
@@ -3991,18 +4000,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/organismQuantity")</f>
         <v>http://rs.tdwg.org/dwc/terms/organismQuantity</v>
       </c>
@@ -4013,22 +4022,22 @@
         <v>20</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="H17" s="7" t="str">
+        <v>608</v>
+      </c>
+      <c r="H17" s="6" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="L17" s="7" t="str">
+        <v>606</v>
+      </c>
+      <c r="L17" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
         <v>https://github.com/hiscom/hispid/issues/22</v>
       </c>
@@ -4036,7 +4045,7 @@
         <v>66</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>69</v>
@@ -4045,45 +4054,45 @@
         <v>69</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" s="7" t="str">
+      <c r="B18" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>608</v>
+      <c r="D18" s="6" t="s">
+        <v>607</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="L18" s="7" t="str">
+        <v>606</v>
+      </c>
+      <c r="L18" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
         <v>https://github.com/hiscom/hispid/issues/22</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -4095,14 +4104,14 @@
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="7" t="str">
+      <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/establishmentMeans")</f>
         <v>http://rs.tdwg.org/dwc/terms/establishmentMeans</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>72</v>
       </c>
       <c r="I19" s="4"/>
@@ -4121,7 +4130,7 @@
       <c r="K19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="7" t="str">
+      <c r="L19" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/4")</f>
         <v>https://github.com/hiscom/hispid/issues/4</v>
       </c>
@@ -4129,13 +4138,13 @@
         <v>70</v>
       </c>
       <c r="N19" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="O19" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="P19" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -4144,14 +4153,14 @@
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="7" t="str">
+      <c r="C20" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/lifeForm")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/lifeForm</v>
       </c>
@@ -4168,7 +4177,7 @@
       <c r="K20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L20" s="7" t="str">
+      <c r="L20" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/17")</f>
         <v>https://github.com/hiscom/hispid/issues/17</v>
       </c>
@@ -4181,7 +4190,7 @@
         <v>76</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R20" s="4"/>
     </row>
@@ -4189,23 +4198,23 @@
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>511</v>
-      </c>
       <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="7" t="str">
+      <c r="H21" s="6" t="str">
         <f>HYPERLINK("http://rs.gbif.org/vocabulary/gbif/sex.xml")</f>
         <v>http://rs.gbif.org/vocabulary/gbif/sex.xml</v>
       </c>
@@ -4214,36 +4223,36 @@
       <c r="K21" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L21" s="7" t="str">
+      <c r="L21" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/18")</f>
         <v>https://github.com/hiscom/hispid/issues/18</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>20</v>
@@ -4255,32 +4264,35 @@
       <c r="K22" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/34")</f>
+        <v>https://github.com/hiscom/hispid/issues/34</v>
+      </c>
       <c r="M22" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="7" t="str">
+      <c r="C23" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/reproductiveCondition")</f>
         <v>http://rs.tdwg.org/dwc/terms/reproductiveCondition</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="7" t="str">
+      <c r="H23" s="6" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml</v>
       </c>
@@ -4302,7 +4314,7 @@
       <c r="K23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="7" t="str">
+      <c r="L23" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/12")</f>
         <v>https://github.com/hiscom/hispid/issues/12</v>
       </c>
@@ -4310,7 +4322,7 @@
         <v>77</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>80</v>
@@ -4319,22 +4331,22 @@
         <v>80</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C24" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedTaxa")</f>
         <v>http://rs.tdwg.org/dwc/terms/associatedTaxa</v>
       </c>
@@ -4347,7 +4359,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>83</v>
@@ -4355,7 +4367,7 @@
       <c r="K24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="7" t="str">
+      <c r="L24" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/20")</f>
         <v>https://github.com/hiscom/hispid/issues/20</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>81</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>84</v>
@@ -4378,14 +4390,14 @@
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="7" t="str">
+      <c r="C25" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationType")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/associationType</v>
       </c>
@@ -4398,16 +4410,16 @@
       <c r="G25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="7" t="str">
+      <c r="H25" s="6" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L25" s="7" t="str">
+        <v>504</v>
+      </c>
+      <c r="L25" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/33")</f>
         <v>https://github.com/hiscom/hispid/issues/33</v>
       </c>
@@ -4422,14 +4434,14 @@
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="7" t="str">
+      <c r="C26" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D26" s="7" t="str">
+      <c r="D26" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationTaxon")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/associationTaxon</v>
       </c>
@@ -4446,7 +4458,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -4460,14 +4472,14 @@
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
         <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
       </c>
@@ -4484,15 +4496,15 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L27" s="7" t="str">
+        <v>504</v>
+      </c>
+      <c r="L27" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/32")</f>
         <v>https://github.com/hiscom/hispid/issues/32</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -4503,19 +4515,19 @@
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="C28" s="7" t="str">
+      <c r="B28" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C28" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D28" s="7" t="str">
+      <c r="D28" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/disposition")</f>
         <v>http://rs.tdwg.org/dwc/terms/disposition</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>20</v>
@@ -4524,12 +4536,12 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L28" s="7" t="str">
+      <c r="L28" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/15")</f>
         <v>https://github.com/hiscom/hispid/issues/15</v>
       </c>
@@ -4544,14 +4556,14 @@
       <c r="A29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="7" t="str">
+      <c r="C29" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D29" s="7" t="str">
+      <c r="D29" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/habitat")</f>
         <v>http://rs.tdwg.org/dwc/terms/habitat</v>
       </c>
@@ -4568,7 +4580,7 @@
       <c r="K29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="7" t="str">
+      <c r="L29" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
         <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
@@ -4591,14 +4603,14 @@
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="6" t="str">
         <f t="shared" ref="C30:C35" si="1">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D30" s="7" t="str">
+      <c r="D30" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/topography")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/topography</v>
       </c>
@@ -4615,7 +4627,7 @@
       <c r="K30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L30" s="7" t="str">
+      <c r="L30" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
         <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
@@ -4636,14 +4648,14 @@
       <c r="A31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="7" t="str">
+      <c r="C31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D31" s="7" t="str">
+      <c r="D31" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
       </c>
@@ -4660,7 +4672,7 @@
       <c r="K31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L31" s="7" t="str">
+      <c r="L31" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
         <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
@@ -4681,14 +4693,14 @@
       <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="7" t="str">
+      <c r="C32" s="6" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D32" s="7" t="str">
+      <c r="D32" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
       </c>
@@ -4705,7 +4717,7 @@
       <c r="K32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="7" t="str">
+      <c r="L32" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
         <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
@@ -4720,7 +4732,7 @@
         <v>110</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R32" s="4"/>
     </row>
@@ -4728,14 +4740,14 @@
       <c r="A33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="7" t="str">
+      <c r="C33" s="6" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D33" s="7" t="str">
+      <c r="D33" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
       </c>
@@ -4752,7 +4764,7 @@
       <c r="K33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L33" s="7" t="str">
+      <c r="L33" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/14")</f>
         <v>https://github.com/hiscom/hispid/issues/14</v>
       </c>
@@ -4769,14 +4781,14 @@
       <c r="A34" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="7" t="str">
+      <c r="C34" s="6" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D34" s="7" t="str">
+      <c r="D34" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
       </c>
@@ -4793,7 +4805,7 @@
       <c r="K34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L34" s="7" t="str">
+      <c r="L34" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
         <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
@@ -4808,7 +4820,7 @@
         <v>114</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R34" s="4"/>
     </row>
@@ -4816,14 +4828,14 @@
       <c r="A35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="7" t="str">
+      <c r="C35" s="6" t="str">
         <f t="shared" si="1"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D35" s="7" t="str">
+      <c r="D35" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
       </c>
@@ -4840,7 +4852,7 @@
       <c r="K35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L35" s="7" t="str">
+      <c r="L35" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
         <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
@@ -4855,7 +4867,7 @@
         <v>120</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R35" s="4"/>
     </row>
@@ -4863,19 +4875,19 @@
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="7" t="str">
-        <f t="shared" ref="C36:C63" si="2">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+      <c r="C36" s="6" t="str">
+        <f t="shared" ref="C36:C64" si="2">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D36" s="7" t="str">
+      <c r="D36" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventDate")</f>
         <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>122</v>
@@ -4896,31 +4908,31 @@
         <v>121</v>
       </c>
       <c r="N36" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="O36" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="O36" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="P36" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="7" t="str">
+      <c r="C37" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D37" s="7" t="str">
+      <c r="D37" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimEventDate")</f>
         <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
       </c>
@@ -4955,21 +4967,21 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D38" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/locality</v>
+        <v>94</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f t="shared" ref="C38" si="3">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D38" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/collectingTrip")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/collectingTrip</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>131</v>
+        <v>761</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>20</v>
@@ -4978,58 +4990,49 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/8")</f>
+        <v>https://github.com/hiscom/hispid/issues/8</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="7" t="str">
+      <c r="B39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D39" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
+      <c r="D39" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/locality</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>132</v>
@@ -5041,219 +5044,215 @@
         <v>133</v>
       </c>
       <c r="Q39" s="4"/>
-      <c r="R39" s="4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="7" t="str">
+      <c r="B40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D40" s="7" t="str">
+      <c r="D40" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D41" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
         <v>http://rs.tdwg.org/dwc/terms/continent</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4" t="s">
+      <c r="F41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
+      <c r="K41" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="7" t="str">
+      <c r="C42" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D41" s="7" t="str">
+      <c r="D42" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
         <v>http://rs.tdwg.org/dwc/terms/country</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="14" t="s">
-        <v>613</v>
-      </c>
-      <c r="J41" s="4" t="s">
+      <c r="F42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D42" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="7" t="str">
+      <c r="B43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D43" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
-        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
+      <c r="D43" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>466</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Q43" s="4"/>
       <c r="R43" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="7" t="str">
+      <c r="B44" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D44" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
-        <v>http://rs.tdwg.org/dwc/terms/county</v>
+      <c r="D44" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
+        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>20</v>
@@ -5262,44 +5261,48 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="7" t="str">
+      <c r="B45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D45" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
-        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
+      <c r="D45" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
+        <v>http://rs.tdwg.org/dwc/terms/county</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>20</v>
@@ -5308,23 +5311,24 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L45" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
-        <v>https://github.com/hiscom/hispid/issues/21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
@@ -5332,19 +5336,19 @@
       <c r="A46" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="7" t="str">
+      <c r="B46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D46" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
-        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
+      <c r="D46" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
+        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>20</v>
@@ -5353,20 +5357,20 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L46" s="7" t="str">
+        <v>504</v>
+      </c>
+      <c r="L46" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
         <v>https://github.com/hiscom/hispid/issues/21</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -5377,19 +5381,19 @@
       <c r="A47" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="7" t="str">
+      <c r="B47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D47" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
-        <v>http://rs.tdwg.org/dwc/terms/island</v>
+      <c r="D47" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
+        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>20</v>
@@ -5398,20 +5402,20 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L47" s="7" t="str">
+        <v>504</v>
+      </c>
+      <c r="L47" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
         <v>https://github.com/hiscom/hispid/issues/21</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -5422,38 +5426,41 @@
       <c r="A48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="7" t="str">
+      <c r="B48" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D48" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
+      <c r="D48" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
+        <v>http://rs.tdwg.org/dwc/terms/island</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L48" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
+        <v>https://github.com/hiscom/hispid/issues/21</v>
+      </c>
       <c r="M48" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -5464,19 +5471,19 @@
       <c r="A49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="7" t="str">
+      <c r="B49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D49" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
+      <c r="D49" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>176</v>
@@ -5485,113 +5492,107 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="7" t="str">
+      <c r="B50" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D50" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
+      <c r="D50" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O50" s="4"/>
-      <c r="P50" s="4" t="s">
-        <v>614</v>
-      </c>
+      <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="7" t="str">
+      <c r="B51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D51" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
+      <c r="D51" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O51" s="4"/>
       <c r="P51" s="4" t="s">
-        <v>193</v>
+        <v>613</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
@@ -5600,19 +5601,19 @@
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="7" t="str">
+      <c r="B52" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D52" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
+      <c r="D52" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>20</v>
@@ -5623,295 +5624,294 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="7" t="str">
+      <c r="B53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D53" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
+      <c r="D53" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="O53" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="P53" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="7" t="str">
+      <c r="B54" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D54" s="7" t="str">
+      <c r="D54" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D55" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
         <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="4" t="s">
+      <c r="F55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H54" s="7" t="str">
+      <c r="H55" s="6" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4" t="s">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="7" t="str">
+      <c r="C56" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D55" s="7" t="str">
+      <c r="D56" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
         <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="F56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D56" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
-        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
+      <c r="O56" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="7" t="str">
+      <c r="B57" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D57" s="7" t="str">
+      <c r="D57" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
+        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D58" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
         <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D58" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="I58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J58" s="4"/>
       <c r="K58" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L58" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
-        <v>https://github.com/hiscom/hispid/issues/13</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>467</v>
+        <v>220</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
@@ -5920,19 +5920,19 @@
       <c r="A59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59" s="7" t="str">
+      <c r="B59" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D59" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
+      <c r="D59" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>20</v>
@@ -5941,20 +5941,20 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" s="7" t="str">
+        <v>504</v>
+      </c>
+      <c r="L59" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
         <v>https://github.com/hiscom/hispid/issues/13</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>229</v>
+        <v>466</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>225</v>
@@ -5965,82 +5965,91 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="7" t="str">
+      <c r="B60" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D60" s="7" t="str">
+      <c r="D60" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
+        <v>https://github.com/hiscom/hispid/issues/13</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D61" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
         <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="E61" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D61" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>233</v>
+        <v>467</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -6051,174 +6060,170 @@
       <c r="A62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="7" t="str">
+      <c r="B62" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D62" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
+      <c r="D62" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>235</v>
+        <v>599</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H62" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
-      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L62" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/19")</f>
-        <v>https://github.com/hiscom/hispid/issues/19</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C63" s="7" t="str">
+      <c r="B63" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D63" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
+      <c r="D63" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H63" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L63" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L63" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/19")</f>
+        <v>https://github.com/hiscom/hispid/issues/19</v>
+      </c>
       <c r="M63" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D64" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="7" t="str">
+      <c r="C65" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D64" s="7" t="str">
+      <c r="D65" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C65" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D65" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="I65" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="4" t="s">
-        <v>245</v>
+        <v>468</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -6227,19 +6232,19 @@
       <c r="A66" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="7" t="str">
+      <c r="B66" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D66" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
+      <c r="D66" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>176</v>
@@ -6253,100 +6258,101 @@
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>471</v>
+        <v>245</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C67" s="7" t="str">
+      <c r="B67" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D67" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
+      <c r="D67" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
+        <v>470</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C68" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D68" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
+      <c r="B68" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D68" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="4"/>
-      <c r="H68" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
-      </c>
+      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="M68" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
@@ -6354,42 +6360,41 @@
       <c r="A69" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C69" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D69" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
+      <c r="B69" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D69" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
+      </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
       <c r="O69" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -6398,19 +6403,19 @@
       <c r="A70" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C70" s="7" t="str">
+      <c r="B70" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D70" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
+      <c r="D70" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>176</v>
@@ -6424,166 +6429,164 @@
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C71" s="7" t="str">
+      <c r="B71" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D71" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
+      <c r="D71" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
+        <v>262</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C72" s="7" t="str">
+        <v>129</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D72" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
+      <c r="D72" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L72" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
-        <v>https://github.com/hiscom/hispid/issues/2</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="N72" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C73" s="7" t="str">
+      <c r="B73" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C73" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D73" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
+      <c r="D73" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L73" s="4"/>
+      <c r="L73" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
+        <v>https://github.com/hiscom/hispid/issues/2</v>
+      </c>
       <c r="M73" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>275</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
-      <c r="R73" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C74" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D74" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
+      <c r="B74" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D74" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>20</v>
@@ -6599,57 +6602,58 @@
       <c r="M74" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="N74" s="4"/>
+      <c r="N74" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="O74" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-    </row>
-    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="R74" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C75" s="7" t="str">
+      <c r="B75" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D75" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
+      <c r="D75" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="4"/>
-      <c r="H75" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
-      </c>
+      <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="M75" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="N75" s="4"/>
       <c r="O75" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
@@ -6658,45 +6662,43 @@
       <c r="A76" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C76" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D76" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
+      <c r="B76" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>597</v>
+        <v>280</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="H76" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
+      </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L76" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
-        <v>https://github.com/hiscom/hispid/issues/16</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>283</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
       <c r="N76" s="4" t="s">
-        <v>472</v>
+        <v>281</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
@@ -6705,116 +6707,117 @@
       <c r="A77" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C77" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D77" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
+      <c r="B77" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D77" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>286</v>
+        <v>596</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="4"/>
-      <c r="H77" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
-      </c>
+      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/31")</f>
-        <v>https://github.com/hiscom/hispid/issues/31</v>
-      </c>
-      <c r="M77" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="L77" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
+        <v>https://github.com/hiscom/hispid/issues/16</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="N77" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C78" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D78" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
+      <c r="B78" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D78" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+      <c r="H78" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4" t="s">
-        <v>288</v>
-      </c>
+      <c r="L78" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/31")</f>
+        <v>https://github.com/hiscom/hispid/issues/31</v>
+      </c>
+      <c r="M78" s="4"/>
       <c r="N78" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q78" s="4"/>
-      <c r="R78" s="4" t="s">
-        <v>715</v>
-      </c>
+      <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C79" s="7" t="str">
+      <c r="B79" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C79" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D79" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
-        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
+      <c r="D79" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -6825,42 +6828,42 @@
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C80" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D80" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
+      <c r="B80" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D80" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
+        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -6870,36 +6873,40 @@
         <v>22</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
+      <c r="M80" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="N80" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
+      <c r="R80" s="4" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C81" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D81" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
+      <c r="B81" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>20</v>
@@ -6911,91 +6918,89 @@
       <c r="K81" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L81" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
-        <v>https://github.com/hiscom/hispid/issues/16</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="N81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="O81" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C82" s="7" t="str">
+      <c r="B82" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C82" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D82" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
-        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
+      <c r="D82" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L82" s="4"/>
+      <c r="L82" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
+        <v>https://github.com/hiscom/hispid/issues/16</v>
+      </c>
       <c r="M82" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>477</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N82" s="4"/>
       <c r="O82" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C83" s="7" t="str">
+      <c r="B83" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C83" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D83" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
+      <c r="D83" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
+        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -7004,233 +7009,238 @@
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="O83" s="4"/>
+        <v>476</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="P83" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C84" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D84" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
+      <c r="B84" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C84" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D84" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
-      </c>
+      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
+      <c r="M84" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="N84" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>310</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="O84" s="4"/>
       <c r="P84" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C85" s="7" t="str">
+      <c r="B85" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D85" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
+      <c r="D85" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="H85" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
+      </c>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="4" t="s">
-        <v>311</v>
-      </c>
+      <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C86" s="7" t="str">
+      <c r="B86" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D86" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
+      <c r="D86" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+      <c r="H86" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>506</v>
+      </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
+      <c r="L86" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/50")</f>
+        <v>https://github.com/hiscom/hispid/issues/50</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="N86" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D87" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C87" s="7" t="str">
-        <f t="shared" ref="C87:C101" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
+      <c r="C88" s="6" t="str">
+        <f t="shared" ref="C88:C102" si="4">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D87" s="7" t="str">
+      <c r="D88" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
         <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="7" t="s">
+      <c r="F88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C88" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D88" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
-        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>479</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
@@ -7240,19 +7250,19 @@
       <c r="A89" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C89" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="B89" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C89" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D89" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
+      <c r="D89" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
+        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>20</v>
@@ -7261,17 +7271,17 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
@@ -7282,19 +7292,19 @@
       <c r="A90" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C90" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="B90" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C90" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D90" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
-        <v>http://rs.tdwg.org/dwc/terms/class</v>
+      <c r="D90" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>20</v>
@@ -7303,17 +7313,17 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -7324,19 +7334,19 @@
       <c r="A91" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="B91" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D91" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
-        <v>http://rs.tdwg.org/dwc/terms/order</v>
+      <c r="D91" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
+        <v>http://rs.tdwg.org/dwc/terms/class</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>20</v>
@@ -7345,17 +7355,17 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -7366,19 +7376,19 @@
       <c r="A92" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C92" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="B92" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C92" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D92" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
-        <v>http://rs.tdwg.org/dwc/terms/family</v>
+      <c r="D92" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
+        <v>http://rs.tdwg.org/dwc/terms/order</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>20</v>
@@ -7387,24 +7397,20 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="O92" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="P92" s="4" t="s">
-        <v>339</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
@@ -7412,19 +7418,19 @@
       <c r="A93" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C93" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="B93" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C93" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D93" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/genus</v>
+      <c r="D93" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
+        <v>http://rs.tdwg.org/dwc/terms/family</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>20</v>
@@ -7433,23 +7439,23 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
@@ -7458,19 +7464,19 @@
       <c r="A94" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C94" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="B94" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D94" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
+      <c r="D94" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/genus</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>20</v>
@@ -7479,21 +7485,23 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="O94" s="4"/>
+        <v>483</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="P94" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -7502,19 +7510,19 @@
       <c r="A95" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C95" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="B95" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D95" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
+      <c r="D95" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>20</v>
@@ -7523,42 +7531,42 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="O95" s="4" t="s">
-        <v>351</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="O95" s="4"/>
       <c r="P95" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>713</v>
+      <c r="B96" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D96" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>714</v>
+        <v>349</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>20</v>
@@ -7566,39 +7574,43 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
+      <c r="J96" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="K96" s="4" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
+        <v>348</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="Q96" s="4"/>
-      <c r="R96" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="R96" s="4"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C97" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
-      </c>
-      <c r="D97" s="7" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
+      <c r="B97" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>712</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>353</v>
+        <v>713</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>20</v>
@@ -7606,267 +7618,265 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="J97" s="4"/>
       <c r="K97" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="N97" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="O97" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="P97" s="4" t="s">
-        <v>355</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C98" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>http://rs.tdwg.org/dwc/terms</v>
+      </c>
+      <c r="D98" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C98" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="C99" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D98" s="7" t="str">
+      <c r="D99" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
         <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4" t="s">
+      <c r="F99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J99" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K98" s="4" t="s">
+      <c r="K99" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4" t="s">
+      <c r="L99" s="4"/>
+      <c r="M99" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="N98" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="O98" s="4" t="s">
+      <c r="N99" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="O99" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="P98" s="4" t="s">
+      <c r="P99" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-    </row>
-    <row r="99" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+    </row>
+    <row r="100" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C99" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="C100" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D99" s="7" t="str">
+      <c r="D100" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
         <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="7" t="s">
+      <c r="F100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4" t="s">
+      <c r="I100" s="4"/>
+      <c r="J100" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4" t="s">
+      <c r="K100" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C100" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="C101" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D100" s="7" t="str">
+      <c r="D101" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
         <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4" t="s">
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4" t="s">
+      <c r="L101" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="M101" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="N100" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="O100" s="4" t="s">
+      <c r="N101" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="O101" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="P100" s="4" t="s">
+      <c r="P101" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-    </row>
-    <row r="101" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+    </row>
+    <row r="102" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C101" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="C102" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms</v>
       </c>
-      <c r="D101" s="7" t="str">
+      <c r="D102" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
         <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4" t="s">
+      <c r="E102" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="P101" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C102" s="7" t="str">
-        <f t="shared" ref="C102:C107" si="4">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D102" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4" t="s">
-        <v>492</v>
-      </c>
+      <c r="M102" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N102" s="4"/>
       <c r="O102" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
+      <c r="R102" s="4" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="103" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C103" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="B103" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C103" s="6" t="str">
+        <f t="shared" ref="C103:C108" si="5">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D103" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
+      <c r="D103" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>20</v>
@@ -7883,13 +7893,13 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
@@ -7898,19 +7908,19 @@
       <c r="A104" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C104" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="B104" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C104" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D104" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
+      <c r="D104" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>20</v>
@@ -7927,98 +7937,103 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="C105" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="B105" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C105" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D105" s="7" t="str">
+      <c r="D105" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+    </row>
+    <row r="106" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C106" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D106" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
       </c>
-      <c r="E105" s="13" t="s">
-        <v>585</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L105" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
-        <v>https://github.com/hiscom/hispid/issues/11</v>
-      </c>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="P105" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="C106" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
-      </c>
-      <c r="D106" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>586</v>
+      <c r="E106" s="12" t="s">
+        <v>584</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+      <c r="I106" s="4" t="s">
+        <v>587</v>
+      </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L106" s="7" t="str">
+      <c r="L106" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
         <v>https://github.com/hiscom/hispid/issues/11</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
+      <c r="O106" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>378</v>
+      </c>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
@@ -8026,19 +8041,19 @@
       <c r="A107" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="C107" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="B107" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C107" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D107" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
+      <c r="D107" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>20</v>
@@ -8050,38 +8065,34 @@
       <c r="K107" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L107" s="7" t="str">
+      <c r="L107" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
         <v>https://github.com/hiscom/hispid/issues/11</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
-      <c r="O107" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="P107" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C108" s="7" t="str">
-        <f t="shared" ref="C108:C131" si="5">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+        <v>319</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C108" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D108" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
+      <c r="D108" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>20</v>
@@ -8091,78 +8102,85 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L108" s="7" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
-        <v>https://github.com/hiscom/hispid/issues/1</v>
+        <v>267</v>
+      </c>
+      <c r="L108" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
+        <v>https://github.com/hiscom/hispid/issues/11</v>
       </c>
       <c r="M108" s="4"/>
-      <c r="N108" s="4" t="s">
-        <v>383</v>
-      </c>
+      <c r="N108" s="4"/>
       <c r="O108" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C109" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
+      <c r="C109" s="6" t="str">
+        <f t="shared" ref="C109:C132" si="6">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D109" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
+      <c r="D109" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F109" s="4"/>
+        <v>381</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L109" s="7" t="s">
-        <v>757</v>
+        <v>22</v>
+      </c>
+      <c r="L109" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
+        <v>https://github.com/hiscom/hispid/issues/1</v>
       </c>
       <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
+      <c r="N109" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C110" s="7" t="str">
+        <v>762</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C110" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D110" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
+      <c r="D110" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8170,10 +8188,10 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L110" s="7" t="s">
-        <v>757</v>
+        <v>504</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>756</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -8184,21 +8202,21 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="C111" s="7" t="str">
+        <v>762</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C111" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D111" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
+      <c r="D111" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8206,10 +8224,10 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L111" s="7" t="s">
-        <v>757</v>
+        <v>504</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>756</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -8218,78 +8236,67 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
-    <row r="112" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C112" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>762</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C112" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D112" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
+      <c r="D112" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml</v>
-      </c>
+      <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L112" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>756</v>
+      </c>
       <c r="M112" s="4"/>
-      <c r="N112" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="O112" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="P112" s="4" t="s">
-        <v>385</v>
-      </c>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
     </row>
     <row r="113" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C113" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>762</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C113" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D113" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
+      <c r="D113" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>387</v>
+        <v>600</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H113" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+      <c r="G113" s="4"/>
+      <c r="H113" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -8299,213 +8306,221 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q113" s="4" t="s">
-        <v>495</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
     </row>
-    <row r="114" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C114" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>762</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C114" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D114" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
+      <c r="D114" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H114" s="4"/>
+        <v>387</v>
+      </c>
+      <c r="H114" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+      </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L114" s="4"/>
+      <c r="L114" s="6" t="s">
+        <v>759</v>
+      </c>
       <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
+      <c r="N114" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="P114" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q114" s="4" t="s">
+        <v>494</v>
+      </c>
       <c r="R114" s="4"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C115" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>762</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C115" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D115" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
+      <c r="D115" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G115" s="4"/>
+      <c r="G115" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L115" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="L115" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/59")</f>
+        <v>https://github.com/hiscom/hispid/issues/59</v>
+      </c>
       <c r="M115" s="4"/>
-      <c r="N115" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="O115" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="P115" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q115" s="4" t="s">
-        <v>498</v>
-      </c>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
     </row>
-    <row r="116" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C116" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="C116" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D116" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
+      <c r="D116" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>399</v>
-      </c>
+      <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="4" t="s">
-        <v>400</v>
-      </c>
+      <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
         <v>267</v>
       </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q116" s="4"/>
+        <v>395</v>
+      </c>
+      <c r="Q116" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="R116" s="4"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C117" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>392</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C117" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D117" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
+      <c r="D117" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="4"/>
+      <c r="G117" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
+      <c r="J117" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="K117" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
     </row>
-    <row r="118" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C118" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>392</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C118" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D118" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
+      <c r="D118" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>407</v>
-      </c>
+      <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -8515,39 +8530,41 @@
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C119" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>392</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C119" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D119" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
+      <c r="D119" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="4"/>
+      <c r="G119" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -8557,34 +8574,34 @@
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C120" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>392</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C120" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D120" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
+      <c r="D120" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>20</v>
@@ -8599,34 +8616,34 @@
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C121" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>392</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C121" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D121" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
+      <c r="D121" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>20</v>
@@ -8641,34 +8658,34 @@
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C122" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>392</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C122" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D122" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
+      <c r="D122" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>20</v>
@@ -8676,37 +8693,41 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="4" t="s">
-        <v>421</v>
-      </c>
+      <c r="J122" s="4"/>
       <c r="K122" s="4" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
+      <c r="N122" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="P122" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C123" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="C123" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D123" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
+      <c r="D123" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>20</v>
@@ -8714,9 +8735,11 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
+      <c r="J123" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="K123" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
@@ -8728,21 +8751,21 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C124" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C124" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D124" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
+      <c r="D124" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>20</v>
@@ -8752,12 +8775,9 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L124" s="7" t="str">
-        <f t="shared" ref="L124:L131" si="6">HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
-        <v>https://github.com/hiscom/hispid/issues/10</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -8767,21 +8787,21 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C125" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C125" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D125" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
+      <c r="D125" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>20</v>
@@ -8791,10 +8811,10 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L125" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="L125" s="6" t="str">
+        <f t="shared" ref="L125:L132" si="7">HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M125" s="4"/>
@@ -8806,34 +8826,34 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C126" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C126" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D126" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
+      <c r="D126" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L126" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="L126" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M126" s="4"/>
@@ -8845,36 +8865,34 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C127" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C127" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D127" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
+      <c r="D127" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L127" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="L127" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M127" s="4"/>
@@ -8884,39 +8902,38 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
     </row>
-    <row r="128" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C128" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C128" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D128" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
+      <c r="D128" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" s="4"/>
-      <c r="H128" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L128" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="L128" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M128" s="4"/>
@@ -8928,34 +8945,37 @@
     </row>
     <row r="129" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C129" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C129" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D129" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
+      <c r="D129" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
+      <c r="H129" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+      </c>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L129" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="L129" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M129" s="4"/>
@@ -8965,23 +8985,23 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C130" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C130" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D130" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
+      <c r="D130" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>20</v>
@@ -8991,10 +9011,10 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L130" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="L130" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M130" s="4"/>
@@ -9006,21 +9026,21 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C131" s="7" t="str">
-        <f t="shared" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C131" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>http://hiscom.chah.org.au/hispid/terms</v>
       </c>
-      <c r="D131" s="7" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
+      <c r="D131" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>20</v>
@@ -9030,10 +9050,10 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="L131" s="7" t="str">
-        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="L131" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M131" s="4"/>
@@ -9045,19 +9065,21 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>542</v>
+        <v>417</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C132" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>http://hiscom.chah.org.au/hispid/terms</v>
+      </c>
+      <c r="D132" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>570</v>
+        <v>438</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>20</v>
@@ -9067,71 +9089,73 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L132" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L132" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>https://github.com/hiscom/hispid/issues/10</v>
+      </c>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
-      <c r="R132" s="4" t="s">
-        <v>663</v>
-      </c>
+      <c r="R132" s="4"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>544</v>
+        <v>580</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>541</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L133" s="4"/>
+      <c r="L133" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/65")</f>
+        <v>https://github.com/hiscom/hispid/issues/65</v>
+      </c>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>546</v>
+        <v>580</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>28</v>
@@ -9152,31 +9176,31 @@
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
       <c r="R134" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C135" s="7" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
-        <v>http://purl.org/dc/elements/1.1</v>
-      </c>
-      <c r="D135" s="7" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
-        <v>http://purl.org/dc/elements/1.1/source</v>
+        <v>580</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -9190,24 +9214,26 @@
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
       <c r="R135" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>548</v>
+        <v>580</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C136" s="6" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
+        <v>http://purl.org/dc/elements/1.1</v>
+      </c>
+      <c r="D136" s="6" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
+        <v>http://purl.org/dc/elements/1.1/source</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>20</v>
@@ -9225,25 +9251,25 @@
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
-      <c r="R136" s="14" t="s">
-        <v>624</v>
+      <c r="R136" s="4" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>550</v>
+        <v>580</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>547</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>20</v>
@@ -9261,25 +9287,25 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
       <c r="Q137" s="4"/>
-      <c r="R137" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="R137" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>551</v>
+        <v>580</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>20</v>
@@ -9298,32 +9324,30 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>552</v>
+        <v>580</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="4"/>
-      <c r="H139" s="4" t="s">
-        <v>563</v>
-      </c>
+      <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4" t="s">
@@ -9336,100 +9360,102 @@
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>554</v>
+        <v>580</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>551</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L140" s="7" t="s">
-        <v>758</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>555</v>
+        <v>580</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
+      <c r="H141" s="4" t="s">
+        <v>563</v>
+      </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L141" s="4"/>
+      <c r="L141" s="6" t="s">
+        <v>757</v>
+      </c>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>556</v>
+        <v>580</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>20</v>
@@ -9448,24 +9474,24 @@
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>557</v>
+        <v>580</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>555</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>20</v>
@@ -9484,24 +9510,24 @@
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>558</v>
+        <v>580</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>20</v>
@@ -9520,24 +9546,24 @@
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>559</v>
+        <v>580</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>20</v>
@@ -9556,24 +9582,24 @@
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>560</v>
+        <v>580</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>558</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>20</v>
@@ -9592,24 +9618,24 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>619</v>
+        <v>580</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>20</v>
@@ -9628,34 +9654,30 @@
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>625</v>
+        <v>580</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>618</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>628</v>
-      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4" t="s">
@@ -9668,38 +9690,43 @@
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>630</v>
+        <v>580</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>624</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H149" s="4"/>
+        <v>626</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>627</v>
+      </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L149" s="4"/>
+      <c r="L149" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/60")</f>
+        <v>https://github.com/hiscom/hispid/issues/60</v>
+      </c>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
@@ -9709,26 +9736,28 @@
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="E150" s="14" t="s">
-        <v>636</v>
+        <v>580</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -9742,31 +9771,29 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>640</v>
+        <v>580</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>635</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -9780,29 +9807,31 @@
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>643</v>
+        <v>580</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>638</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -9816,24 +9845,24 @@
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>647</v>
+        <v>580</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>642</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>20</v>
@@ -9852,24 +9881,24 @@
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>676</v>
+        <v>580</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>646</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>20</v>
@@ -9888,24 +9917,24 @@
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="D155" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>675</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>20</v>
@@ -9924,24 +9953,24 @@
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>671</v>
+        <v>580</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>674</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>20</v>
@@ -9960,24 +9989,24 @@
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>673</v>
+        <v>580</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>670</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>20</v>
@@ -9996,24 +10025,24 @@
       <c r="P157" s="4"/>
       <c r="Q157" s="4"/>
       <c r="R157" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D158" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>672</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>20</v>
@@ -10032,24 +10061,24 @@
       <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
       <c r="R158" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>683</v>
+        <v>580</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>671</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>20</v>
@@ -10068,24 +10097,24 @@
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
       <c r="R159" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>685</v>
+        <v>580</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>682</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>20</v>
@@ -10104,24 +10133,24 @@
       <c r="P160" s="4"/>
       <c r="Q160" s="4"/>
       <c r="R160" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>687</v>
+        <v>580</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>20</v>
@@ -10140,24 +10169,24 @@
       <c r="P161" s="4"/>
       <c r="Q161" s="4"/>
       <c r="R161" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>695</v>
-      </c>
       <c r="E162" s="4" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>20</v>
@@ -10175,25 +10204,25 @@
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
-      <c r="R162" s="15" t="s">
-        <v>697</v>
+      <c r="R162" s="4" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="163" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>706</v>
+        <v>580</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>694</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>20</v>
@@ -10211,25 +10240,25 @@
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
-      <c r="R163" s="4" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R163" s="14" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>727</v>
+        <v>580</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>705</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>20</v>
@@ -10248,31 +10277,29 @@
       <c r="P164" s="4"/>
       <c r="Q164" s="4"/>
       <c r="R164" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>731</v>
+        <v>580</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>726</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G165" s="4" t="s">
-        <v>733</v>
-      </c>
+      <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -10286,29 +10313,31 @@
       <c r="P165" s="4"/>
       <c r="Q165" s="4"/>
       <c r="R165" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>735</v>
+        <v>580</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>730</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G166" s="4"/>
+      <c r="G166" s="4" t="s">
+        <v>732</v>
+      </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
@@ -10322,24 +10351,24 @@
       <c r="P166" s="4"/>
       <c r="Q166" s="4"/>
       <c r="R166" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>740</v>
+        <v>580</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>734</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>20</v>
@@ -10358,35 +10387,31 @@
       <c r="P167" s="4"/>
       <c r="Q167" s="4"/>
       <c r="R167" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>745</v>
+        <v>580</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>739</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G168" s="4"/>
-      <c r="H168" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>747</v>
-      </c>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4" t="s">
         <v>267</v>
@@ -10398,31 +10423,35 @@
       <c r="P168" s="4"/>
       <c r="Q168" s="4"/>
       <c r="R168" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="I169" s="4" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4" t="s">
         <v>267</v>
@@ -10434,24 +10463,24 @@
       <c r="P169" s="4"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>753</v>
+        <v>580</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>748</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>20</v>
@@ -10470,368 +10499,44 @@
       <c r="P170" s="4"/>
       <c r="Q170" s="4"/>
       <c r="R170" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="5"/>
-      <c r="R171" s="2"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="5"/>
-      <c r="R172" s="2"/>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B173" s="5"/>
-      <c r="R173" s="2"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B174" s="5"/>
-      <c r="R174" s="2"/>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B175" s="5"/>
-      <c r="R175" s="2"/>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="5"/>
-      <c r="R176" s="2"/>
-    </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B177" s="5"/>
-      <c r="R177" s="2"/>
-    </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B178" s="5"/>
-      <c r="R178" s="2"/>
-    </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="5"/>
-      <c r="R179" s="2"/>
-    </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B180" s="5"/>
-      <c r="R180" s="2"/>
-    </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B181" s="5"/>
-      <c r="R181" s="2"/>
-    </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B182" s="5"/>
-      <c r="R182" s="2"/>
-    </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B183" s="5"/>
-      <c r="R183" s="2"/>
-    </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B184" s="5"/>
-      <c r="R184" s="2"/>
-    </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B185" s="5"/>
-      <c r="R185" s="2"/>
-    </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B186" s="5"/>
-      <c r="R186" s="2"/>
-    </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B187" s="5"/>
-      <c r="R187" s="2"/>
-    </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B188" s="5"/>
-      <c r="R188" s="2"/>
-    </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B189" s="5"/>
-      <c r="R189" s="2"/>
-    </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B190" s="5"/>
-      <c r="R190" s="2"/>
-    </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B191" s="5"/>
-      <c r="R191" s="2"/>
-    </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="5"/>
-      <c r="R192" s="2"/>
-    </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="5"/>
-      <c r="R193" s="2"/>
-    </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B194" s="5"/>
-      <c r="R194" s="2"/>
-    </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B195" s="5"/>
-      <c r="R195" s="2"/>
-    </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B196" s="5"/>
-      <c r="R196" s="2"/>
-    </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B197" s="5"/>
-      <c r="R197" s="2"/>
-    </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B198" s="5"/>
-      <c r="R198" s="2"/>
-    </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B199" s="5"/>
-      <c r="R199" s="2"/>
-    </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B200" s="5"/>
-      <c r="R200" s="2"/>
-    </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B201" s="5"/>
-      <c r="R201" s="2"/>
-    </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B202" s="5"/>
-      <c r="R202" s="2"/>
-    </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B203" s="5"/>
-      <c r="R203" s="2"/>
-    </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B204" s="5"/>
-      <c r="R204" s="2"/>
-    </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B205" s="5"/>
-      <c r="R205" s="2"/>
-    </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B206" s="5"/>
-      <c r="R206" s="2"/>
-    </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B207" s="5"/>
-      <c r="R207" s="2"/>
-    </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B208" s="5"/>
-      <c r="R208" s="2"/>
-    </row>
-    <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="5"/>
-      <c r="R209" s="2"/>
-    </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="5"/>
-      <c r="R210" s="2"/>
-    </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B211" s="5"/>
-      <c r="R211" s="2"/>
-    </row>
-    <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B212" s="5"/>
-      <c r="R212" s="2"/>
-    </row>
-    <row r="213" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B213" s="5"/>
-      <c r="R213" s="2"/>
-    </row>
-    <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="5"/>
-      <c r="R214" s="2"/>
-    </row>
-    <row r="215" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B215" s="5"/>
-      <c r="R215" s="2"/>
-    </row>
-    <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="5"/>
-      <c r="R216" s="2"/>
-    </row>
-    <row r="217" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B217" s="5"/>
-      <c r="R217" s="2"/>
-    </row>
-    <row r="218" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B218" s="5"/>
-      <c r="R218" s="2"/>
-    </row>
-    <row r="219" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B219" s="5"/>
-      <c r="R219" s="2"/>
-    </row>
-    <row r="220" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B220" s="5"/>
-      <c r="R220" s="2"/>
-    </row>
-    <row r="221" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B221" s="5"/>
-      <c r="R221" s="2"/>
-    </row>
-    <row r="222" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B222" s="5"/>
-      <c r="R222" s="2"/>
-    </row>
-    <row r="223" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B223" s="5"/>
-      <c r="R223" s="2"/>
-    </row>
-    <row r="224" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B224" s="5"/>
-      <c r="R224" s="2"/>
-    </row>
-    <row r="225" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B225" s="5"/>
-      <c r="R225" s="2"/>
-    </row>
-    <row r="226" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B226" s="5"/>
-      <c r="R226" s="2"/>
-    </row>
-    <row r="227" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B227" s="5"/>
-      <c r="R227" s="2"/>
-    </row>
-    <row r="228" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B228" s="5"/>
-      <c r="R228" s="2"/>
-    </row>
-    <row r="229" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B229" s="5"/>
-      <c r="R229" s="2"/>
-    </row>
-    <row r="230" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B230" s="5"/>
-      <c r="R230" s="2"/>
-    </row>
-    <row r="231" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B231" s="5"/>
-      <c r="R231" s="2"/>
-    </row>
-    <row r="232" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B232" s="5"/>
-      <c r="R232" s="2"/>
-    </row>
-    <row r="233" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B233" s="5"/>
-      <c r="R233" s="2"/>
-    </row>
-    <row r="234" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B234" s="5"/>
-      <c r="R234" s="2"/>
-    </row>
-    <row r="235" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B235" s="5"/>
-      <c r="R235" s="2"/>
-    </row>
-    <row r="236" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B236" s="5"/>
-      <c r="R236" s="2"/>
-    </row>
-    <row r="237" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B237" s="5"/>
-      <c r="R237" s="2"/>
-    </row>
-    <row r="238" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B238" s="5"/>
-      <c r="R238" s="2"/>
-    </row>
-    <row r="239" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B239" s="5"/>
-      <c r="R239" s="2"/>
-    </row>
-    <row r="240" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B240" s="5"/>
-      <c r="R240" s="2"/>
-    </row>
-    <row r="241" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B241" s="5"/>
-      <c r="R241" s="2"/>
-    </row>
-    <row r="242" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B242" s="5"/>
-      <c r="R242" s="2"/>
-    </row>
-    <row r="243" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B243" s="5"/>
-      <c r="R243" s="2"/>
-    </row>
-    <row r="244" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B244" s="5"/>
-      <c r="R244" s="2"/>
-    </row>
-    <row r="245" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B245" s="5"/>
-      <c r="R245" s="2"/>
-    </row>
-    <row r="246" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B246" s="5"/>
-      <c r="R246" s="2"/>
-    </row>
-    <row r="247" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B247" s="5"/>
-      <c r="R247" s="2"/>
-    </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B248" s="5"/>
-      <c r="R248" s="2"/>
-    </row>
-    <row r="249" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B249" s="5"/>
-      <c r="R249" s="2"/>
-    </row>
-    <row r="250" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B250" s="5"/>
-      <c r="R250" s="2"/>
-    </row>
-    <row r="251" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B251" s="5"/>
-      <c r="R251" s="2"/>
-    </row>
-    <row r="252" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B252" s="5"/>
-      <c r="R252" s="2"/>
-    </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B253" s="5"/>
-      <c r="R253" s="2"/>
-    </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B254" s="5"/>
-      <c r="R254" s="2"/>
-    </row>
-    <row r="255" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B255" s="5"/>
-      <c r="R255" s="2"/>
-    </row>
-    <row r="256" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B256" s="5"/>
-      <c r="R256" s="2"/>
-    </row>
-    <row r="257" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B257" s="5"/>
-      <c r="R257" s="2"/>
-    </row>
-    <row r="258" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B258" s="5"/>
-      <c r="R258" s="2"/>
-    </row>
-    <row r="259" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B259" s="5"/>
-      <c r="R259" s="2"/>
-    </row>
-    <row r="260" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B260" s="5"/>
-      <c r="R260" s="2"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4" t="s">
+        <v>754</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10839,9 +10544,9 @@
     <hyperlink ref="H6" r:id="rId2"/>
     <hyperlink ref="H17" r:id="rId3" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
     <hyperlink ref="H19" r:id="rId4"/>
-    <hyperlink ref="H87" r:id="rId5"/>
-    <hyperlink ref="H99" r:id="rId6"/>
-    <hyperlink ref="N58" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
+    <hyperlink ref="H88" r:id="rId5"/>
+    <hyperlink ref="H100" r:id="rId6"/>
+    <hyperlink ref="N59" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
     <hyperlink ref="C21" r:id="rId8"/>
     <hyperlink ref="D21" r:id="rId9"/>
     <hyperlink ref="C22" r:id="rId10"/>
@@ -10853,89 +10558,91 @@
     <hyperlink ref="D8" r:id="rId16" display="http://ns.adobe.com/xap/1.0/rights/Owner"/>
     <hyperlink ref="C9" r:id="rId17" display="http://ns.adobe.com/xap/1.0/rights"/>
     <hyperlink ref="D9" r:id="rId18" display="http://ns.adobe.com/xap/1.0/rights/WebStatement"/>
-    <hyperlink ref="C132" r:id="rId19"/>
-    <hyperlink ref="D132" r:id="rId20"/>
-    <hyperlink ref="C133" r:id="rId21"/>
-    <hyperlink ref="D133" r:id="rId22"/>
-    <hyperlink ref="C134" r:id="rId23"/>
-    <hyperlink ref="D134" r:id="rId24"/>
-    <hyperlink ref="C136" r:id="rId25"/>
-    <hyperlink ref="D136" r:id="rId26"/>
-    <hyperlink ref="C137" r:id="rId27"/>
-    <hyperlink ref="D137" r:id="rId28"/>
-    <hyperlink ref="C138" r:id="rId29"/>
-    <hyperlink ref="D138" r:id="rId30"/>
-    <hyperlink ref="C139" r:id="rId31"/>
-    <hyperlink ref="D139" r:id="rId32"/>
-    <hyperlink ref="C142" r:id="rId33"/>
-    <hyperlink ref="C140" r:id="rId34"/>
-    <hyperlink ref="D140" r:id="rId35"/>
-    <hyperlink ref="C141" r:id="rId36"/>
-    <hyperlink ref="D141" r:id="rId37"/>
-    <hyperlink ref="D142" r:id="rId38"/>
-    <hyperlink ref="C143" r:id="rId39"/>
-    <hyperlink ref="D143" r:id="rId40"/>
-    <hyperlink ref="C144" r:id="rId41"/>
-    <hyperlink ref="D144" r:id="rId42"/>
-    <hyperlink ref="C145" r:id="rId43"/>
-    <hyperlink ref="D145" r:id="rId44"/>
-    <hyperlink ref="C146" r:id="rId45"/>
-    <hyperlink ref="D146" r:id="rId46"/>
+    <hyperlink ref="C133" r:id="rId19"/>
+    <hyperlink ref="D133" r:id="rId20"/>
+    <hyperlink ref="C134" r:id="rId21"/>
+    <hyperlink ref="D134" r:id="rId22"/>
+    <hyperlink ref="C135" r:id="rId23"/>
+    <hyperlink ref="D135" r:id="rId24"/>
+    <hyperlink ref="C137" r:id="rId25"/>
+    <hyperlink ref="D137" r:id="rId26"/>
+    <hyperlink ref="C138" r:id="rId27"/>
+    <hyperlink ref="D138" r:id="rId28"/>
+    <hyperlink ref="C139" r:id="rId29"/>
+    <hyperlink ref="D139" r:id="rId30"/>
+    <hyperlink ref="C140" r:id="rId31"/>
+    <hyperlink ref="D140" r:id="rId32"/>
+    <hyperlink ref="C143" r:id="rId33"/>
+    <hyperlink ref="C141" r:id="rId34"/>
+    <hyperlink ref="D141" r:id="rId35"/>
+    <hyperlink ref="C142" r:id="rId36"/>
+    <hyperlink ref="D142" r:id="rId37"/>
+    <hyperlink ref="D143" r:id="rId38"/>
+    <hyperlink ref="C144" r:id="rId39"/>
+    <hyperlink ref="D144" r:id="rId40"/>
+    <hyperlink ref="C145" r:id="rId41"/>
+    <hyperlink ref="D145" r:id="rId42"/>
+    <hyperlink ref="C146" r:id="rId43"/>
+    <hyperlink ref="D146" r:id="rId44"/>
+    <hyperlink ref="C147" r:id="rId45"/>
+    <hyperlink ref="D147" r:id="rId46"/>
     <hyperlink ref="H14" r:id="rId47" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
-    <hyperlink ref="L140" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
+    <hyperlink ref="L141" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
     <hyperlink ref="D18" r:id="rId49"/>
-    <hyperlink ref="C147" r:id="rId50"/>
-    <hyperlink ref="D147" r:id="rId51"/>
-    <hyperlink ref="C148" r:id="rId52"/>
-    <hyperlink ref="D148" r:id="rId53"/>
-    <hyperlink ref="D149" r:id="rId54"/>
-    <hyperlink ref="C149" r:id="rId55"/>
-    <hyperlink ref="C150" r:id="rId56"/>
-    <hyperlink ref="D150" r:id="rId57"/>
-    <hyperlink ref="D151" r:id="rId58"/>
-    <hyperlink ref="C151" r:id="rId59"/>
-    <hyperlink ref="C152" r:id="rId60"/>
-    <hyperlink ref="D152" r:id="rId61"/>
-    <hyperlink ref="D153" r:id="rId62"/>
-    <hyperlink ref="C153" r:id="rId63"/>
-    <hyperlink ref="C158" r:id="rId64"/>
-    <hyperlink ref="D156" r:id="rId65"/>
-    <hyperlink ref="C156" r:id="rId66"/>
-    <hyperlink ref="D158" r:id="rId67"/>
-    <hyperlink ref="D157" r:id="rId68"/>
-    <hyperlink ref="C157" r:id="rId69"/>
-    <hyperlink ref="D155" r:id="rId70"/>
-    <hyperlink ref="C155" r:id="rId71"/>
-    <hyperlink ref="D154" r:id="rId72"/>
-    <hyperlink ref="C154" r:id="rId73"/>
-    <hyperlink ref="D159" r:id="rId74"/>
-    <hyperlink ref="C159" r:id="rId75"/>
-    <hyperlink ref="D160" r:id="rId76"/>
-    <hyperlink ref="C160" r:id="rId77"/>
-    <hyperlink ref="D161" r:id="rId78"/>
-    <hyperlink ref="C161" r:id="rId79"/>
-    <hyperlink ref="C162" r:id="rId80"/>
-    <hyperlink ref="D162" r:id="rId81"/>
-    <hyperlink ref="C163" r:id="rId82"/>
-    <hyperlink ref="D163" r:id="rId83"/>
-    <hyperlink ref="D96" r:id="rId84"/>
-    <hyperlink ref="C96" r:id="rId85"/>
-    <hyperlink ref="C164" r:id="rId86"/>
-    <hyperlink ref="D164" r:id="rId87"/>
-    <hyperlink ref="C165" r:id="rId88"/>
-    <hyperlink ref="D165" r:id="rId89"/>
-    <hyperlink ref="D166" r:id="rId90"/>
-    <hyperlink ref="C166" r:id="rId91"/>
-    <hyperlink ref="C167" r:id="rId92"/>
-    <hyperlink ref="D167" r:id="rId93"/>
-    <hyperlink ref="C168" r:id="rId94"/>
-    <hyperlink ref="D168" r:id="rId95"/>
-    <hyperlink ref="C169" r:id="rId96"/>
-    <hyperlink ref="D169" r:id="rId97"/>
-    <hyperlink ref="C170" r:id="rId98"/>
-    <hyperlink ref="D170" r:id="rId99"/>
+    <hyperlink ref="C148" r:id="rId50"/>
+    <hyperlink ref="D148" r:id="rId51"/>
+    <hyperlink ref="C149" r:id="rId52"/>
+    <hyperlink ref="D149" r:id="rId53"/>
+    <hyperlink ref="D150" r:id="rId54"/>
+    <hyperlink ref="C150" r:id="rId55"/>
+    <hyperlink ref="C151" r:id="rId56"/>
+    <hyperlink ref="D151" r:id="rId57"/>
+    <hyperlink ref="D152" r:id="rId58"/>
+    <hyperlink ref="C152" r:id="rId59"/>
+    <hyperlink ref="C153" r:id="rId60"/>
+    <hyperlink ref="D153" r:id="rId61"/>
+    <hyperlink ref="D154" r:id="rId62"/>
+    <hyperlink ref="C154" r:id="rId63"/>
+    <hyperlink ref="C159" r:id="rId64"/>
+    <hyperlink ref="D157" r:id="rId65"/>
+    <hyperlink ref="C157" r:id="rId66"/>
+    <hyperlink ref="D159" r:id="rId67"/>
+    <hyperlink ref="D158" r:id="rId68"/>
+    <hyperlink ref="C158" r:id="rId69"/>
+    <hyperlink ref="D156" r:id="rId70"/>
+    <hyperlink ref="C156" r:id="rId71"/>
+    <hyperlink ref="D155" r:id="rId72"/>
+    <hyperlink ref="C155" r:id="rId73"/>
+    <hyperlink ref="D160" r:id="rId74"/>
+    <hyperlink ref="C160" r:id="rId75"/>
+    <hyperlink ref="D161" r:id="rId76"/>
+    <hyperlink ref="C161" r:id="rId77"/>
+    <hyperlink ref="D162" r:id="rId78"/>
+    <hyperlink ref="C162" r:id="rId79"/>
+    <hyperlink ref="C163" r:id="rId80"/>
+    <hyperlink ref="D163" r:id="rId81"/>
+    <hyperlink ref="C164" r:id="rId82"/>
+    <hyperlink ref="D164" r:id="rId83"/>
+    <hyperlink ref="D97" r:id="rId84"/>
+    <hyperlink ref="C97" r:id="rId85"/>
+    <hyperlink ref="C165" r:id="rId86"/>
+    <hyperlink ref="D165" r:id="rId87"/>
+    <hyperlink ref="C166" r:id="rId88"/>
+    <hyperlink ref="D166" r:id="rId89"/>
+    <hyperlink ref="D167" r:id="rId90"/>
+    <hyperlink ref="C167" r:id="rId91"/>
+    <hyperlink ref="C168" r:id="rId92"/>
+    <hyperlink ref="D168" r:id="rId93"/>
+    <hyperlink ref="C169" r:id="rId94"/>
+    <hyperlink ref="D169" r:id="rId95"/>
+    <hyperlink ref="C170" r:id="rId96"/>
+    <hyperlink ref="D170" r:id="rId97"/>
+    <hyperlink ref="C171" r:id="rId98"/>
+    <hyperlink ref="D171" r:id="rId99"/>
+    <hyperlink ref="L114" r:id="rId100"/>
+    <hyperlink ref="L101" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
 </worksheet>
 </file>
--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\hispid-review-2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\hispid-review-2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="HISPID2015" sheetId="1" r:id="rId1"/>
+    <sheet name="Classes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="787">
   <si>
     <t>group</t>
   </si>
@@ -1582,9 +1583,6 @@
     <t>//Units/Unit/Sex</t>
   </si>
   <si>
-    <t>http://rs.tdwg.org/ac/terms</t>
-  </si>
-  <si>
     <t>"http://id.loc.gov/vocabulary/iso639-2/eng"</t>
   </si>
   <si>
@@ -1603,9 +1601,6 @@
     <t>dcterms:language</t>
   </si>
   <si>
-    <t>For multimedia objects dcterms:language strictly speaking is the language of the resource. Audobon Core has a separate element, http://rs.tdwg.org/ac/terms/metadataLanguage, to transfer the language of the metadata.</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -1651,15 +1646,9 @@
     <t>http://purl.org/dc/elements/1.1/creator</t>
   </si>
   <si>
-    <t>http://purl.org/dc/elements/1.1</t>
-  </si>
-  <si>
     <t>http://ns.adobe.com/xap/1.0/CreateDate</t>
   </si>
   <si>
-    <t>http://ns.adobe.com/xap/1.0</t>
-  </si>
-  <si>
     <t>http://rs.tdwg.org/ac/terms/digitizationDate</t>
   </si>
   <si>
@@ -1681,9 +1670,6 @@
     <t>http://rs.tdwg.org/ac/terms/physicalSetting</t>
   </si>
   <si>
-    <t>http://iptc.org/std/Iptc4xmpExt/2008-02-29</t>
-  </si>
-  <si>
     <t>http://iptc.org/std/Iptc4xmpExt/2008-02-29/Cvterm</t>
   </si>
   <si>
@@ -1969,9 +1955,6 @@
     <t>Information about rights held in and over the resource.</t>
   </si>
   <si>
-    <t>This definition maps more closely to xmprights:Owner  than dc:rightsHolder.  This mapping may be incorrect</t>
-  </si>
-  <si>
     <t>xmpRights:Owner</t>
   </si>
   <si>
@@ -1984,9 +1967,6 @@
     <t>xmpRights:WebStatement</t>
   </si>
   <si>
-    <t>this defintion matches with the Audubon Core field which is restricted to a URL, but not necessarily to the dc field, which is potentially permits more than a URL - this mapping to dc therefore needs to be reviewed</t>
-  </si>
-  <si>
     <t>licenseTerms</t>
   </si>
   <si>
@@ -2044,9 +2024,6 @@
     <t>http://ns.adobe.com/photoshop/1.0/Credit</t>
   </si>
   <si>
-    <t>http://ns.adobe.com/photoshop/1.0</t>
-  </si>
-  <si>
     <t>http://ns.adobe.com/xap/1.0/rights/WebStatement</t>
   </si>
   <si>
@@ -2062,9 +2039,6 @@
     <t>A URL providing access to a logo that symbolizes the License.</t>
   </si>
   <si>
-    <t>free text for "Please cite this as…"</t>
-  </si>
-  <si>
     <t>The URL of the icon or logo image to appear in source attribution.</t>
   </si>
   <si>
@@ -2311,17 +2285,116 @@
     <t>The collecting trip or expedition where the specimen was collected</t>
   </si>
   <si>
-    <t>CollectionObject</t>
-  </si>
-  <si>
     <t>https://github.com/hiscom/hispid/issues/66</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/Occurrence</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/Event</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/Location</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/Identification</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/Taxon</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/PreservedSpecimen</t>
+  </si>
+  <si>
+    <t>http://hiscom.chah.org.au/hispid/terms/Transaction</t>
+  </si>
+  <si>
+    <t>http://hiscom.chah.org.au/hispid/terms/Permit</t>
+  </si>
+  <si>
+    <t>http://hiscom.chah.org.au/hispid/terms/MediaItem</t>
+  </si>
+  <si>
+    <t>http://hiscom.chah.org.au/hispid/terms</t>
+  </si>
+  <si>
+    <t>PreservedSpecimen</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>An existence of an Organism (sensu http://rs.tdwg.org/dwc/terms/Organism) at a particular place at a particular time.</t>
+  </si>
+  <si>
+    <t>A specimen that has been preserved.</t>
+  </si>
+  <si>
+    <t>An action that occurs at some location during some time.</t>
+  </si>
+  <si>
+    <t>A spatial region or named place.</t>
+  </si>
+  <si>
+    <t>A taxonomic determination (e.g., the assignment to a taxon).</t>
+  </si>
+  <si>
+    <t>A group of organisms (sensu http://purl.obolibrary.org/obo/OBI_0100026) considered by taxonomists to form a homogeneous unit.</t>
+  </si>
+  <si>
+    <t>An interaction between two herbaria, e.g. loan or exchange.</t>
+  </si>
+  <si>
+    <t>An image or other digital resource.</t>
+  </si>
+  <si>
+    <t>A document or certificate giving permission to do something, e.g. collecting.</t>
+  </si>
+  <si>
+    <t>Attribution statement</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/xap/1.0/</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ac/terms/</t>
+  </si>
+  <si>
+    <t>http://iptc.org/std/Iptc4xmpExt/2008-02-29/</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/xap/1.0/rights/</t>
+  </si>
+  <si>
+    <t>For multimedia objects dcterms:language strictly speaking is the language of the resource. Audubon Core has a separate element, ac:metadataLanguage, to transfer the language of the metadata.</t>
+  </si>
+  <si>
+    <t>http://ns.adobe.com/photoshop/1.0/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2482,6 +2555,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2848,7 +2927,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2890,6 +2969,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3212,18 +3301,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R171"/>
+  <dimension ref="A1:T171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L102" sqref="L102"/>
+      <selection pane="bottomRight" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66" style="2" bestFit="1" customWidth="1"/>
@@ -3231,18 +3320,20 @@
     <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="50.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="52" style="2" customWidth="1"/>
     <col min="10" max="10" width="67.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="30.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="65.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="87.85546875" style="2" customWidth="1"/>
-    <col min="15" max="16" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="53" style="2" customWidth="1"/>
     <col min="18" max="18" width="49.5703125" customWidth="1"/>
+    <col min="19" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3295,10 +3386,16 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -3306,8 +3403,8 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/institutionCode")</f>
@@ -3343,8 +3440,14 @@
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T2" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -3352,8 +3455,8 @@
         <v>24</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/collectionCode")</f>
@@ -3368,10 +3471,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>22</v>
@@ -3387,8 +3490,14 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S3" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T3" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3396,8 +3505,8 @@
         <v>26</v>
       </c>
       <c r="C4" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/terms")</f>
-        <v>http://purl.org/dc/terms</v>
+        <f>HYPERLINK("http://purl.org/dc/terms/")</f>
+        <v>http://purl.org/dc/terms/</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/modified")</f>
@@ -3435,10 +3544,16 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+      <c r="S4" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T4" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -3446,8 +3561,8 @@
         <v>31</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/basisOfRecord")</f>
@@ -3488,17 +3603,23 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T5" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C6" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/terms")</f>
-        <v>http://purl.org/dc/terms</v>
+        <f>HYPERLINK("http://purl.org/dc/terms/")</f>
+        <v>http://purl.org/dc/terms/</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/type")</f>
@@ -3530,81 +3651,91 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="S6" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T6" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/terms")</f>
-        <v>http://purl.org/dc/terms</v>
+        <f>HYPERLINK("http://purl.org/dc/terms/")</f>
+        <v>http://purl.org/dc/terms/</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/language")</f>
         <v>http://purl.org/dc/terms/language</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>526</v>
+        <v>785</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>267</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="S7" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T7" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C8" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/terms")</f>
-        <v>http://purl.org/dc/terms</v>
+        <f>HYPERLINK("http://purl.org/dc/terms/")</f>
+        <v>http://purl.org/dc/terms/</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/rightsHolder")</f>
         <v>http://purl.org/dc/terms/rightsHolder</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>648</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
         <v>267</v>
@@ -3616,37 +3747,41 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+      <c r="S8" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T8" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C9" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/terms")</f>
-        <v>http://purl.org/dc/terms</v>
+        <f>HYPERLINK("http://purl.org/dc/terms/")</f>
+        <v>http://purl.org/dc/terms/</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/license")</f>
         <v>http://purl.org/dc/terms/license</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>653</v>
-      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="8" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>267</v>
@@ -3658,10 +3793,16 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="S9" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T9" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -3669,8 +3810,8 @@
         <v>41</v>
       </c>
       <c r="C10" s="6" t="str">
-        <f t="shared" ref="C10:C19" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" ref="C10:C19" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceID")</f>
@@ -3705,8 +3846,14 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T10" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -3715,7 +3862,7 @@
       </c>
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D11" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/catalogNumber")</f>
@@ -3751,8 +3898,14 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="S11" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T11" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -3761,7 +3914,7 @@
       </c>
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D12" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordedBy")</f>
@@ -3778,7 +3931,7 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="9" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>51</v>
@@ -3804,8 +3957,14 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T12" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -3814,7 +3973,7 @@
       </c>
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordNumber")</f>
@@ -3848,8 +4007,14 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S13" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T13" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -3858,14 +4023,14 @@
       </c>
       <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D14" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/preparations")</f>
         <v>http://rs.tdwg.org/dwc/terms/preparations</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>20</v>
@@ -3877,7 +4042,7 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>22</v>
@@ -3900,10 +4065,16 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="S14" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T14" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
@@ -3912,7 +4083,7 @@
       </c>
       <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/otherCatalogNumbers")</f>
@@ -3929,7 +4100,7 @@
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="9" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
@@ -3950,8 +4121,14 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="S15" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T15" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
@@ -3960,7 +4137,7 @@
       </c>
       <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceRemarks")</f>
@@ -3999,8 +4176,14 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="S16" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T16" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -4009,7 +4192,7 @@
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/organismQuantity")</f>
@@ -4022,20 +4205,20 @@
         <v>20</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H17" s="6" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L17" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
@@ -4057,23 +4240,29 @@
         <v>455</v>
       </c>
       <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="S17" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T17" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>20</v>
@@ -4082,25 +4271,31 @@
       <c r="H18" s="6"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L18" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
         <v>https://github.com/hiscom/hispid/issues/22</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S18" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T18" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -4109,7 +4304,7 @@
       </c>
       <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D19" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/establishmentMeans")</f>
@@ -4146,10 +4341,18 @@
       <c r="P19" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S19" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T19" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
@@ -4157,8 +4360,8 @@
         <v>73</v>
       </c>
       <c r="C20" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D20" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/lifeForm")</f>
@@ -4193,8 +4396,14 @@
         <v>456</v>
       </c>
       <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T20" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -4202,7 +4411,7 @@
         <v>507</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>508</v>
+        <v>778</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>509</v>
@@ -4235,10 +4444,16 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+      <c r="S21" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T21" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -4246,7 +4461,7 @@
         <v>515</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>508</v>
+        <v>778</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>516</v>
@@ -4278,10 +4493,16 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+      <c r="S22" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T22" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -4289,8 +4510,8 @@
         <v>77</v>
       </c>
       <c r="C23" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D23" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/reproductiveCondition")</f>
@@ -4334,8 +4555,14 @@
         <v>453</v>
       </c>
       <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="S23" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T23" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -4343,8 +4570,8 @@
         <v>81</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D24" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedTaxa")</f>
@@ -4385,8 +4612,14 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S24" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T24" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -4394,8 +4627,8 @@
         <v>85</v>
       </c>
       <c r="C25" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D25" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationType")</f>
@@ -4429,8 +4662,14 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S25" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T25" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -4438,8 +4677,8 @@
         <v>88</v>
       </c>
       <c r="C26" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D26" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationTaxon")</f>
@@ -4467,8 +4706,14 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T26" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
@@ -4476,8 +4721,8 @@
         <v>91</v>
       </c>
       <c r="C27" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D27" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
@@ -4510,8 +4755,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S27" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T27" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -4519,8 +4770,8 @@
         <v>511</v>
       </c>
       <c r="C28" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D28" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/disposition")</f>
@@ -4551,8 +4802,14 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S28" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T28" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>94</v>
       </c>
@@ -4560,8 +4817,8 @@
         <v>95</v>
       </c>
       <c r="C29" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D29" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/habitat")</f>
@@ -4598,8 +4855,14 @@
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S29" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T29" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
@@ -4607,8 +4870,8 @@
         <v>99</v>
       </c>
       <c r="C30" s="6" t="str">
-        <f t="shared" ref="C30:C35" si="1">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" ref="C30:C35" si="1">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D30" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/topography")</f>
@@ -4643,8 +4906,14 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S30" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T30" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>94</v>
       </c>
@@ -4653,7 +4922,7 @@
       </c>
       <c r="C31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D31" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
@@ -4688,8 +4957,14 @@
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S31" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T31" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
@@ -4698,7 +4973,7 @@
       </c>
       <c r="C32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D32" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
@@ -4735,8 +5010,14 @@
         <v>460</v>
       </c>
       <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S32" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T32" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>94</v>
       </c>
@@ -4745,7 +5026,7 @@
       </c>
       <c r="C33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D33" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
@@ -4776,8 +5057,14 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S33" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T33" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>94</v>
       </c>
@@ -4786,7 +5073,7 @@
       </c>
       <c r="C34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D34" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
@@ -4823,8 +5110,14 @@
         <v>461</v>
       </c>
       <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S34" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T34" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>94</v>
       </c>
@@ -4833,7 +5126,7 @@
       </c>
       <c r="C35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D35" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
@@ -4870,8 +5163,14 @@
         <v>462</v>
       </c>
       <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T35" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
@@ -4879,15 +5178,15 @@
         <v>121</v>
       </c>
       <c r="C36" s="6" t="str">
-        <f t="shared" ref="C36:C64" si="2">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D36" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventDate")</f>
         <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>122</v>
@@ -4918,10 +5217,16 @@
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="S36" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T36" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>94</v>
       </c>
@@ -4929,8 +5234,8 @@
         <v>125</v>
       </c>
       <c r="C37" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D37" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimEventDate")</f>
@@ -4964,24 +5269,30 @@
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T37" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f t="shared" ref="C38" si="3">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D38" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/collectingTrip")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/collectingTrip</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>20</v>
@@ -5001,8 +5312,14 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T38" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>129</v>
       </c>
@@ -5010,8 +5327,8 @@
         <v>130</v>
       </c>
       <c r="C39" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" ref="C39:C64" si="2">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D39" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
@@ -5045,8 +5362,14 @@
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="S39" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T39" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>129</v>
       </c>
@@ -5055,7 +5378,7 @@
       </c>
       <c r="C40" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D40" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
@@ -5091,10 +5414,16 @@
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+      <c r="S40" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T40" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>129</v>
       </c>
@@ -5103,7 +5432,7 @@
       </c>
       <c r="C41" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D41" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
@@ -5135,8 +5464,14 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S41" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T41" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>129</v>
       </c>
@@ -5145,7 +5480,7 @@
       </c>
       <c r="C42" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D42" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
@@ -5160,7 +5495,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="13" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>143</v>
@@ -5183,10 +5518,16 @@
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="S42" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T42" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>129</v>
       </c>
@@ -5195,7 +5536,7 @@
       </c>
       <c r="C43" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D43" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
@@ -5233,10 +5574,16 @@
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+      <c r="S43" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T43" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>129</v>
       </c>
@@ -5245,7 +5592,7 @@
       </c>
       <c r="C44" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D44" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
@@ -5283,10 +5630,16 @@
         <v>465</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+      <c r="S44" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T44" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>129</v>
       </c>
@@ -5295,7 +5648,7 @@
       </c>
       <c r="C45" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D45" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
@@ -5331,8 +5684,14 @@
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T45" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>129</v>
       </c>
@@ -5341,7 +5700,7 @@
       </c>
       <c r="C46" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D46" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
@@ -5376,8 +5735,14 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T46" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>129</v>
       </c>
@@ -5386,7 +5751,7 @@
       </c>
       <c r="C47" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D47" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
@@ -5421,8 +5786,14 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T47" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>129</v>
       </c>
@@ -5431,7 +5802,7 @@
       </c>
       <c r="C48" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D48" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
@@ -5466,8 +5837,14 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T48" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>129</v>
       </c>
@@ -5476,7 +5853,7 @@
       </c>
       <c r="C49" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D49" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
@@ -5508,8 +5885,14 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T49" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>129</v>
       </c>
@@ -5518,7 +5901,7 @@
       </c>
       <c r="C50" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D50" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
@@ -5550,8 +5933,14 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S50" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T50" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>129</v>
       </c>
@@ -5560,7 +5949,7 @@
       </c>
       <c r="C51" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D51" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
@@ -5592,12 +5981,18 @@
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="S51" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T51" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
@@ -5606,7 +6001,7 @@
       </c>
       <c r="C52" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D52" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
@@ -5644,8 +6039,14 @@
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="S52" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T52" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>129</v>
       </c>
@@ -5654,7 +6055,7 @@
       </c>
       <c r="C53" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D53" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
@@ -5692,8 +6093,14 @@
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="S53" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T53" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>129</v>
       </c>
@@ -5702,7 +6109,7 @@
       </c>
       <c r="C54" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D54" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
@@ -5738,8 +6145,14 @@
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S54" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T54" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>129</v>
       </c>
@@ -5748,7 +6161,7 @@
       </c>
       <c r="C55" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D55" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
@@ -5769,7 +6182,7 @@
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>504</v>
@@ -5783,8 +6196,14 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="S55" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T55" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>129</v>
       </c>
@@ -5793,7 +6212,7 @@
       </c>
       <c r="C56" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D56" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
@@ -5829,8 +6248,14 @@
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S56" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T56" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>129</v>
       </c>
@@ -5839,7 +6264,7 @@
       </c>
       <c r="C57" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D57" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
@@ -5869,8 +6294,14 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="S57" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T57" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>129</v>
       </c>
@@ -5879,7 +6310,7 @@
       </c>
       <c r="C58" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D58" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
@@ -5915,8 +6346,14 @@
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S58" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T58" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>129</v>
       </c>
@@ -5925,7 +6362,7 @@
       </c>
       <c r="C59" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D59" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
@@ -5964,8 +6401,14 @@
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S59" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T59" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>129</v>
       </c>
@@ -5974,7 +6417,7 @@
       </c>
       <c r="C60" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D60" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
@@ -6013,8 +6456,14 @@
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S60" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T60" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>129</v>
       </c>
@@ -6023,14 +6472,14 @@
       </c>
       <c r="C61" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D61" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
         <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>20</v>
@@ -6055,8 +6504,14 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S61" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T61" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>129</v>
       </c>
@@ -6065,14 +6520,14 @@
       </c>
       <c r="C62" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D62" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
         <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>20</v>
@@ -6095,8 +6550,14 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S62" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T62" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>129</v>
       </c>
@@ -6105,7 +6566,7 @@
       </c>
       <c r="C63" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D63" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
@@ -6143,8 +6604,14 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S63" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T63" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
@@ -6153,7 +6620,7 @@
       </c>
       <c r="C64" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D64" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceRemarks")</f>
@@ -6183,8 +6650,14 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="S64" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T64" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -6192,8 +6665,8 @@
         <v>240</v>
       </c>
       <c r="C65" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D65" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace")</f>
@@ -6227,8 +6700,14 @@
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S65" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T65" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>129</v>
       </c>
@@ -6236,8 +6715,8 @@
         <v>243</v>
       </c>
       <c r="C66" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D66" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
@@ -6271,8 +6750,14 @@
       </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S66" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T66" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>129</v>
       </c>
@@ -6280,8 +6765,8 @@
         <v>247</v>
       </c>
       <c r="C67" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D67" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
@@ -6315,8 +6800,14 @@
       </c>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T67" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>129</v>
       </c>
@@ -6324,8 +6815,8 @@
         <v>250</v>
       </c>
       <c r="C68" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D68" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
@@ -6355,8 +6846,14 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S68" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T68" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>129</v>
       </c>
@@ -6364,8 +6861,8 @@
         <v>253</v>
       </c>
       <c r="C69" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D69" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
@@ -6398,8 +6895,14 @@
       </c>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S69" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T69" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>129</v>
       </c>
@@ -6407,8 +6910,8 @@
         <v>256</v>
       </c>
       <c r="C70" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D70" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
@@ -6442,8 +6945,14 @@
       </c>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S70" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T70" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>129</v>
       </c>
@@ -6451,8 +6960,8 @@
         <v>260</v>
       </c>
       <c r="C71" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D71" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
@@ -6486,8 +6995,14 @@
       </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T71" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>129</v>
       </c>
@@ -6495,8 +7010,8 @@
         <v>264</v>
       </c>
       <c r="C72" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D72" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
@@ -6526,8 +7041,14 @@
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T72" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>268</v>
       </c>
@@ -6535,8 +7056,8 @@
         <v>269</v>
       </c>
       <c r="C73" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D73" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
@@ -6569,8 +7090,14 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="S73" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T73" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>268</v>
       </c>
@@ -6578,8 +7105,8 @@
         <v>272</v>
       </c>
       <c r="C74" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D74" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
@@ -6613,10 +7140,16 @@
       </c>
       <c r="Q74" s="4"/>
       <c r="R74" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="S74" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T74" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>268</v>
       </c>
@@ -6624,8 +7157,8 @@
         <v>276</v>
       </c>
       <c r="C75" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D75" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
@@ -6657,8 +7190,14 @@
       </c>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S75" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T75" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>268</v>
       </c>
@@ -6666,8 +7205,8 @@
         <v>279</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D76" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
@@ -6702,8 +7241,14 @@
       </c>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-    </row>
-    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S76" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T76" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>268</v>
       </c>
@@ -6711,15 +7256,15 @@
         <v>283</v>
       </c>
       <c r="C77" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D77" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
         <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>20</v>
@@ -6749,8 +7294,14 @@
       </c>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S77" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T77" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>268</v>
       </c>
@@ -6758,8 +7309,8 @@
         <v>285</v>
       </c>
       <c r="C78" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D78" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
@@ -6797,8 +7348,14 @@
       </c>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T78" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>268</v>
       </c>
@@ -6806,8 +7363,8 @@
         <v>288</v>
       </c>
       <c r="C79" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D79" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
@@ -6841,10 +7398,16 @@
       </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="4" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+      <c r="S79" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T79" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>268</v>
       </c>
@@ -6852,8 +7415,8 @@
         <v>291</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D80" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
@@ -6887,10 +7450,16 @@
       </c>
       <c r="Q80" s="4"/>
       <c r="R80" s="4" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+      <c r="S80" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T80" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>268</v>
       </c>
@@ -6898,8 +7467,8 @@
         <v>294</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D81" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
@@ -6931,8 +7500,14 @@
       </c>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T81" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>268</v>
       </c>
@@ -6940,8 +7515,8 @@
         <v>298</v>
       </c>
       <c r="C82" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D82" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
@@ -6976,8 +7551,14 @@
       </c>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-    </row>
-    <row r="83" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="S82" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T82" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>268</v>
       </c>
@@ -6985,8 +7566,8 @@
         <v>300</v>
       </c>
       <c r="C83" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D83" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
@@ -7022,8 +7603,14 @@
       </c>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T83" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>268</v>
       </c>
@@ -7031,8 +7618,8 @@
         <v>304</v>
       </c>
       <c r="C84" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D84" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
@@ -7064,8 +7651,14 @@
       </c>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
-    </row>
-    <row r="85" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S84" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T84" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>268</v>
       </c>
@@ -7073,8 +7666,8 @@
         <v>307</v>
       </c>
       <c r="C85" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D85" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
@@ -7109,8 +7702,14 @@
       </c>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
-    </row>
-    <row r="86" spans="1:18" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S85" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T85" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>268</v>
       </c>
@@ -7118,8 +7717,8 @@
         <v>311</v>
       </c>
       <c r="C86" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D86" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
@@ -7161,8 +7760,14 @@
       </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
-    </row>
-    <row r="87" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S86" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T86" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>268</v>
       </c>
@@ -7170,8 +7775,8 @@
         <v>315</v>
       </c>
       <c r="C87" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D87" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
@@ -7203,8 +7808,14 @@
       </c>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T87" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>319</v>
       </c>
@@ -7212,8 +7823,8 @@
         <v>320</v>
       </c>
       <c r="C88" s="6" t="str">
-        <f t="shared" ref="C88:C102" si="4">HYPERLINK("http://rs.tdwg.org/dwc/terms")</f>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" ref="C88:C96" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D88" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
@@ -7245,8 +7856,14 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
-    </row>
-    <row r="89" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S88" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T88" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>319</v>
       </c>
@@ -7254,8 +7871,8 @@
         <v>324</v>
       </c>
       <c r="C89" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D89" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
@@ -7287,8 +7904,14 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S89" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T89" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>319</v>
       </c>
@@ -7296,8 +7919,8 @@
         <v>327</v>
       </c>
       <c r="C90" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D90" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
@@ -7329,8 +7952,14 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S90" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T90" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>319</v>
       </c>
@@ -7338,8 +7967,8 @@
         <v>330</v>
       </c>
       <c r="C91" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D91" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
@@ -7371,8 +8000,14 @@
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-    </row>
-    <row r="92" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S91" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T91" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>319</v>
       </c>
@@ -7380,8 +8015,8 @@
         <v>333</v>
       </c>
       <c r="C92" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D92" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
@@ -7413,8 +8048,14 @@
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-    </row>
-    <row r="93" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S92" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T92" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>319</v>
       </c>
@@ -7422,8 +8063,8 @@
         <v>336</v>
       </c>
       <c r="C93" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D93" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
@@ -7459,8 +8100,14 @@
       </c>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-    </row>
-    <row r="94" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S93" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T93" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>319</v>
       </c>
@@ -7468,8 +8115,8 @@
         <v>340</v>
       </c>
       <c r="C94" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D94" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
@@ -7505,8 +8152,14 @@
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
-    </row>
-    <row r="95" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S94" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T94" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>319</v>
       </c>
@@ -7514,8 +8167,8 @@
         <v>344</v>
       </c>
       <c r="C95" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D95" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
@@ -7549,8 +8202,14 @@
       </c>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-    </row>
-    <row r="96" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S95" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T95" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>319</v>
       </c>
@@ -7558,8 +8217,8 @@
         <v>348</v>
       </c>
       <c r="C96" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D96" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
@@ -7595,22 +8254,28 @@
       </c>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T96" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>508</v>
+        <v>778</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>20</v>
@@ -7624,17 +8289,23 @@
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+      <c r="S97" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T97" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>319</v>
       </c>
@@ -7642,8 +8313,8 @@
         <v>352</v>
       </c>
       <c r="C98" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D98" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
@@ -7679,10 +8350,16 @@
       </c>
       <c r="Q98" s="4"/>
       <c r="R98" s="4" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+      <c r="S98" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T98" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>319</v>
       </c>
@@ -7690,8 +8367,8 @@
         <v>356</v>
       </c>
       <c r="C99" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D99" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
@@ -7729,8 +8406,14 @@
       </c>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
-    </row>
-    <row r="100" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S99" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T99" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>319</v>
       </c>
@@ -7738,8 +8421,8 @@
         <v>359</v>
       </c>
       <c r="C100" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D100" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
@@ -7771,8 +8454,14 @@
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T100" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>319</v>
       </c>
@@ -7780,8 +8469,8 @@
         <v>363</v>
       </c>
       <c r="C101" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D101" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
@@ -7797,7 +8486,7 @@
         <v>267</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>363</v>
@@ -7813,8 +8502,14 @@
       </c>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
-    </row>
-    <row r="102" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="S101" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T101" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>319</v>
       </c>
@@ -7822,8 +8517,8 @@
         <v>365</v>
       </c>
       <c r="C102" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://rs.tdwg.org/dwc/terms</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D102" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
@@ -7857,10 +8552,16 @@
       </c>
       <c r="Q102" s="4"/>
       <c r="R102" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+      <c r="S102" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T102" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>319</v>
       </c>
@@ -7868,8 +8569,8 @@
         <v>368</v>
       </c>
       <c r="C103" s="6" t="str">
-        <f t="shared" ref="C103:C108" si="5">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" ref="C103:C132" si="4">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D103" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
@@ -7903,8 +8604,14 @@
       </c>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
-    </row>
-    <row r="104" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S103" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T103" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>319</v>
       </c>
@@ -7912,8 +8619,8 @@
         <v>372</v>
       </c>
       <c r="C104" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D104" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
@@ -7947,8 +8654,14 @@
       </c>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
-    </row>
-    <row r="105" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S104" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T104" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>319</v>
       </c>
@@ -7956,8 +8669,8 @@
         <v>375</v>
       </c>
       <c r="C105" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D105" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
@@ -7991,24 +8704,30 @@
       </c>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
-    </row>
-    <row r="106" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="S105" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T105" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C106" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D106" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>20</v>
@@ -8016,7 +8735,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
@@ -8036,24 +8755,30 @@
       </c>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T106" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C107" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D107" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>20</v>
@@ -8075,24 +8800,30 @@
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T107" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C108" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D108" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>20</v>
@@ -8118,17 +8849,23 @@
       </c>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T108" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>380</v>
       </c>
       <c r="C109" s="6" t="str">
-        <f t="shared" ref="C109:C132" si="6">HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D109" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
@@ -8163,24 +8900,30 @@
       </c>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T109" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C110" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D110" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8191,7 +8934,7 @@
         <v>504</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -8199,24 +8942,30 @@
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T110" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C111" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D111" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8227,7 +8976,7 @@
         <v>504</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -8235,24 +8984,30 @@
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T111" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C112" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D112" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -8263,7 +9018,7 @@
         <v>504</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -8271,24 +9026,30 @@
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
-    </row>
-    <row r="113" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S112" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T112" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C113" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D113" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>20</v>
@@ -8316,17 +9077,23 @@
       </c>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
-    </row>
-    <row r="114" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S113" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T113" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>385</v>
       </c>
       <c r="C114" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D114" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
@@ -8351,7 +9118,7 @@
         <v>22</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
@@ -8367,17 +9134,23 @@
         <v>494</v>
       </c>
       <c r="R114" s="4"/>
-    </row>
-    <row r="115" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="S114" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T114" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>389</v>
       </c>
       <c r="C115" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D115" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
@@ -8408,8 +9181,14 @@
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S115" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T115" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>392</v>
       </c>
@@ -8417,8 +9196,8 @@
         <v>393</v>
       </c>
       <c r="C116" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D116" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
@@ -8452,8 +9231,14 @@
         <v>497</v>
       </c>
       <c r="R116" s="4"/>
-    </row>
-    <row r="117" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S116" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T116" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>392</v>
       </c>
@@ -8461,8 +9246,8 @@
         <v>396</v>
       </c>
       <c r="C117" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D117" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
@@ -8498,8 +9283,14 @@
       </c>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T117" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>392</v>
       </c>
@@ -8507,8 +9298,8 @@
         <v>401</v>
       </c>
       <c r="C118" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D118" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
@@ -8540,8 +9331,14 @@
       </c>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
-    </row>
-    <row r="119" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S118" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T118" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>392</v>
       </c>
@@ -8549,8 +9346,8 @@
         <v>404</v>
       </c>
       <c r="C119" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D119" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
@@ -8584,8 +9381,14 @@
       </c>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T119" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>392</v>
       </c>
@@ -8593,8 +9396,8 @@
         <v>408</v>
       </c>
       <c r="C120" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D120" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
@@ -8626,8 +9429,14 @@
       </c>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T120" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>392</v>
       </c>
@@ -8635,8 +9444,8 @@
         <v>411</v>
       </c>
       <c r="C121" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D121" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
@@ -8668,8 +9477,14 @@
       </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T121" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>392</v>
       </c>
@@ -8677,8 +9492,8 @@
         <v>414</v>
       </c>
       <c r="C122" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D122" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
@@ -8710,8 +9525,14 @@
       </c>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T122" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>417</v>
       </c>
@@ -8719,8 +9540,8 @@
         <v>418</v>
       </c>
       <c r="C123" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D123" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
@@ -8748,8 +9569,14 @@
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T123" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>417</v>
       </c>
@@ -8757,8 +9584,8 @@
         <v>421</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D124" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
@@ -8784,8 +9611,14 @@
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T124" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>417</v>
       </c>
@@ -8793,8 +9626,8 @@
         <v>423</v>
       </c>
       <c r="C125" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D125" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
@@ -8814,7 +9647,7 @@
         <v>504</v>
       </c>
       <c r="L125" s="6" t="str">
-        <f t="shared" ref="L125:L132" si="7">HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
+        <f t="shared" ref="L125:L132" si="5">HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M125" s="4"/>
@@ -8823,8 +9656,14 @@
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T125" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>417</v>
       </c>
@@ -8832,8 +9671,8 @@
         <v>425</v>
       </c>
       <c r="C126" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D126" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
@@ -8853,7 +9692,7 @@
         <v>504</v>
       </c>
       <c r="L126" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M126" s="4"/>
@@ -8862,8 +9701,14 @@
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T126" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>417</v>
       </c>
@@ -8871,8 +9716,8 @@
         <v>427</v>
       </c>
       <c r="C127" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D127" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
@@ -8892,7 +9737,7 @@
         <v>504</v>
       </c>
       <c r="L127" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M127" s="4"/>
@@ -8901,8 +9746,14 @@
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S127" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T127" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>417</v>
       </c>
@@ -8910,8 +9761,8 @@
         <v>429</v>
       </c>
       <c r="C128" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D128" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
@@ -8933,7 +9784,7 @@
         <v>504</v>
       </c>
       <c r="L128" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M128" s="4"/>
@@ -8942,8 +9793,14 @@
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
-    </row>
-    <row r="129" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S128" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T128" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>417</v>
       </c>
@@ -8951,8 +9808,8 @@
         <v>431</v>
       </c>
       <c r="C129" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D129" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
@@ -8975,7 +9832,7 @@
         <v>504</v>
       </c>
       <c r="L129" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M129" s="4"/>
@@ -8984,8 +9841,14 @@
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
-    </row>
-    <row r="130" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S129" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T129" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>417</v>
       </c>
@@ -8993,8 +9856,8 @@
         <v>433</v>
       </c>
       <c r="C130" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D130" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
@@ -9014,7 +9877,7 @@
         <v>504</v>
       </c>
       <c r="L130" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M130" s="4"/>
@@ -9023,8 +9886,14 @@
       <c r="P130" s="4"/>
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T130" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>417</v>
       </c>
@@ -9032,8 +9901,8 @@
         <v>435</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D131" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
@@ -9053,7 +9922,7 @@
         <v>504</v>
       </c>
       <c r="L131" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M131" s="4"/>
@@ -9062,8 +9931,14 @@
       <c r="P131" s="4"/>
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T131" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>417</v>
       </c>
@@ -9071,8 +9946,8 @@
         <v>437</v>
       </c>
       <c r="C132" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>http://hiscom.chah.org.au/hispid/terms</v>
+        <f t="shared" si="4"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D132" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
@@ -9092,7 +9967,7 @@
         <v>504</v>
       </c>
       <c r="L132" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M132" s="4"/>
@@ -9101,22 +9976,28 @@
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S132" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T132" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>542</v>
+        <v>780</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>20</v>
@@ -9138,24 +10019,30 @@
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+      <c r="S133" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T133" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>544</v>
+        <v>781</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>28</v>
@@ -9176,24 +10063,30 @@
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
       <c r="R134" s="4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+      <c r="S134" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T134" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>28</v>
@@ -9214,26 +10107,32 @@
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
       <c r="R135" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+      <c r="S135" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T135" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C136" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1")</f>
-        <v>http://purl.org/dc/elements/1.1</v>
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/")</f>
+        <v>http://purl.org/dc/elements/1.1/</v>
       </c>
       <c r="D136" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
         <v>http://purl.org/dc/elements/1.1/source</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>20</v>
@@ -9252,24 +10151,30 @@
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
       <c r="R136" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="S136" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T136" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>548</v>
+        <v>779</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>20</v>
@@ -9288,24 +10193,30 @@
       <c r="P137" s="4"/>
       <c r="Q137" s="4"/>
       <c r="R137" s="13" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="S137" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T137" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>548</v>
+        <v>779</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>20</v>
@@ -9324,24 +10235,30 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+      <c r="S138" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T138" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>20</v>
@@ -9360,31 +10277,37 @@
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+      <c r="S139" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T139" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -9398,31 +10321,37 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+      <c r="S140" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T140" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>552</v>
+        <v>783</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -9430,7 +10359,7 @@
         <v>267</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
@@ -9438,24 +10367,30 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="S141" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T141" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>20</v>
@@ -9474,24 +10409,30 @@
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="S142" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T142" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>20</v>
@@ -9510,24 +10451,30 @@
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+      <c r="S143" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T143" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>20</v>
@@ -9546,24 +10493,30 @@
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+      <c r="S144" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T144" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>20</v>
@@ -9582,24 +10535,30 @@
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+      <c r="S145" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T145" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>20</v>
@@ -9618,24 +10577,30 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="S146" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T146" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>20</v>
@@ -9654,24 +10619,30 @@
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="4" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="S147" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T147" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>548</v>
+        <v>779</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>20</v>
@@ -9690,33 +10661,39 @@
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="S148" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T148" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="B149" s="5" t="s">
+      <c r="F149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>626</v>
-      </c>
       <c r="H149" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -9733,24 +10710,30 @@
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
       <c r="R149" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="S149" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T149" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>544</v>
+        <v>781</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>28</v>
@@ -9771,24 +10754,30 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+      <c r="S150" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T150" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>20</v>
@@ -9807,24 +10796,30 @@
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="S151" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T151" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>548</v>
+        <v>779</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>28</v>
@@ -9845,24 +10840,30 @@
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+      <c r="S152" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T152" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>20</v>
@@ -9881,24 +10882,30 @@
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+      <c r="S153" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T153" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>548</v>
+        <v>779</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>20</v>
@@ -9917,24 +10924,30 @@
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+      <c r="S154" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T154" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>544</v>
+        <v>784</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>20</v>
@@ -9953,24 +10966,30 @@
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="S155" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T155" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>544</v>
+        <v>784</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>20</v>
@@ -9989,24 +11008,30 @@
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="S156" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T156" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D157" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E157" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>678</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>20</v>
@@ -10025,24 +11050,30 @@
       <c r="P157" s="4"/>
       <c r="Q157" s="4"/>
       <c r="R157" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="S157" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T157" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>672</v>
-      </c>
       <c r="E158" s="4" t="s">
-        <v>679</v>
+        <v>775</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>20</v>
@@ -10061,24 +11092,30 @@
       <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
       <c r="R158" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="S158" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T158" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D159" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>671</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>680</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>20</v>
@@ -10097,24 +11134,30 @@
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
       <c r="R159" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="S159" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T159" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>20</v>
@@ -10133,24 +11176,30 @@
       <c r="P160" s="4"/>
       <c r="Q160" s="4"/>
       <c r="R160" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="S160" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T160" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>20</v>
@@ -10169,24 +11218,30 @@
       <c r="P161" s="4"/>
       <c r="Q161" s="4"/>
       <c r="R161" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="S161" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T161" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>20</v>
@@ -10205,24 +11260,30 @@
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
       <c r="R162" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="S162" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T162" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>694</v>
-      </c>
       <c r="E163" s="4" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>20</v>
@@ -10241,24 +11302,30 @@
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
       <c r="R163" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="S163" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T163" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>705</v>
-      </c>
       <c r="E164" s="4" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>20</v>
@@ -10277,24 +11344,30 @@
       <c r="P164" s="4"/>
       <c r="Q164" s="4"/>
       <c r="R164" s="4" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+      <c r="S164" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T164" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>20</v>
@@ -10313,30 +11386,36 @@
       <c r="P165" s="4"/>
       <c r="Q165" s="4"/>
       <c r="R165" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+      <c r="S165" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T165" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -10351,24 +11430,30 @@
       <c r="P166" s="4"/>
       <c r="Q166" s="4"/>
       <c r="R166" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="S166" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T166" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>20</v>
@@ -10387,24 +11472,30 @@
       <c r="P167" s="4"/>
       <c r="Q167" s="4"/>
       <c r="R167" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+      <c r="S167" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T167" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>20</v>
@@ -10423,34 +11514,40 @@
       <c r="P168" s="4"/>
       <c r="Q168" s="4"/>
       <c r="R168" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+      <c r="S168" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T168" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>542</v>
+        <v>780</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4" t="s">
@@ -10463,24 +11560,30 @@
       <c r="P169" s="4"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="4" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="S169" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T169" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>20</v>
@@ -10499,24 +11602,30 @@
       <c r="P170" s="4"/>
       <c r="Q170" s="4"/>
       <c r="R170" s="4" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+      <c r="S170" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T170" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>20</v>
@@ -10535,7 +11644,13 @@
       <c r="P171" s="4"/>
       <c r="Q171" s="4"/>
       <c r="R171" s="4" t="s">
-        <v>754</v>
+        <v>745</v>
+      </c>
+      <c r="S171" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T171" s="17">
+        <v>42196</v>
       </c>
     </row>
   </sheetData>
@@ -10547,9 +11662,9 @@
     <hyperlink ref="H88" r:id="rId5"/>
     <hyperlink ref="H100" r:id="rId6"/>
     <hyperlink ref="N59" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
-    <hyperlink ref="C21" r:id="rId8"/>
+    <hyperlink ref="C21" r:id="rId8" display="http://rs.tdwg.org/dwc/terms"/>
     <hyperlink ref="D21" r:id="rId9"/>
-    <hyperlink ref="C22" r:id="rId10"/>
+    <hyperlink ref="C22" r:id="rId10" display="http://rs.tdwg.org/dwc/terms"/>
     <hyperlink ref="D22" r:id="rId11"/>
     <hyperlink ref="C7" r:id="rId12" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D7" r:id="rId13" display="http://rs.tdwg.org/ac/terms/metadataLanguage"/>
@@ -10558,54 +11673,54 @@
     <hyperlink ref="D8" r:id="rId16" display="http://ns.adobe.com/xap/1.0/rights/Owner"/>
     <hyperlink ref="C9" r:id="rId17" display="http://ns.adobe.com/xap/1.0/rights"/>
     <hyperlink ref="D9" r:id="rId18" display="http://ns.adobe.com/xap/1.0/rights/WebStatement"/>
-    <hyperlink ref="C133" r:id="rId19"/>
+    <hyperlink ref="C133" r:id="rId19" display="http://purl.org/dc/elements/1.1"/>
     <hyperlink ref="D133" r:id="rId20"/>
-    <hyperlink ref="C134" r:id="rId21"/>
+    <hyperlink ref="C134" r:id="rId21" display="http://ns.adobe.com/xap/1.0"/>
     <hyperlink ref="D134" r:id="rId22"/>
-    <hyperlink ref="C135" r:id="rId23"/>
+    <hyperlink ref="C135" r:id="rId23" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D135" r:id="rId24"/>
-    <hyperlink ref="C137" r:id="rId25"/>
+    <hyperlink ref="C137" r:id="rId25" display="http://purl.org/dc/terms"/>
     <hyperlink ref="D137" r:id="rId26"/>
-    <hyperlink ref="C138" r:id="rId27"/>
+    <hyperlink ref="C138" r:id="rId27" display="http://purl.org/dc/terms"/>
     <hyperlink ref="D138" r:id="rId28"/>
-    <hyperlink ref="C139" r:id="rId29"/>
+    <hyperlink ref="C139" r:id="rId29" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D139" r:id="rId30"/>
-    <hyperlink ref="C140" r:id="rId31"/>
+    <hyperlink ref="C140" r:id="rId31" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D140" r:id="rId32"/>
-    <hyperlink ref="C143" r:id="rId33"/>
-    <hyperlink ref="C141" r:id="rId34"/>
+    <hyperlink ref="C143" r:id="rId33" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="C141" r:id="rId34" display="http://iptc.org/std/Iptc4xmpExt/2008-02-29"/>
     <hyperlink ref="D141" r:id="rId35"/>
-    <hyperlink ref="C142" r:id="rId36"/>
+    <hyperlink ref="C142" r:id="rId36" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D142" r:id="rId37"/>
     <hyperlink ref="D143" r:id="rId38"/>
-    <hyperlink ref="C144" r:id="rId39"/>
+    <hyperlink ref="C144" r:id="rId39" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D144" r:id="rId40"/>
-    <hyperlink ref="C145" r:id="rId41"/>
+    <hyperlink ref="C145" r:id="rId41" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D145" r:id="rId42"/>
-    <hyperlink ref="C146" r:id="rId43"/>
+    <hyperlink ref="C146" r:id="rId43" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D146" r:id="rId44"/>
-    <hyperlink ref="C147" r:id="rId45"/>
+    <hyperlink ref="C147" r:id="rId45" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D147" r:id="rId46"/>
     <hyperlink ref="H14" r:id="rId47" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
     <hyperlink ref="L141" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
     <hyperlink ref="D18" r:id="rId49"/>
-    <hyperlink ref="C148" r:id="rId50"/>
+    <hyperlink ref="C148" r:id="rId50" display="http://purl.org/dc/terms"/>
     <hyperlink ref="D148" r:id="rId51"/>
-    <hyperlink ref="C149" r:id="rId52"/>
+    <hyperlink ref="C149" r:id="rId52" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D149" r:id="rId53"/>
     <hyperlink ref="D150" r:id="rId54"/>
-    <hyperlink ref="C150" r:id="rId55"/>
-    <hyperlink ref="C151" r:id="rId56"/>
+    <hyperlink ref="C150" r:id="rId55" display="http://ns.adobe.com/xap/1.0"/>
+    <hyperlink ref="C151" r:id="rId56" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D151" r:id="rId57"/>
     <hyperlink ref="D152" r:id="rId58"/>
-    <hyperlink ref="C152" r:id="rId59"/>
-    <hyperlink ref="C153" r:id="rId60"/>
+    <hyperlink ref="C152" r:id="rId59" display="http://purl.org/dc/terms"/>
+    <hyperlink ref="C153" r:id="rId60" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D153" r:id="rId61"/>
     <hyperlink ref="D154" r:id="rId62"/>
-    <hyperlink ref="C154" r:id="rId63"/>
-    <hyperlink ref="C159" r:id="rId64"/>
+    <hyperlink ref="C154" r:id="rId63" display="http://purl.org/dc/terms"/>
+    <hyperlink ref="C159" r:id="rId64" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D157" r:id="rId65"/>
-    <hyperlink ref="C157" r:id="rId66"/>
+    <hyperlink ref="C157" r:id="rId66" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D159" r:id="rId67"/>
     <hyperlink ref="D158" r:id="rId68"/>
     <hyperlink ref="C158" r:id="rId69"/>
@@ -10614,30 +11729,30 @@
     <hyperlink ref="D155" r:id="rId72"/>
     <hyperlink ref="C155" r:id="rId73"/>
     <hyperlink ref="D160" r:id="rId74"/>
-    <hyperlink ref="C160" r:id="rId75"/>
+    <hyperlink ref="C160" r:id="rId75" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D161" r:id="rId76"/>
-    <hyperlink ref="C161" r:id="rId77"/>
+    <hyperlink ref="C161" r:id="rId77" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D162" r:id="rId78"/>
-    <hyperlink ref="C162" r:id="rId79"/>
-    <hyperlink ref="C163" r:id="rId80"/>
+    <hyperlink ref="C162" r:id="rId79" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="C163" r:id="rId80" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D163" r:id="rId81"/>
-    <hyperlink ref="C164" r:id="rId82"/>
+    <hyperlink ref="C164" r:id="rId82" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D164" r:id="rId83"/>
     <hyperlink ref="D97" r:id="rId84"/>
-    <hyperlink ref="C97" r:id="rId85"/>
-    <hyperlink ref="C165" r:id="rId86"/>
+    <hyperlink ref="C97" r:id="rId85" display="http://rs.tdwg.org/dwc/terms"/>
+    <hyperlink ref="C165" r:id="rId86" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D165" r:id="rId87"/>
-    <hyperlink ref="C166" r:id="rId88"/>
+    <hyperlink ref="C166" r:id="rId88" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D166" r:id="rId89"/>
     <hyperlink ref="D167" r:id="rId90"/>
-    <hyperlink ref="C167" r:id="rId91"/>
-    <hyperlink ref="C168" r:id="rId92"/>
+    <hyperlink ref="C167" r:id="rId91" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="C168" r:id="rId92" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D168" r:id="rId93"/>
-    <hyperlink ref="C169" r:id="rId94"/>
+    <hyperlink ref="C169" r:id="rId94" display="http://purl.org/dc/elements/1.1"/>
     <hyperlink ref="D169" r:id="rId95"/>
-    <hyperlink ref="C170" r:id="rId96"/>
+    <hyperlink ref="C170" r:id="rId96" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D170" r:id="rId97"/>
-    <hyperlink ref="C171" r:id="rId98"/>
+    <hyperlink ref="C171" r:id="rId98" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D171" r:id="rId99"/>
     <hyperlink ref="L114" r:id="rId100"/>
     <hyperlink ref="L101" r:id="rId101"/>
@@ -10645,4 +11760,266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="E2" s="18">
+        <v>42196</v>
+      </c>
+      <c r="F2" s="18">
+        <v>42196</v>
+      </c>
+      <c r="G2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="E3" s="18">
+        <v>42196</v>
+      </c>
+      <c r="F3" s="18">
+        <v>42196</v>
+      </c>
+      <c r="G3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="E4" s="18">
+        <v>42196</v>
+      </c>
+      <c r="F4" s="18">
+        <v>42196</v>
+      </c>
+      <c r="G4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" s="18">
+        <v>42196</v>
+      </c>
+      <c r="F5" s="18">
+        <v>42196</v>
+      </c>
+      <c r="G5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="E6" s="18">
+        <v>42196</v>
+      </c>
+      <c r="F6" s="18">
+        <v>42196</v>
+      </c>
+      <c r="G6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="E7" s="18">
+        <v>42196</v>
+      </c>
+      <c r="F7" s="18">
+        <v>42196</v>
+      </c>
+      <c r="G7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="E8" s="18">
+        <v>42196</v>
+      </c>
+      <c r="F8" s="18">
+        <v>42196</v>
+      </c>
+      <c r="G8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="E9" s="18">
+        <v>42196</v>
+      </c>
+      <c r="F9" s="18">
+        <v>42196</v>
+      </c>
+      <c r="G9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="E10" s="18">
+        <v>42196</v>
+      </c>
+      <c r="F10" s="18">
+        <v>42196</v>
+      </c>
+      <c r="G10" t="s">
+        <v>777</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3:B8" r:id="rId2" display="http://rs.tdwg.org/dwc/terms"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
 </file>
--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\hispid-review-2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\hispid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="796">
   <si>
     <t>group</t>
   </si>
@@ -2385,6 +2385,33 @@
   </si>
   <si>
     <t>http://ns.adobe.com/photoshop/1.0/</t>
+  </si>
+  <si>
+    <t>informationWithheld</t>
+  </si>
+  <si>
+    <t>dataGeneralizations</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/informationWitheld</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/dataGeneralizations</t>
+  </si>
+  <si>
+    <t>Additional information that exists, but that has not been shared in the given record.</t>
+  </si>
+  <si>
+    <t>"location information not given for endangered species", "collector identities withheld", "ask about tissue samples"</t>
+  </si>
+  <si>
+    <t>https://github.com/hiscom/hispid/issues/67</t>
+  </si>
+  <si>
+    <t>Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request.</t>
+  </si>
+  <si>
+    <t>"Coordinates generalized from original GPS coordinates to the nearest half degree grid cell".</t>
   </si>
 </sst>
 </file>
@@ -3301,13 +3328,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T171"/>
+  <dimension ref="A1:T173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C159" sqref="C159"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,44 +3829,40 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>787</v>
       </c>
       <c r="C10" s="6" t="str">
-        <f t="shared" ref="C10:C19" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <f t="shared" ref="C10:C11" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
-      <c r="D10" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceID")</f>
-        <v>http://rs.tdwg.org/dwc/terms/occurrenceID</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
+      <c r="D10" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>791</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>514</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
-        <v>43</v>
+      <c r="J10" s="8" t="s">
+        <v>792</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
-        <v>https://github.com/hiscom/hispid/issues/2</v>
+        <v>267</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>793</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>41</v>
+        <v>787</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -3847,29 +3870,28 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="17">
-        <v>42196</v>
+        <v>42204</v>
       </c>
       <c r="T10" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>42204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>788</v>
       </c>
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
-      <c r="D11" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/catalogNumber")</f>
-        <v>http://rs.tdwg.org/dwc/terms/catalogNumber</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
+      <c r="D11" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>794</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -3877,84 +3899,72 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>46</v>
+      <c r="J11" s="8" t="s">
+        <v>795</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>793</v>
+      </c>
       <c r="M11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="17">
-        <v>42196</v>
+        <v>42204</v>
       </c>
       <c r="T11" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+        <v>42204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:C21" si="1">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/recordedBy</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/occurrenceID</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>514</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="9" t="s">
-        <v>598</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/30")</f>
-        <v>https://github.com/hiscom/hispid/issues/30</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
+        <v>https://github.com/hiscom/hispid/issues/2</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="17">
@@ -3969,18 +3979,18 @@
         <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordNumber")</f>
-        <v>http://rs.tdwg.org/dwc/terms/recordNumber</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/catalogNumber")</f>
+        <v>http://rs.tdwg.org/dwc/terms/catalogNumber</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>20</v>
@@ -3988,22 +3998,24 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>446</v>
+        <v>44</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -4014,59 +4026,58 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/preparations")</f>
-        <v>http://rs.tdwg.org/dwc/terms/preparations</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/recordedBy</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>583</v>
+        <v>49</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml</v>
-      </c>
-      <c r="I14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9" t="s">
+        <v>598</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>584</v>
+        <v>51</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/26")</f>
-        <v>https://github.com/hiscom/hispid/issues/26</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/30")</f>
+        <v>https://github.com/hiscom/hispid/issues/30</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4" t="s">
-        <v>711</v>
-      </c>
+      <c r="R14" s="4"/>
       <c r="S14" s="17">
         <v>42196</v>
       </c>
@@ -4074,50 +4085,46 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/otherCatalogNumbers")</f>
-        <v>http://rs.tdwg.org/dwc/terms/otherCatalogNumbers</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/recordNumber")</f>
+        <v>http://rs.tdwg.org/dwc/terms/recordNumber</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="9" t="s">
-        <v>599</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -4128,164 +4135,166 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/preparations")</f>
+        <v>http://rs.tdwg.org/dwc/terms/preparations</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/preparations.xml</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/26")</f>
+        <v>https://github.com/hiscom/hispid/issues/26</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="S16" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T16" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/otherCatalogNumbers")</f>
+        <v>http://rs.tdwg.org/dwc/terms/otherCatalogNumbers</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T17" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C18" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D18" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/occurrenceRemarks")</f>
         <v>http://rs.tdwg.org/dwc/terms/occurrenceRemarks</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="6" t="str">
+      <c r="L18" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
         <v>https://github.com/hiscom/hispid/issues/1</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T16" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
-      </c>
-      <c r="D17" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/organismQuantity")</f>
-        <v>http://rs.tdwg.org/dwc/terms/organismQuantity</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="H17" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="L17" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
-        <v>https://github.com/hiscom/hispid/issues/22</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T17" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="C18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="L18" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
-        <v>https://github.com/hiscom/hispid/issues/22</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="17">
@@ -4295,157 +4304,168 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/organismQuantity")</f>
+        <v>http://rs.tdwg.org/dwc/terms/organismQuantity</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="L19" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
+        <v>https://github.com/hiscom/hispid/issues/22</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T19" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="L20" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
+        <v>https://github.com/hiscom/hispid/issues/22</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T20" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C21" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
-      <c r="D19" s="6" t="str">
+      <c r="D21" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/establishmentMeans")</f>
         <v>http://rs.tdwg.org/dwc/terms/establishmentMeans</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6" t="s">
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/4")</f>
-        <v>https://github.com/hiscom/hispid/issues/4</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T19" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
-      </c>
-      <c r="D20" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/lifeForm")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/lifeForm</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/17")</f>
-        <v>https://github.com/hiscom/hispid/issues/17</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T20" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6" t="str">
-        <f>HYPERLINK("http://rs.gbif.org/vocabulary/gbif/sex.xml")</f>
-        <v>http://rs.gbif.org/vocabulary/gbif/sex.xml</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="L21" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/18")</f>
-        <v>https://github.com/hiscom/hispid/issues/18</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/4")</f>
+        <v>https://github.com/hiscom/hispid/issues/4</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4" t="s">
-        <v>709</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="R21" s="4"/>
       <c r="S21" s="17">
         <v>42196</v>
       </c>
@@ -4453,21 +4473,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>516</v>
+        <v>73</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+      </c>
+      <c r="D22" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/lifeForm")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/lifeForm</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>517</v>
+        <v>74</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>20</v>
@@ -4477,233 +4499,238 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/17")</f>
+        <v>https://github.com/hiscom/hispid/issues/17</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T22" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6" t="str">
+        <f>HYPERLINK("http://rs.gbif.org/vocabulary/gbif/sex.xml")</f>
+        <v>http://rs.gbif.org/vocabulary/gbif/sex.xml</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L22" s="6" t="str">
+      <c r="L23" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/18")</f>
+        <v>https://github.com/hiscom/hispid/issues/18</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="S23" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T23" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L24" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/34")</f>
         <v>https://github.com/hiscom/hispid/issues/34</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4" t="s">
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="S22" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T22" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="S24" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T24" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C25" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
-      <c r="D23" s="6" t="str">
+      <c r="D25" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/reproductiveCondition")</f>
         <v>http://rs.tdwg.org/dwc/terms/reproductiveCondition</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6" t="str">
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="6" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/reproductive_condition.xml</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="6" t="str">
+      <c r="L25" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/12")</f>
         <v>https://github.com/hiscom/hispid/issues/12</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T23" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="R25" s="4"/>
+      <c r="S25" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T25" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C26" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
-      <c r="D24" s="6" t="str">
+      <c r="D26" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedTaxa")</f>
         <v>http://rs.tdwg.org/dwc/terms/associatedTaxa</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="6" t="str">
+      <c r="L26" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/20")</f>
         <v>https://github.com/hiscom/hispid/issues/20</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T24" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
-      </c>
-      <c r="D25" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/associationType</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L25" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/33")</f>
-        <v>https://github.com/hiscom/hispid/issues/33</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T25" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
-      </c>
-      <c r="D26" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationTaxon")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/associationTaxon</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="17">
@@ -4713,44 +4740,45 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D27" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/associationType</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="H27" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
         <v>504</v>
       </c>
       <c r="L27" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/32")</f>
-        <v>https://github.com/hiscom/hispid/issues/32</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/33")</f>
+        <v>https://github.com/hiscom/hispid/issues/33</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>459</v>
-      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -4762,40 +4790,37 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>511</v>
+        <v>88</v>
       </c>
       <c r="C28" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D28" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/disposition")</f>
-        <v>http://rs.tdwg.org/dwc/terms/disposition</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationTaxon")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/associationTaxon</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>512</v>
+        <v>89</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4" t="s">
-        <v>513</v>
-      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L28" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/15")</f>
-        <v>https://github.com/hiscom/hispid/issues/15</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -4809,50 +4834,46 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D29" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/habitat")</f>
-        <v>http://rs.tdwg.org/dwc/terms/habitat</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L29" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
-        <v>https://github.com/hiscom/hispid/issues/23</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>95</v>
-      </c>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/32")</f>
+        <v>https://github.com/hiscom/hispid/issues/32</v>
+      </c>
+      <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="17">
@@ -4864,21 +4885,21 @@
     </row>
     <row r="30" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>99</v>
+        <v>511</v>
       </c>
       <c r="C30" s="6" t="str">
-        <f t="shared" ref="C30:C35" si="1">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/topography")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/topography</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/disposition")</f>
+        <v>http://rs.tdwg.org/dwc/terms/disposition</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>100</v>
+        <v>512</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>20</v>
@@ -4886,24 +4907,20 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>513</v>
+      </c>
       <c r="K30" s="4" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="L30" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
-        <v>https://github.com/hiscom/hispid/issues/23</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/15")</f>
+        <v>https://github.com/hiscom/hispid/issues/15</v>
       </c>
       <c r="M30" s="4"/>
-      <c r="N30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="17">
@@ -4918,18 +4935,18 @@
         <v>94</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/habitat")</f>
+        <v>http://rs.tdwg.org/dwc/terms/habitat</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>20</v>
@@ -4939,21 +4956,23 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="L31" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
         <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
-      <c r="M31" s="4"/>
+      <c r="M31" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="N31" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -4969,18 +4988,18 @@
         <v>94</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C32" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C32:C37" si="2">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D32" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/topography")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/topography</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>20</v>
@@ -4998,17 +5017,15 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>460</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="17">
         <v>42196</v>
@@ -5022,18 +5039,18 @@
         <v>94</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C33" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D33" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>20</v>
@@ -5046,15 +5063,19 @@
         <v>75</v>
       </c>
       <c r="L33" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/14")</f>
-        <v>https://github.com/hiscom/hispid/issues/14</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
+        <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="17">
@@ -5069,18 +5090,18 @@
         <v>94</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C34" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D34" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>20</v>
@@ -5098,16 +5119,16 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="17">
@@ -5122,18 +5143,18 @@
         <v>94</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C35" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D35" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>20</v>
@@ -5146,79 +5167,70 @@
         <v>75</v>
       </c>
       <c r="L35" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/14")</f>
+        <v>https://github.com/hiscom/hispid/issues/14</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T35" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+      </c>
+      <c r="D36" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
         <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T35" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
-      </c>
-      <c r="D36" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
-        <v>463</v>
+        <v>116</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>464</v>
+        <v>114</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4" t="s">
-        <v>693</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="R36" s="4"/>
       <c r="S36" s="17">
         <v>42196</v>
       </c>
@@ -5226,23 +5238,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C37" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f t="shared" si="2"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D37" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimEventDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>20</v>
@@ -5252,22 +5264,25 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="L37" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
+        <v>https://github.com/hiscom/hispid/issues/23</v>
+      </c>
+      <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q37" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="R37" s="4"/>
       <c r="S37" s="17">
         <v>42196</v>
@@ -5281,37 +5296,50 @@
         <v>94</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>751</v>
+        <v>121</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D38" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/collectingTrip")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/collectingTrip</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>752</v>
+        <v>592</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/8")</f>
-        <v>https://github.com/hiscom/hispid/issues/8</v>
-      </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
+      <c r="R38" s="4" t="s">
+        <v>693</v>
+      </c>
       <c r="S38" s="17">
         <v>42196</v>
       </c>
@@ -5321,21 +5349,21 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C39" s="6" t="str">
-        <f t="shared" ref="C39:C64" si="2">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D39" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/locality</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimEventDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>20</v>
@@ -5349,16 +5377,16 @@
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -5369,53 +5397,42 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>134</v>
+        <v>751</v>
       </c>
       <c r="C40" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D40" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/collectingTrip")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/collectingTrip</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>135</v>
+        <v>752</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/8")</f>
+        <v>https://github.com/hiscom/hispid/issues/8</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="4" t="s">
-        <v>692</v>
-      </c>
+      <c r="R40" s="4"/>
       <c r="S40" s="17">
         <v>42196</v>
       </c>
@@ -5428,18 +5445,18 @@
         <v>129</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C41:C66" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D41" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
-        <v>http://rs.tdwg.org/dwc/terms/continent</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/locality</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>20</v>
@@ -5447,21 +5464,23 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="17">
@@ -5471,54 +5490,52 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C42" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D42" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
-        <v>http://rs.tdwg.org/dwc/terms/country</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="H42" s="4"/>
-      <c r="I42" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="S42" s="17">
         <v>42196</v>
@@ -5532,50 +5549,42 @@
         <v>129</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C43" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D43" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
+        <v>http://rs.tdwg.org/dwc/terms/continent</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="4" t="s">
-        <v>689</v>
-      </c>
+      <c r="R43" s="4"/>
       <c r="S43" s="17">
         <v>42196</v>
       </c>
@@ -5583,54 +5592,54 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C44" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D44" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
-        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
+        <v>http://rs.tdwg.org/dwc/terms/country</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="13" t="s">
+        <v>607</v>
+      </c>
       <c r="J44" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>465</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S44" s="17">
         <v>42196</v>
@@ -5639,51 +5648,55 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C45" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D45" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
-        <v>http://rs.tdwg.org/dwc/terms/county</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
+      <c r="R45" s="4" t="s">
+        <v>689</v>
+      </c>
       <c r="S45" s="17">
         <v>42196</v>
       </c>
@@ -5691,23 +5704,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C46" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D46" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
-        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
+        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>20</v>
@@ -5716,25 +5729,30 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L46" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
-        <v>https://github.com/hiscom/hispid/issues/21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>691</v>
+      </c>
       <c r="S46" s="17">
         <v>42196</v>
       </c>
@@ -5742,23 +5760,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C47" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D47" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
-        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
+        <v>http://rs.tdwg.org/dwc/terms/county</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>20</v>
@@ -5767,23 +5785,24 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L47" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
-        <v>https://github.com/hiscom/hispid/issues/21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="17">
@@ -5798,18 +5817,18 @@
         <v>129</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C48" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D48" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
-        <v>http://rs.tdwg.org/dwc/terms/island</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
+        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>20</v>
@@ -5818,7 +5837,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>504</v>
@@ -5828,10 +5847,10 @@
         <v>https://github.com/hiscom/hispid/issues/21</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -5849,37 +5868,40 @@
         <v>129</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C49" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D49" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
+        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L49" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
+        <v>https://github.com/hiscom/hispid/issues/21</v>
+      </c>
       <c r="M49" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -5897,37 +5919,40 @@
         <v>129</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C50" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D50" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
+        <v>http://rs.tdwg.org/dwc/terms/island</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L50" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
+        <v>https://github.com/hiscom/hispid/issues/21</v>
+      </c>
       <c r="M50" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -5940,49 +5965,45 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C51" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D51" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O51" s="4"/>
-      <c r="P51" s="4" t="s">
-        <v>608</v>
-      </c>
+      <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="17">
@@ -5992,51 +6013,45 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C52" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D52" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="17">
@@ -6046,50 +6061,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C53" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D53" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O53" s="4"/>
       <c r="P53" s="4" t="s">
-        <v>198</v>
+        <v>608</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -6100,48 +6113,50 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C54" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D54" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="O54" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="P54" s="4" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
@@ -6152,48 +6167,51 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C55" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D55" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H55" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>746</v>
+        <v>196</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
+        <v>194</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="17">
@@ -6203,48 +6221,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C56" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D56" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4" t="s">
-        <v>212</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="O56" s="4"/>
       <c r="P56" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
@@ -6260,34 +6278,39 @@
         <v>129</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C57" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D57" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
-        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H57" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>216</v>
+        <v>746</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>504</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -6301,48 +6324,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C58" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D58" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G58" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="H58" s="4"/>
-      <c r="I58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="K58" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>220</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N58" s="4"/>
       <c r="O58" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
@@ -6358,47 +6381,38 @@
         <v>129</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C59" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D59" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
+        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="L59" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
-        <v>https://github.com/hiscom/hispid/issues/13</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="17">
@@ -6408,51 +6422,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C60" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D60" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="I60" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J60" s="4"/>
       <c r="K60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L60" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
-        <v>https://github.com/hiscom/hispid/issues/13</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
@@ -6463,45 +6474,52 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C61" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D61" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>593</v>
+        <v>223</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="J61" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="K61" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="L61" s="4"/>
+      <c r="L61" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
+        <v>https://github.com/hiscom/hispid/issues/13</v>
+      </c>
       <c r="M61" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
+        <v>466</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="17">
@@ -6516,18 +6534,18 @@
         <v>129</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C62" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D62" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>594</v>
+        <v>227</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>20</v>
@@ -6535,19 +6553,28 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="J62" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="K62" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L62" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="L62" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
+        <v>https://github.com/hiscom/hispid/issues/13</v>
+      </c>
       <c r="M62" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
+        <v>229</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="17">
@@ -6557,48 +6584,42 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C63" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D63" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>235</v>
+        <v>593</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H63" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="L63" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/19")</f>
-        <v>https://github.com/hiscom/hispid/issues/19</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>236</v>
+        <v>467</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -6611,23 +6632,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C64" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D64" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>238</v>
+        <v>594</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>20</v>
@@ -6641,10 +6662,10 @@
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -6657,47 +6678,51 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C65" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D65" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4" t="s">
-        <v>469</v>
-      </c>
+      <c r="G65" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H65" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
+      </c>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L65" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/19")</f>
+        <v>https://github.com/hiscom/hispid/issues/19</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="N65" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>242</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="17">
@@ -6707,47 +6732,43 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C66" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D66" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>246</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="17">
@@ -6757,46 +6778,46 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C67" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D67" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="I67" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="M67" s="4"/>
       <c r="N67" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
@@ -6807,43 +6828,47 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C68" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D68" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="17">
@@ -6858,40 +6883,41 @@
         <v>129</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C69" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D69" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
-      </c>
+      <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+      <c r="M69" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>470</v>
+      </c>
       <c r="O69" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -6902,47 +6928,43 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C70" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D70" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>259</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="17">
@@ -6957,41 +6979,40 @@
         <v>129</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C71" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D71" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
+      </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
       <c r="O71" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
@@ -7002,43 +7023,47 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C72" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D72" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="17">
@@ -7048,46 +7073,47 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C73" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D73" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>271</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L73" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
-        <v>https://github.com/hiscom/hispid/issues/2</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="17">
@@ -7097,23 +7123,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C74" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D74" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>20</v>
@@ -7123,25 +7149,19 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>275</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
-      <c r="R74" s="4" t="s">
-        <v>700</v>
-      </c>
+      <c r="R74" s="4"/>
       <c r="S74" s="17">
         <v>42196</v>
       </c>
@@ -7154,40 +7174,41 @@
         <v>268</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C75" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D75" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="4"/>
+      <c r="L75" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
+        <v>https://github.com/hiscom/hispid/issues/2</v>
+      </c>
       <c r="M75" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N75" s="4"/>
-      <c r="O75" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="P75" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="17">
@@ -7197,50 +7218,51 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D76" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G76" s="4"/>
-      <c r="H76" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
-      </c>
+      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
+      <c r="M76" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="N76" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
+      <c r="R76" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="S76" s="17">
         <v>42196</v>
       </c>
@@ -7248,23 +7270,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C77" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D77" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>591</v>
+        <v>277</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>20</v>
@@ -7274,23 +7296,18 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L77" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
-        <v>https://github.com/hiscom/hispid/issues/16</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>471</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N77" s="4"/>
       <c r="O77" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
@@ -7306,45 +7323,42 @@
         <v>268</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C78" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D78" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L78" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/31")</f>
-        <v>https://github.com/hiscom/hispid/issues/31</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4" t="s">
-        <v>472</v>
+        <v>281</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
@@ -7355,23 +7369,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C79" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D79" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>289</v>
+        <v>591</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>20</v>
@@ -7381,25 +7395,26 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="L79" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
+        <v>https://github.com/hiscom/hispid/issues/16</v>
+      </c>
       <c r="M79" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Q79" s="4"/>
-      <c r="R79" s="4" t="s">
-        <v>705</v>
-      </c>
+      <c r="R79" s="4"/>
       <c r="S79" s="17">
         <v>42196</v>
       </c>
@@ -7407,51 +7422,53 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D80" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
-        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="H80" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
+      </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="L80" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/31")</f>
+        <v>https://github.com/hiscom/hispid/issues/31</v>
+      </c>
+      <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q80" s="4"/>
-      <c r="R80" s="4" t="s">
-        <v>706</v>
-      </c>
+      <c r="R80" s="4"/>
       <c r="S80" s="17">
         <v>42196</v>
       </c>
@@ -7464,18 +7481,18 @@
         <v>268</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D81" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>20</v>
@@ -7488,18 +7505,22 @@
         <v>22</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
+      <c r="M81" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="N81" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
+      <c r="R81" s="4" t="s">
+        <v>705</v>
+      </c>
       <c r="S81" s="17">
         <v>42196</v>
       </c>
@@ -7512,21 +7533,21 @@
         <v>268</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C82" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D82" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
+        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -7535,22 +7556,23 @@
       <c r="K82" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L82" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
-        <v>https://github.com/hiscom/hispid/issues/16</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="N82" s="4"/>
+        <v>291</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="O82" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
+      <c r="R82" s="4" t="s">
+        <v>706</v>
+      </c>
       <c r="S82" s="17">
         <v>42196</v>
       </c>
@@ -7558,30 +7580,28 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C83" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D83" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
-        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -7589,17 +7609,15 @@
         <v>22</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="M83" s="4"/>
       <c r="N83" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
@@ -7615,18 +7633,18 @@
         <v>268</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C84" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D84" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>20</v>
@@ -7638,16 +7656,19 @@
       <c r="K84" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L84" s="4"/>
+      <c r="L84" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
+        <v>https://github.com/hiscom/hispid/issues/16</v>
+      </c>
       <c r="M84" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="N84" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="O84" s="4"/>
+        <v>298</v>
+      </c>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="P84" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
@@ -7658,47 +7679,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C85" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
+        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
-      </c>
+      <c r="G85" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
+      <c r="M85" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="N85" s="4" t="s">
-        <v>309</v>
+        <v>476</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
@@ -7709,54 +7731,44 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C86" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D86" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="4"/>
-      <c r="H86" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>506</v>
-      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L86" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/50")</f>
-        <v>https://github.com/hiscom/hispid/issues/50</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="O86" s="4" t="s">
-        <v>314</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="O86" s="4"/>
       <c r="P86" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
@@ -7767,29 +7779,32 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C87" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D87" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="H87" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
+      </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
@@ -7798,13 +7813,13 @@
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
@@ -7815,45 +7830,55 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C88" s="6" t="str">
-        <f t="shared" ref="C88:C96" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D88" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
-        <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G88" s="4"/>
-      <c r="H88" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4" t="s">
-        <v>323</v>
-      </c>
+      <c r="H88" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="4"/>
+      <c r="L88" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/50")</f>
+        <v>https://github.com/hiscom/hispid/issues/50</v>
+      </c>
       <c r="M88" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
+        <v>311</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="17">
@@ -7865,21 +7890,21 @@
     </row>
     <row r="89" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C89" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D89" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
-        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>20</v>
@@ -7887,21 +7912,21 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="4" t="s">
-        <v>326</v>
-      </c>
+      <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="M89" s="4"/>
       <c r="N89" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
+        <v>317</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="17">
@@ -7911,43 +7936,43 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C90" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C90:C98" si="4">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D90" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
+        <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="H90" s="6" t="s">
+        <v>322</v>
+      </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="N90" s="4" t="s">
-        <v>479</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
@@ -7964,18 +7989,18 @@
         <v>319</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C91" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D91" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
-        <v>http://rs.tdwg.org/dwc/terms/class</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
+        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>20</v>
@@ -7984,17 +8009,17 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -8012,18 +8037,18 @@
         <v>319</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C92" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D92" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
-        <v>http://rs.tdwg.org/dwc/terms/order</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>20</v>
@@ -8032,17 +8057,17 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
@@ -8060,18 +8085,18 @@
         <v>319</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C93" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D93" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
-        <v>http://rs.tdwg.org/dwc/terms/family</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
+        <v>http://rs.tdwg.org/dwc/terms/class</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>20</v>
@@ -8080,24 +8105,20 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="P93" s="4" t="s">
-        <v>339</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="17">
@@ -8112,18 +8133,18 @@
         <v>319</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C94" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D94" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/genus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
+        <v>http://rs.tdwg.org/dwc/terms/order</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>20</v>
@@ -8132,24 +8153,20 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="P94" s="4" t="s">
-        <v>343</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="17">
@@ -8164,18 +8181,18 @@
         <v>319</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C95" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D95" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
+        <v>http://rs.tdwg.org/dwc/terms/family</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>20</v>
@@ -8184,21 +8201,23 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="O95" s="4"/>
+        <v>482</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="P95" s="4" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
@@ -8214,18 +8233,18 @@
         <v>319</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C96" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D96" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/genus</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>20</v>
@@ -8234,23 +8253,23 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -8261,21 +8280,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>703</v>
+        <v>344</v>
+      </c>
+      <c r="C97" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
+      </c>
+      <c r="D97" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>704</v>
+        <v>345</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>20</v>
@@ -8283,21 +8304,25 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="J97" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="K97" s="4" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="N97" s="4"/>
+        <v>344</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
+      <c r="P97" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="Q97" s="4"/>
-      <c r="R97" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="R97" s="4"/>
       <c r="S97" s="17">
         <v>42196</v>
       </c>
@@ -8310,18 +8335,18 @@
         <v>319</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C98" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D98" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>20</v>
@@ -8330,28 +8355,26 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q98" s="4"/>
-      <c r="R98" s="4" t="s">
-        <v>699</v>
-      </c>
+      <c r="R98" s="4"/>
       <c r="S98" s="17">
         <v>42196</v>
       </c>
@@ -8359,53 +8382,43 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C99" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
-      </c>
-      <c r="D99" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
+        <v>749</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>703</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>357</v>
+        <v>704</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>489</v>
-      </c>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
       <c r="K99" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="N99" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="O99" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="P99" s="4" t="s">
-        <v>358</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
+      <c r="R99" s="4" t="s">
+        <v>702</v>
+      </c>
       <c r="S99" s="17">
         <v>42196</v>
       </c>
@@ -8418,42 +8431,48 @@
         <v>319</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C100" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D100" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="4"/>
-      <c r="H100" s="6" t="s">
-        <v>361</v>
-      </c>
+      <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
+      <c r="R100" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="S100" s="17">
         <v>42196</v>
       </c>
@@ -8461,44 +8480,50 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C101" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D101" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
+      <c r="I101" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>489</v>
+      </c>
       <c r="K101" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>753</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
@@ -8514,46 +8539,42 @@
         <v>319</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C102" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D102" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
-        <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J102" s="4"/>
+      <c r="H102" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="K102" s="4" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="N102" s="4"/>
-      <c r="O102" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="P102" s="4" t="s">
-        <v>367</v>
-      </c>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
-      <c r="R102" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="R102" s="4"/>
       <c r="S102" s="17">
         <v>42196</v>
       </c>
@@ -8561,46 +8582,44 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C103" s="6" t="str">
-        <f t="shared" ref="C103:C132" si="4">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D103" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>370</v>
-      </c>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="N103" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
@@ -8616,44 +8635,46 @@
         <v>319</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C104" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D104" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
+        <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>370</v>
-      </c>
+      <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
+      <c r="I104" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4" t="s">
-        <v>491</v>
-      </c>
+      <c r="M104" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N104" s="4"/>
       <c r="O104" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
+      <c r="R104" s="4" t="s">
+        <v>701</v>
+      </c>
       <c r="S104" s="17">
         <v>42196</v>
       </c>
@@ -8666,18 +8687,18 @@
         <v>319</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C105" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C105:C134" si="5">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D105" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>20</v>
@@ -8694,13 +8715,13 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
@@ -8711,47 +8732,46 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>576</v>
+      <c r="B106" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="C106" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D106" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>579</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="H106" s="4"/>
-      <c r="I106" s="4" t="s">
-        <v>582</v>
-      </c>
+      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L106" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
-        <v>https://github.com/hiscom/hispid/issues/11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
+      <c r="N106" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="O106" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
@@ -8762,42 +8782,47 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>577</v>
+      <c r="B107" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="C107" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D107" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>580</v>
+        <v>376</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G107" s="4"/>
+      <c r="G107" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L107" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
-        <v>https://github.com/hiscom/hispid/issues/11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
+      <c r="N107" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="17">
@@ -8807,30 +8832,32 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C108" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D108" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>581</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>579</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+      <c r="I108" s="4" t="s">
+        <v>582</v>
+      </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
         <v>267</v>
@@ -8842,10 +8869,10 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
@@ -8858,21 +8885,21 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>380</v>
+        <v>319</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="C109" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D109" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>381</v>
+        <v>580</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>20</v>
@@ -8882,22 +8909,16 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L109" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
-        <v>https://github.com/hiscom/hispid/issues/1</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
+        <v>https://github.com/hiscom/hispid/issues/11</v>
       </c>
       <c r="M109" s="4"/>
-      <c r="N109" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="O109" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="P109" s="4" t="s">
-        <v>383</v>
-      </c>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="17">
@@ -8909,37 +8930,44 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>585</v>
+        <v>319</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="C110" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D110" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F110" s="4"/>
+        <v>581</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L110" s="6" t="s">
-        <v>747</v>
+        <v>267</v>
+      </c>
+      <c r="L110" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
+        <v>https://github.com/hiscom/hispid/issues/11</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
+      <c r="O110" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="P110" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="17">
@@ -8954,34 +8982,43 @@
         <v>764</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>586</v>
+        <v>380</v>
       </c>
       <c r="C111" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D111" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="F111" s="4"/>
+        <v>381</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L111" s="6" t="s">
-        <v>747</v>
+        <v>22</v>
+      </c>
+      <c r="L111" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
+        <v>https://github.com/hiscom/hispid/issues/1</v>
       </c>
       <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
+      <c r="N111" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="17">
@@ -8996,18 +9033,18 @@
         <v>764</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C112" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D112" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -9033,48 +9070,39 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>764</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="C113" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D113" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml</v>
-      </c>
+      <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L113" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>747</v>
+      </c>
       <c r="M113" s="4"/>
-      <c r="N113" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="O113" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="P113" s="4" t="s">
-        <v>384</v>
-      </c>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="17">
@@ -9084,55 +9112,40 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>764</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>385</v>
+        <v>587</v>
       </c>
       <c r="C114" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D114" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="H114" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="M114" s="4"/>
-      <c r="N114" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="O114" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="P114" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q114" s="4" t="s">
-        <v>494</v>
-      </c>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="17">
         <v>42196</v>
@@ -9141,44 +9154,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>764</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>389</v>
+        <v>609</v>
       </c>
       <c r="C115" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D115" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>390</v>
+        <v>595</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="H115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml</v>
+      </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L115" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/59")</f>
-        <v>https://github.com/hiscom/hispid/issues/59</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
+      <c r="N115" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="P115" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="17">
@@ -9188,47 +9205,54 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>392</v>
+        <v>764</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C116" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D116" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H116" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+      </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L116" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>750</v>
+      </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q116" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="R116" s="4"/>
       <c r="S116" s="17">
@@ -9238,49 +9262,44 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>392</v>
+        <v>764</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C117" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D117" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="4" t="s">
-        <v>399</v>
-      </c>
+      <c r="J117" s="4"/>
       <c r="K117" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L117" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="L117" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/59")</f>
+        <v>https://github.com/hiscom/hispid/issues/59</v>
+      </c>
       <c r="M117" s="4"/>
-      <c r="N117" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="O117" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="P117" s="4" t="s">
-        <v>400</v>
-      </c>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="17">
@@ -9295,18 +9314,18 @@
         <v>392</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C118" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D118" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>20</v>
@@ -9316,20 +9335,22 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q118" s="4"/>
+        <v>395</v>
+      </c>
+      <c r="Q118" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="R118" s="4"/>
       <c r="S118" s="17">
         <v>42196</v>
@@ -9343,41 +9364,43 @@
         <v>392</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C119" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D119" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
+      <c r="J119" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="K119" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
@@ -9393,18 +9416,18 @@
         <v>392</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C120" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D120" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>20</v>
@@ -9419,13 +9442,13 @@
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
@@ -9436,28 +9459,30 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C121" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D121" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -9467,13 +9492,13 @@
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
@@ -9489,18 +9514,18 @@
         <v>392</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C122" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D122" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>20</v>
@@ -9515,13 +9540,13 @@
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P122" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
@@ -9534,21 +9559,21 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C123" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D123" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>20</v>
@@ -9556,17 +9581,21 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="4" t="s">
-        <v>420</v>
-      </c>
+      <c r="J123" s="4"/>
       <c r="K123" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
+      <c r="N123" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="O123" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="P123" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="17">
@@ -9578,21 +9607,21 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D124" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>20</v>
@@ -9602,13 +9631,19 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
+      <c r="N124" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="O124" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="P124" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="17">
@@ -9623,18 +9658,18 @@
         <v>417</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C125" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D125" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>20</v>
@@ -9642,14 +9677,13 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
+      <c r="J125" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="K125" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="L125" s="6" t="str">
-        <f t="shared" ref="L125:L132" si="5">HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
-        <v>https://github.com/hiscom/hispid/issues/10</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -9668,18 +9702,18 @@
         <v>417</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C126" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D126" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>20</v>
@@ -9691,10 +9725,7 @@
       <c r="K126" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="L126" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>https://github.com/hiscom/hispid/issues/10</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -9713,21 +9744,21 @@
         <v>417</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C127" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D127" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -9737,7 +9768,7 @@
         <v>504</v>
       </c>
       <c r="L127" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L127:L134" si="6">HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M127" s="4"/>
@@ -9758,25 +9789,23 @@
         <v>417</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C128" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D128" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -9784,7 +9813,7 @@
         <v>504</v>
       </c>
       <c r="L128" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M128" s="4"/>
@@ -9800,39 +9829,36 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>417</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C129" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D129" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="G129" s="4"/>
-      <c r="H129" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
-      </c>
+      <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4" t="s">
         <v>504</v>
       </c>
       <c r="L129" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M129" s="4"/>
@@ -9848,28 +9874,30 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>417</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C130" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D130" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
@@ -9877,7 +9905,7 @@
         <v>504</v>
       </c>
       <c r="L130" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M130" s="4"/>
@@ -9893,36 +9921,39 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>417</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D131" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
+      <c r="H131" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+      </c>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4" t="s">
         <v>504</v>
       </c>
       <c r="L131" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M131" s="4"/>
@@ -9938,23 +9969,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>417</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C132" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D132" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>20</v>
@@ -9967,7 +9998,7 @@
         <v>504</v>
       </c>
       <c r="L132" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M132" s="4"/>
@@ -9985,19 +10016,21 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>539</v>
+        <v>435</v>
+      </c>
+      <c r="C133" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+      </c>
+      <c r="D133" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>564</v>
+        <v>436</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>20</v>
@@ -10007,20 +10040,18 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4" t="s">
-        <v>267</v>
+        <v>504</v>
       </c>
       <c r="L133" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/65")</f>
-        <v>https://github.com/hiscom/hispid/issues/65</v>
+        <f t="shared" si="6"/>
+        <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
-      <c r="R133" s="4" t="s">
-        <v>655</v>
-      </c>
+      <c r="R133" s="4"/>
       <c r="S133" s="17">
         <v>42196</v>
       </c>
@@ -10030,41 +10061,42 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>540</v>
+        <v>437</v>
+      </c>
+      <c r="C134" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+      </c>
+      <c r="D134" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>565</v>
+        <v>438</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L134" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="L134" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>https://github.com/hiscom/hispid/issues/10</v>
+      </c>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
-      <c r="R134" s="4" t="s">
-        <v>694</v>
-      </c>
+      <c r="R134" s="4"/>
       <c r="S134" s="17">
         <v>42196</v>
       </c>
@@ -10077,37 +10109,38 @@
         <v>575</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L135" s="4"/>
+      <c r="L135" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/65")</f>
+        <v>https://github.com/hiscom/hispid/issues/65</v>
+      </c>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
       <c r="R135" s="4" t="s">
-        <v>712</v>
+        <v>655</v>
       </c>
       <c r="S135" s="17">
         <v>42196</v>
@@ -10116,28 +10149,28 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C136" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1/")</f>
-        <v>http://purl.org/dc/elements/1.1/</v>
-      </c>
-      <c r="D136" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
-        <v>http://purl.org/dc/elements/1.1/source</v>
+        <v>537</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>540</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
@@ -10151,7 +10184,7 @@
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
       <c r="R136" s="4" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="S136" s="17">
         <v>42196</v>
@@ -10165,21 +10198,23 @@
         <v>575</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -10192,8 +10227,8 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
       <c r="Q137" s="4"/>
-      <c r="R137" s="13" t="s">
-        <v>618</v>
+      <c r="R137" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="S137" s="17">
         <v>42196</v>
@@ -10202,21 +10237,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>545</v>
+        <v>525</v>
+      </c>
+      <c r="C138" s="6" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/")</f>
+        <v>http://purl.org/dc/elements/1.1/</v>
+      </c>
+      <c r="D138" s="6" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
+        <v>http://purl.org/dc/elements/1.1/source</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>20</v>
@@ -10235,7 +10272,7 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="S138" s="17">
         <v>42196</v>
@@ -10244,21 +10281,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>20</v>
@@ -10276,8 +10313,8 @@
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
-      <c r="R139" s="4" t="s">
-        <v>680</v>
+      <c r="R139" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="S139" s="17">
         <v>42196</v>
@@ -10291,24 +10328,22 @@
         <v>575</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>529</v>
+        <v>4</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="4" t="s">
-        <v>557</v>
-      </c>
+      <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4" t="s">
@@ -10321,7 +10356,7 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="S140" s="17">
         <v>42196</v>
@@ -10335,39 +10370,35 @@
         <v>575</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G141" s="4"/>
-      <c r="H141" s="4" t="s">
-        <v>558</v>
-      </c>
+      <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L141" s="6" t="s">
-        <v>748</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="S141" s="17">
         <v>42196</v>
@@ -10381,22 +10412,24 @@
         <v>575</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
+      <c r="H142" s="4" t="s">
+        <v>557</v>
+      </c>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4" t="s">
@@ -10409,7 +10442,7 @@
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="S142" s="17">
         <v>42196</v>
@@ -10418,40 +10451,44 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
+      <c r="H143" s="4" t="s">
+        <v>558</v>
+      </c>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L143" s="4"/>
+      <c r="L143" s="6" t="s">
+        <v>748</v>
+      </c>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="S143" s="17">
         <v>42196</v>
@@ -10460,21 +10497,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>20</v>
@@ -10493,7 +10530,7 @@
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="S144" s="17">
         <v>42196</v>
@@ -10507,16 +10544,16 @@
         <v>575</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>20</v>
@@ -10535,7 +10572,7 @@
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="S145" s="17">
         <v>42196</v>
@@ -10544,21 +10581,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>20</v>
@@ -10577,7 +10614,7 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="S146" s="17">
         <v>42196</v>
@@ -10591,16 +10628,16 @@
         <v>575</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>20</v>
@@ -10619,7 +10656,7 @@
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="S147" s="17">
         <v>42196</v>
@@ -10628,21 +10665,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>612</v>
+        <v>535</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>20</v>
@@ -10661,7 +10698,7 @@
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4" t="s">
-        <v>615</v>
+        <v>714</v>
       </c>
       <c r="S148" s="17">
         <v>42196</v>
@@ -10670,47 +10707,40 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>616</v>
+        <v>536</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>619</v>
+        <v>554</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>620</v>
+        <v>574</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G149" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>622</v>
-      </c>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L149" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/60")</f>
-        <v>https://github.com/hiscom/hispid/issues/60</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
       <c r="R149" s="4" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
       <c r="S149" s="17">
         <v>42196</v>
@@ -10724,23 +10754,21 @@
         <v>575</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -10754,7 +10782,7 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="S150" s="17">
         <v>42196</v>
@@ -10763,40 +10791,47 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>630</v>
+        <v>619</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
+      <c r="G151" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>622</v>
+      </c>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L151" s="4"/>
+      <c r="L151" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/60")</f>
+        <v>https://github.com/hiscom/hispid/issues/60</v>
+      </c>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="S151" s="17">
         <v>42196</v>
@@ -10805,21 +10840,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>28</v>
@@ -10840,7 +10875,7 @@
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="4" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="S152" s="17">
         <v>42196</v>
@@ -10849,21 +10884,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>638</v>
+        <v>629</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>630</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>20</v>
@@ -10882,7 +10917,7 @@
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="4" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="S153" s="17">
         <v>42196</v>
@@ -10891,26 +10926,28 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>779</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -10924,7 +10961,7 @@
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="S154" s="17">
         <v>42196</v>
@@ -10938,16 +10975,16 @@
         <v>575</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>20</v>
@@ -10966,7 +11003,7 @@
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="4" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="S155" s="17">
         <v>42196</v>
@@ -10975,21 +11012,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>20</v>
@@ -11008,7 +11045,7 @@
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="S156" s="17">
         <v>42196</v>
@@ -11022,16 +11059,16 @@
         <v>575</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>20</v>
@@ -11050,7 +11087,7 @@
       <c r="P157" s="4"/>
       <c r="Q157" s="4"/>
       <c r="R157" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="S157" s="17">
         <v>42196</v>
@@ -11059,21 +11096,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>775</v>
+        <v>669</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>20</v>
@@ -11092,7 +11129,7 @@
       <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
       <c r="R158" s="4" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="S158" s="17">
         <v>42196</v>
@@ -11106,16 +11143,16 @@
         <v>575</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>20</v>
@@ -11134,7 +11171,7 @@
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
       <c r="R159" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="S159" s="17">
         <v>42196</v>
@@ -11143,21 +11180,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>672</v>
+        <v>775</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>20</v>
@@ -11176,7 +11213,7 @@
       <c r="P160" s="4"/>
       <c r="Q160" s="4"/>
       <c r="R160" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="S160" s="17">
         <v>42196</v>
@@ -11190,16 +11227,16 @@
         <v>575</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>20</v>
@@ -11218,7 +11255,7 @@
       <c r="P161" s="4"/>
       <c r="Q161" s="4"/>
       <c r="R161" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="S161" s="17">
         <v>42196</v>
@@ -11227,21 +11264,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>20</v>
@@ -11260,7 +11297,7 @@
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
       <c r="R162" s="4" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="S162" s="17">
         <v>42196</v>
@@ -11269,21 +11306,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>20</v>
@@ -11301,8 +11338,8 @@
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
-      <c r="R163" s="14" t="s">
-        <v>687</v>
+      <c r="R163" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="S163" s="17">
         <v>42196</v>
@@ -11311,21 +11348,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>695</v>
+        <v>656</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>20</v>
@@ -11344,7 +11381,7 @@
       <c r="P164" s="4"/>
       <c r="Q164" s="4"/>
       <c r="R164" s="4" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="S164" s="17">
         <v>42196</v>
@@ -11353,21 +11390,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>20</v>
@@ -11385,8 +11422,8 @@
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
       <c r="Q165" s="4"/>
-      <c r="R165" s="4" t="s">
-        <v>719</v>
+      <c r="R165" s="14" t="s">
+        <v>687</v>
       </c>
       <c r="S165" s="17">
         <v>42196</v>
@@ -11400,23 +11437,21 @@
         <v>575</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G166" s="4" t="s">
-        <v>723</v>
-      </c>
+      <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
@@ -11430,7 +11465,7 @@
       <c r="P166" s="4"/>
       <c r="Q166" s="4"/>
       <c r="R166" s="4" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="S166" s="17">
         <v>42196</v>
@@ -11444,16 +11479,16 @@
         <v>575</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>20</v>
@@ -11472,7 +11507,7 @@
       <c r="P167" s="4"/>
       <c r="Q167" s="4"/>
       <c r="R167" s="4" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="S167" s="17">
         <v>42196</v>
@@ -11481,26 +11516,28 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G168" s="4"/>
+      <c r="G168" s="4" t="s">
+        <v>723</v>
+      </c>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
@@ -11514,7 +11551,7 @@
       <c r="P168" s="4"/>
       <c r="Q168" s="4"/>
       <c r="R168" s="4" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="S168" s="17">
         <v>42196</v>
@@ -11528,27 +11565,23 @@
         <v>575</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G169" s="4"/>
-      <c r="H169" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4" t="s">
         <v>267</v>
@@ -11560,7 +11593,7 @@
       <c r="P169" s="4"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="4" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="S169" s="17">
         <v>42196</v>
@@ -11569,21 +11602,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>20</v>
@@ -11602,7 +11635,7 @@
       <c r="P170" s="4"/>
       <c r="Q170" s="4"/>
       <c r="R170" s="4" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="S170" s="17">
         <v>42196</v>
@@ -11611,28 +11644,32 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
+      <c r="H171" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>737</v>
+      </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4" t="s">
         <v>267</v>
@@ -11644,12 +11681,96 @@
       <c r="P171" s="4"/>
       <c r="Q171" s="4"/>
       <c r="R171" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="S171" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T171" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="S172" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T172" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="S171" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T171" s="17">
+      <c r="S173" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T173" s="17">
         <v>42196</v>
       </c>
     </row>
@@ -11657,15 +11778,15 @@
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
     <hyperlink ref="H6" r:id="rId2"/>
-    <hyperlink ref="H17" r:id="rId3" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
-    <hyperlink ref="H19" r:id="rId4"/>
-    <hyperlink ref="H88" r:id="rId5"/>
-    <hyperlink ref="H100" r:id="rId6"/>
-    <hyperlink ref="N59" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
-    <hyperlink ref="C21" r:id="rId8" display="http://rs.tdwg.org/dwc/terms"/>
-    <hyperlink ref="D21" r:id="rId9"/>
-    <hyperlink ref="C22" r:id="rId10" display="http://rs.tdwg.org/dwc/terms"/>
-    <hyperlink ref="D22" r:id="rId11"/>
+    <hyperlink ref="H19" r:id="rId3" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
+    <hyperlink ref="H21" r:id="rId4"/>
+    <hyperlink ref="H90" r:id="rId5"/>
+    <hyperlink ref="H102" r:id="rId6"/>
+    <hyperlink ref="N61" r:id="rId7" display="http://wiki.tdwg.org/twiki/bin/view/ABCD/AbcdConcept1121"/>
+    <hyperlink ref="C23" r:id="rId8" display="http://rs.tdwg.org/dwc/terms"/>
+    <hyperlink ref="D23" r:id="rId9"/>
+    <hyperlink ref="C24" r:id="rId10" display="http://rs.tdwg.org/dwc/terms"/>
+    <hyperlink ref="D24" r:id="rId11"/>
     <hyperlink ref="C7" r:id="rId12" display="http://rs.tdwg.org/ac/terms"/>
     <hyperlink ref="D7" r:id="rId13" display="http://rs.tdwg.org/ac/terms/metadataLanguage"/>
     <hyperlink ref="H7" r:id="rId14"/>
@@ -11673,92 +11794,96 @@
     <hyperlink ref="D8" r:id="rId16" display="http://ns.adobe.com/xap/1.0/rights/Owner"/>
     <hyperlink ref="C9" r:id="rId17" display="http://ns.adobe.com/xap/1.0/rights"/>
     <hyperlink ref="D9" r:id="rId18" display="http://ns.adobe.com/xap/1.0/rights/WebStatement"/>
-    <hyperlink ref="C133" r:id="rId19" display="http://purl.org/dc/elements/1.1"/>
-    <hyperlink ref="D133" r:id="rId20"/>
-    <hyperlink ref="C134" r:id="rId21" display="http://ns.adobe.com/xap/1.0"/>
-    <hyperlink ref="D134" r:id="rId22"/>
-    <hyperlink ref="C135" r:id="rId23" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D135" r:id="rId24"/>
-    <hyperlink ref="C137" r:id="rId25" display="http://purl.org/dc/terms"/>
-    <hyperlink ref="D137" r:id="rId26"/>
-    <hyperlink ref="C138" r:id="rId27" display="http://purl.org/dc/terms"/>
-    <hyperlink ref="D138" r:id="rId28"/>
-    <hyperlink ref="C139" r:id="rId29" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D139" r:id="rId30"/>
-    <hyperlink ref="C140" r:id="rId31" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D140" r:id="rId32"/>
-    <hyperlink ref="C143" r:id="rId33" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="C141" r:id="rId34" display="http://iptc.org/std/Iptc4xmpExt/2008-02-29"/>
-    <hyperlink ref="D141" r:id="rId35"/>
-    <hyperlink ref="C142" r:id="rId36" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D142" r:id="rId37"/>
-    <hyperlink ref="D143" r:id="rId38"/>
-    <hyperlink ref="C144" r:id="rId39" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D144" r:id="rId40"/>
-    <hyperlink ref="C145" r:id="rId41" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D145" r:id="rId42"/>
-    <hyperlink ref="C146" r:id="rId43" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D146" r:id="rId44"/>
-    <hyperlink ref="C147" r:id="rId45" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D147" r:id="rId46"/>
-    <hyperlink ref="H14" r:id="rId47" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
-    <hyperlink ref="L141" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
-    <hyperlink ref="D18" r:id="rId49"/>
-    <hyperlink ref="C148" r:id="rId50" display="http://purl.org/dc/terms"/>
-    <hyperlink ref="D148" r:id="rId51"/>
-    <hyperlink ref="C149" r:id="rId52" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D149" r:id="rId53"/>
-    <hyperlink ref="D150" r:id="rId54"/>
-    <hyperlink ref="C150" r:id="rId55" display="http://ns.adobe.com/xap/1.0"/>
-    <hyperlink ref="C151" r:id="rId56" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D151" r:id="rId57"/>
-    <hyperlink ref="D152" r:id="rId58"/>
-    <hyperlink ref="C152" r:id="rId59" display="http://purl.org/dc/terms"/>
-    <hyperlink ref="C153" r:id="rId60" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D153" r:id="rId61"/>
-    <hyperlink ref="D154" r:id="rId62"/>
-    <hyperlink ref="C154" r:id="rId63" display="http://purl.org/dc/terms"/>
-    <hyperlink ref="C159" r:id="rId64" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D157" r:id="rId65"/>
-    <hyperlink ref="C157" r:id="rId66" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D159" r:id="rId67"/>
-    <hyperlink ref="D158" r:id="rId68"/>
-    <hyperlink ref="C158" r:id="rId69"/>
-    <hyperlink ref="D156" r:id="rId70"/>
-    <hyperlink ref="C156" r:id="rId71"/>
-    <hyperlink ref="D155" r:id="rId72"/>
-    <hyperlink ref="C155" r:id="rId73"/>
-    <hyperlink ref="D160" r:id="rId74"/>
-    <hyperlink ref="C160" r:id="rId75" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D161" r:id="rId76"/>
-    <hyperlink ref="C161" r:id="rId77" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D162" r:id="rId78"/>
-    <hyperlink ref="C162" r:id="rId79" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="C163" r:id="rId80" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D163" r:id="rId81"/>
-    <hyperlink ref="C164" r:id="rId82" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D164" r:id="rId83"/>
-    <hyperlink ref="D97" r:id="rId84"/>
-    <hyperlink ref="C97" r:id="rId85" display="http://rs.tdwg.org/dwc/terms"/>
-    <hyperlink ref="C165" r:id="rId86" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D165" r:id="rId87"/>
-    <hyperlink ref="C166" r:id="rId88" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D166" r:id="rId89"/>
-    <hyperlink ref="D167" r:id="rId90"/>
-    <hyperlink ref="C167" r:id="rId91" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="C168" r:id="rId92" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D168" r:id="rId93"/>
-    <hyperlink ref="C169" r:id="rId94" display="http://purl.org/dc/elements/1.1"/>
-    <hyperlink ref="D169" r:id="rId95"/>
-    <hyperlink ref="C170" r:id="rId96" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D170" r:id="rId97"/>
-    <hyperlink ref="C171" r:id="rId98" display="http://rs.tdwg.org/ac/terms"/>
-    <hyperlink ref="D171" r:id="rId99"/>
-    <hyperlink ref="L114" r:id="rId100"/>
-    <hyperlink ref="L101" r:id="rId101"/>
+    <hyperlink ref="C135" r:id="rId19" display="http://purl.org/dc/elements/1.1"/>
+    <hyperlink ref="D135" r:id="rId20"/>
+    <hyperlink ref="C136" r:id="rId21" display="http://ns.adobe.com/xap/1.0"/>
+    <hyperlink ref="D136" r:id="rId22"/>
+    <hyperlink ref="C137" r:id="rId23" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D137" r:id="rId24"/>
+    <hyperlink ref="C139" r:id="rId25" display="http://purl.org/dc/terms"/>
+    <hyperlink ref="D139" r:id="rId26"/>
+    <hyperlink ref="C140" r:id="rId27" display="http://purl.org/dc/terms"/>
+    <hyperlink ref="D140" r:id="rId28"/>
+    <hyperlink ref="C141" r:id="rId29" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D141" r:id="rId30"/>
+    <hyperlink ref="C142" r:id="rId31" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D142" r:id="rId32"/>
+    <hyperlink ref="C145" r:id="rId33" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="C143" r:id="rId34" display="http://iptc.org/std/Iptc4xmpExt/2008-02-29"/>
+    <hyperlink ref="D143" r:id="rId35"/>
+    <hyperlink ref="C144" r:id="rId36" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D144" r:id="rId37"/>
+    <hyperlink ref="D145" r:id="rId38"/>
+    <hyperlink ref="C146" r:id="rId39" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D146" r:id="rId40"/>
+    <hyperlink ref="C147" r:id="rId41" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D147" r:id="rId42"/>
+    <hyperlink ref="C148" r:id="rId43" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D148" r:id="rId44"/>
+    <hyperlink ref="C149" r:id="rId45" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D149" r:id="rId46"/>
+    <hyperlink ref="H16" r:id="rId47" display="https://github.com/hiscom/hispid-review-2014-15/issues/22"/>
+    <hyperlink ref="L143" r:id="rId48" display="https://www.google.com/url?q=https%3A%2F%2Fgithub.com%2Fhiscom%2Fhispid-review-2014-15%2Fissues%2F5&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNHeqJd4V7be2Ny-Dge3p9KxCsLqgg"/>
+    <hyperlink ref="D20" r:id="rId49"/>
+    <hyperlink ref="C150" r:id="rId50" display="http://purl.org/dc/terms"/>
+    <hyperlink ref="D150" r:id="rId51"/>
+    <hyperlink ref="C151" r:id="rId52" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D151" r:id="rId53"/>
+    <hyperlink ref="D152" r:id="rId54"/>
+    <hyperlink ref="C152" r:id="rId55" display="http://ns.adobe.com/xap/1.0"/>
+    <hyperlink ref="C153" r:id="rId56" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D153" r:id="rId57"/>
+    <hyperlink ref="D154" r:id="rId58"/>
+    <hyperlink ref="C154" r:id="rId59" display="http://purl.org/dc/terms"/>
+    <hyperlink ref="C155" r:id="rId60" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D155" r:id="rId61"/>
+    <hyperlink ref="D156" r:id="rId62"/>
+    <hyperlink ref="C156" r:id="rId63" display="http://purl.org/dc/terms"/>
+    <hyperlink ref="C161" r:id="rId64" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D159" r:id="rId65"/>
+    <hyperlink ref="C159" r:id="rId66" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D161" r:id="rId67"/>
+    <hyperlink ref="D160" r:id="rId68"/>
+    <hyperlink ref="C160" r:id="rId69"/>
+    <hyperlink ref="D158" r:id="rId70"/>
+    <hyperlink ref="C158" r:id="rId71"/>
+    <hyperlink ref="D157" r:id="rId72"/>
+    <hyperlink ref="C157" r:id="rId73"/>
+    <hyperlink ref="D162" r:id="rId74"/>
+    <hyperlink ref="C162" r:id="rId75" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D163" r:id="rId76"/>
+    <hyperlink ref="C163" r:id="rId77" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D164" r:id="rId78"/>
+    <hyperlink ref="C164" r:id="rId79" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="C165" r:id="rId80" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D165" r:id="rId81"/>
+    <hyperlink ref="C166" r:id="rId82" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D166" r:id="rId83"/>
+    <hyperlink ref="D99" r:id="rId84"/>
+    <hyperlink ref="C99" r:id="rId85" display="http://rs.tdwg.org/dwc/terms"/>
+    <hyperlink ref="C167" r:id="rId86" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D167" r:id="rId87"/>
+    <hyperlink ref="C168" r:id="rId88" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D168" r:id="rId89"/>
+    <hyperlink ref="D169" r:id="rId90"/>
+    <hyperlink ref="C169" r:id="rId91" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="C170" r:id="rId92" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D170" r:id="rId93"/>
+    <hyperlink ref="C171" r:id="rId94" display="http://purl.org/dc/elements/1.1"/>
+    <hyperlink ref="D171" r:id="rId95"/>
+    <hyperlink ref="C172" r:id="rId96" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D172" r:id="rId97"/>
+    <hyperlink ref="C173" r:id="rId98" display="http://rs.tdwg.org/ac/terms"/>
+    <hyperlink ref="D173" r:id="rId99"/>
+    <hyperlink ref="L116" r:id="rId100"/>
+    <hyperlink ref="L103" r:id="rId101"/>
+    <hyperlink ref="D10" r:id="rId102"/>
+    <hyperlink ref="D11" r:id="rId103"/>
+    <hyperlink ref="L10" r:id="rId104"/>
+    <hyperlink ref="L11" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>
 

--- a/HISPID2015.xlsx
+++ b/HISPID2015.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="804">
   <si>
     <t>group</t>
   </si>
@@ -281,18 +281,6 @@
   </si>
   <si>
     <t>Type of association</t>
-  </si>
-  <si>
-    <t>To be used in combination with hispid:associatedTaxon to make up list for associatedTaxa</t>
-  </si>
-  <si>
-    <t>associatedTaxon</t>
-  </si>
-  <si>
-    <t>Nameof associated taxon</t>
-  </si>
-  <si>
-    <t>To be used in combination with hispid:associationType to make up list for associatedTaxa</t>
   </si>
   <si>
     <t>associatedSequences</t>
@@ -1841,9 +1829,6 @@
     <t>"Tansley (1946) scale"</t>
   </si>
   <si>
-    <t>organismQuantityType  must be delivered alongside this term.</t>
-  </si>
-  <si>
     <t>The type of entity to which the number or enumeration value reported for the quantity of organisms in organismQuantity refers</t>
   </si>
   <si>
@@ -2412,6 +2397,45 @@
   </si>
   <si>
     <t>"Coordinates generalized from original GPS coordinates to the nearest half degree grid cell".</t>
+  </si>
+  <si>
+    <t>parentEventID</t>
+  </si>
+  <si>
+    <t>An identifier for the broader Event that groups this and potentially other Events.</t>
+  </si>
+  <si>
+    <t>To be used in combination with dwc:Taxon to make up list for associatedTaxa</t>
+  </si>
+  <si>
+    <t>Could potentially be used for dwc:associatedOccurrences as well, in combination with a dwc:Occurrence.</t>
+  </si>
+  <si>
+    <t>eventID</t>
+  </si>
+  <si>
+    <t>An identifier for the set of information associated with an Event (something that occurs at a place and time).</t>
+  </si>
+  <si>
+    <t>May be a global unique identifier or an identifier specific to the data set.</t>
+  </si>
+  <si>
+    <t>May be a global unique identifier or an identifier specific to the data set. Must be an existing EventID. Could be used for collecting trips and expeditions.</t>
+  </si>
+  <si>
+    <t>//Unit/Gathering/Code</t>
+  </si>
+  <si>
+    <t>//Unit/InformationWithheld</t>
+  </si>
+  <si>
+    <t>//Unit/UnitGUID</t>
+  </si>
+  <si>
+    <t>Darwin Core maps occurrenceRemarks to abcd://Unit/Notes and eventRemarks to abcd://Unit/Gathering/Remarks, but botanical collecting notes often contain descriptive notes, which relate to a taxon and hence semantically fit better in occurrenceRemarks. At the same time, they fit better in abcd://Unit/Gathering/Notes, to which they were mapped in HISPID 5, in order to distinguish between notes made by the collector in the field and which refer to the Occurrence and annotations that are made in the herbarium and which refer to the PreservedSpecimen, i.e. abcd://Unit/Notes or HISPID Miscellaneous Notes (misc).</t>
+  </si>
+  <si>
+    <t>organismQuantityType  must be delivered alongside this term. Note that this is a considerable deviation from earlier versions of HISPID, where Frequency was a free text field.</t>
   </si>
 </sst>
 </file>
@@ -2954,7 +2978,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3006,6 +3030,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3328,13 +3364,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T173"/>
+  <dimension ref="A1:T174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,10 +3449,10 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>26</v>
@@ -3457,7 +3493,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>23</v>
@@ -3498,10 +3534,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>22</v>
@@ -3511,7 +3547,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -3551,7 +3587,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>22</v>
@@ -3561,7 +3597,7 @@
         <v>26</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>30</v>
@@ -3571,7 +3607,7 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="S4" s="17">
         <v>42196</v>
@@ -3620,7 +3656,7 @@
         <v>31</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>35</v>
@@ -3642,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/")</f>
@@ -3667,7 +3703,7 @@
         <v>39</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
@@ -3678,7 +3714,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="S6" s="17">
         <v>42196</v>
@@ -3692,7 +3728,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/")</f>
@@ -3703,34 +3739,34 @@
         <v>http://purl.org/dc/terms/language</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="S7" s="17">
         <v>42196</v>
@@ -3744,7 +3780,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/")</f>
@@ -3755,7 +3791,7 @@
         <v>http://purl.org/dc/terms/rightsHolder</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -3765,7 +3801,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -3774,7 +3810,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="S8" s="17">
         <v>42196</v>
@@ -3788,7 +3824,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>HYPERLINK("http://purl.org/dc/terms/")</f>
@@ -3799,7 +3835,7 @@
         <v>http://purl.org/dc/terms/license</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -3808,10 +3844,10 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -3820,7 +3856,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="S9" s="17">
         <v>42196</v>
@@ -3834,17 +3870,17 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" ref="C10:C11" si="0">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -3853,18 +3889,20 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="8" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="N10" s="4"/>
+        <v>782</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>800</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -3881,17 +3919,17 @@
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -3900,16 +3938,16 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3945,7 +3983,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -3962,7 +4000,9 @@
       <c r="M12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>801</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -4009,7 +4049,7 @@
         <v>44</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>47</v>
@@ -4052,7 +4092,7 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="9" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>51</v>
@@ -4068,7 +4108,7 @@
         <v>48</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>52</v>
@@ -4118,7 +4158,7 @@
         <v>53</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>55</v>
@@ -4151,7 +4191,7 @@
         <v>http://rs.tdwg.org/dwc/terms/preparations</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>20</v>
@@ -4163,7 +4203,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>22</v>
@@ -4176,7 +4216,7 @@
         <v>56</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>57</v>
@@ -4186,7 +4226,7 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="S16" s="17">
         <v>42196</v>
@@ -4221,7 +4261,7 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
@@ -4232,7 +4272,7 @@
         <v>58</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>61</v>
@@ -4249,7 +4289,7 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
@@ -4274,7 +4314,9 @@
         <v>64</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>802</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
         <v>22</v>
@@ -4287,7 +4329,7 @@
         <v>62</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>65</v>
@@ -4304,7 +4346,7 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -4326,20 +4368,20 @@
         <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H19" s="6" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/organism_quantity.xml</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>605</v>
+        <v>803</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L19" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
@@ -4349,7 +4391,7 @@
         <v>66</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>69</v>
@@ -4358,7 +4400,7 @@
         <v>69</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="17">
@@ -4373,17 +4415,17 @@
         <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
@@ -4392,17 +4434,17 @@
       <c r="H20" s="6"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L20" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/22")</f>
         <v>https://github.com/hiscom/hispid/issues/22</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -4454,16 +4496,16 @@
         <v>70</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="17">
@@ -4514,7 +4556,7 @@
         <v>76</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="17">
@@ -4529,16 +4571,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>20</v>
@@ -4551,21 +4593,21 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L23" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/18")</f>
         <v>https://github.com/hiscom/hispid/issues/18</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="S23" s="17">
         <v>42196</v>
@@ -4579,16 +4621,16 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
@@ -4598,23 +4640,23 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L24" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/34")</f>
         <v>https://github.com/hiscom/hispid/issues/34</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="S24" s="17">
         <v>42196</v>
@@ -4664,7 +4706,7 @@
         <v>77</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>80</v>
@@ -4673,7 +4715,7 @@
         <v>80</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="17">
@@ -4707,7 +4749,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>83</v>
@@ -4723,7 +4765,7 @@
         <v>81</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>84</v>
@@ -4762,16 +4804,18 @@
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>87</v>
+        <v>793</v>
       </c>
       <c r="H27" s="6" t="str">
         <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml")</f>
         <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/association_type.xml</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>794</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L27" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/33")</f>
@@ -4790,39 +4834,44 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
-      </c>
-      <c r="D28" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/associationTaxon")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/associationTaxon</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L28" s="4"/>
+        <v>500</v>
+      </c>
+      <c r="L28" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/32")</f>
+        <v>https://github.com/hiscom/hispid/issues/32</v>
+      </c>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -4834,44 +4883,42 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>91</v>
+        <v>507</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D29" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/associatedSequences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/associatedSequences</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/disposition")</f>
+        <v>http://rs.tdwg.org/dwc/terms/disposition</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>508</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>509</v>
+      </c>
       <c r="K29" s="4" t="s">
-        <v>504</v>
+        <v>263</v>
       </c>
       <c r="L29" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/32")</f>
-        <v>https://github.com/hiscom/hispid/issues/32</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/15")</f>
+        <v>https://github.com/hiscom/hispid/issues/15</v>
       </c>
       <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>459</v>
-      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -4883,123 +4930,119 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>511</v>
+        <v>795</v>
       </c>
       <c r="C30" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/disposition")</f>
-        <v>http://rs.tdwg.org/dwc/terms/disposition</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="4"/>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/eventID</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>797</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4" t="s">
-        <v>513</v>
-      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L30" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/15")</f>
-        <v>https://github.com/hiscom/hispid/issues/15</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
+        <v>https://github.com/hiscom/hispid/issues/2</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>799</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T30" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>94</v>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>95</v>
+        <v>791</v>
       </c>
       <c r="C31" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/habitat")</f>
-        <v>http://rs.tdwg.org/dwc/terms/habitat</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>96</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/parentEventID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/parentEventID</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>792</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>798</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="L31" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
-        <v>https://github.com/hiscom/hispid/issues/23</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/75")</f>
+        <v>https://github.com/hiscom/hispid/issues/75</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="17">
-        <v>42196</v>
+        <v>42204</v>
       </c>
       <c r="T31" s="17">
-        <v>42196</v>
+        <v>42204</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C32" s="6" t="str">
-        <f t="shared" ref="C32:C37" si="2">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D32" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/topography")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/topography</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/habitat")</f>
+        <v>http://rs.tdwg.org/dwc/terms/habitat</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>20</v>
@@ -5009,21 +5052,23 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="L32" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
         <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
-      <c r="M32" s="4"/>
+      <c r="M32" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="N32" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -5036,21 +5081,21 @@
     </row>
     <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C33:C38" si="2">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D33" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/topography")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/topography</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>20</v>
@@ -5068,13 +5113,13 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -5087,21 +5132,21 @@
     </row>
     <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D34" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/aspect")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/aspect</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>20</v>
@@ -5119,17 +5164,15 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>460</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="17">
         <v>42196</v>
@@ -5140,21 +5183,21 @@
     </row>
     <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D35" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/geologicalSubstrate</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>20</v>
@@ -5167,16 +5210,22 @@
         <v>75</v>
       </c>
       <c r="L35" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/14")</f>
-        <v>https://github.com/hiscom/hispid/issues/14</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
+        <v>https://github.com/hiscom/hispid/issues/23</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>456</v>
+      </c>
       <c r="R35" s="4"/>
       <c r="S35" s="17">
         <v>42196</v>
@@ -5187,21 +5236,21 @@
     </row>
     <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/substrate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/substrate</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>20</v>
@@ -5214,22 +5263,16 @@
         <v>75</v>
       </c>
       <c r="L36" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
-        <v>https://github.com/hiscom/hispid/issues/23</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/14")</f>
+        <v>https://github.com/hiscom/hispid/issues/14</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="17">
         <v>42196</v>
@@ -5240,21 +5283,21 @@
     </row>
     <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C37" s="6" t="str">
         <f t="shared" si="2"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D37" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/soil")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/soil</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>20</v>
@@ -5272,16 +5315,16 @@
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R37" s="4"/>
       <c r="S37" s="17">
@@ -5291,55 +5334,52 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f t="shared" si="2"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D38" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/vegetation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/vegetation</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>592</v>
+        <v>114</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="L38" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/23")</f>
+        <v>https://github.com/hiscom/hispid/issues/23</v>
+      </c>
+      <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>463</v>
+        <v>115</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>464</v>
+        <v>116</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4" t="s">
-        <v>693</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="R38" s="4"/>
       <c r="S38" s="17">
         <v>42196</v>
       </c>
@@ -5349,71 +5389,77 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C39" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D39" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/eventDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/eventDate</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="S39" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T39" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
+      </c>
+      <c r="D40" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimEventDate")</f>
         <v>http://rs.tdwg.org/dwc/terms/verbatimEventDate</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T39" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="C40" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
-      </c>
-      <c r="D40" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/collectingTrip")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/collectingTrip</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>752</v>
+        <v>122</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>20</v>
@@ -5422,15 +5468,22 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/8")</f>
-        <v>https://github.com/hiscom/hispid/issues/8</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="17">
@@ -5442,21 +5495,21 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>130</v>
+        <v>746</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f t="shared" ref="C41:C66" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D41" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/locality</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/collectingTrip")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/collectingTrip</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>131</v>
+        <v>747</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>20</v>
@@ -5465,22 +5518,15 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/8")</f>
+        <v>https://github.com/hiscom/hispid/issues/8</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="17">
@@ -5490,53 +5536,49 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C42" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C42:C67" si="3">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D42" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/locality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/locality</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q42" s="4"/>
-      <c r="R42" s="4" t="s">
-        <v>692</v>
-      </c>
+      <c r="R42" s="4"/>
       <c r="S42" s="17">
         <v>42196</v>
       </c>
@@ -5544,47 +5586,53 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C43" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D43" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
-        <v>http://rs.tdwg.org/dwc/terms/continent</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLocality")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLocality</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
+      <c r="R43" s="4" t="s">
+        <v>687</v>
+      </c>
       <c r="S43" s="17">
         <v>42196</v>
       </c>
@@ -5594,53 +5642,45 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C44" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D44" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
-        <v>http://rs.tdwg.org/dwc/terms/country</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/continent")</f>
+        <v>http://rs.tdwg.org/dwc/terms/continent</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="13" t="s">
-        <v>607</v>
-      </c>
+      <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="4" t="s">
-        <v>690</v>
-      </c>
+      <c r="R44" s="4"/>
       <c r="S44" s="17">
         <v>42196</v>
       </c>
@@ -5650,52 +5690,52 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C45" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D45" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/country")</f>
+        <v>http://rs.tdwg.org/dwc/terms/country</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="I45" s="13" t="s">
+        <v>602</v>
+      </c>
       <c r="J45" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="S45" s="17">
         <v>42196</v>
@@ -5704,54 +5744,54 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C46" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D46" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
-        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/countryCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/countryCode</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>465</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="Q46" s="4"/>
       <c r="R46" s="4" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="S46" s="17">
         <v>42196</v>
@@ -5762,21 +5802,21 @@
     </row>
     <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C47" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D47" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
-        <v>http://rs.tdwg.org/dwc/terms/county</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/stateProvince")</f>
+        <v>http://rs.tdwg.org/dwc/terms/stateProvince</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>20</v>
@@ -5785,26 +5825,30 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>686</v>
+      </c>
       <c r="S47" s="17">
         <v>42196</v>
       </c>
@@ -5812,23 +5856,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C48" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D48" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
-        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/county")</f>
+        <v>http://rs.tdwg.org/dwc/terms/county</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>20</v>
@@ -5837,23 +5881,24 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L48" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
-        <v>https://github.com/hiscom/hispid/issues/21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="17">
@@ -5865,21 +5910,21 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C49" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D49" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
-        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/waterBody")</f>
+        <v>http://rs.tdwg.org/dwc/terms/waterBody</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>20</v>
@@ -5888,20 +5933,20 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L49" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
         <v>https://github.com/hiscom/hispid/issues/21</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -5916,21 +5961,21 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C50" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D50" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
-        <v>http://rs.tdwg.org/dwc/terms/island</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/islandGroup")</f>
+        <v>http://rs.tdwg.org/dwc/terms/islandGroup</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>20</v>
@@ -5939,20 +5984,20 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L50" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
         <v>https://github.com/hiscom/hispid/issues/21</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -5967,40 +6012,43 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C51" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D51" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/island")</f>
+        <v>http://rs.tdwg.org/dwc/terms/island</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" s="4"/>
+        <v>500</v>
+      </c>
+      <c r="L51" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/21")</f>
+        <v>https://github.com/hiscom/hispid/issues/21</v>
+      </c>
       <c r="M51" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -6015,40 +6063,40 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C52" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D52" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLatitude</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -6061,49 +6109,45 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C53" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D53" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/decimalLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/decimalLongitude</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O53" s="4"/>
-      <c r="P53" s="4" t="s">
-        <v>608</v>
-      </c>
+      <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="17">
@@ -6113,50 +6157,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C54" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D54" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/geodeticDatum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/geodeticDatum</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O54" s="4"/>
       <c r="P54" s="4" t="s">
-        <v>193</v>
+        <v>603</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
@@ -6169,48 +6211,48 @@
     </row>
     <row r="55" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C55" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D55" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLatitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLatitude</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -6221,48 +6263,50 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C56" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D56" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimLongitude")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimLongitude</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="O56" s="4"/>
+        <v>193</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="P56" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
@@ -6273,48 +6317,49 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C57" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D57" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinates")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinates</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H57" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>746</v>
+        <v>198</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N57" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
+      <c r="P57" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="17">
@@ -6324,49 +6369,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C58" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D58" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimCoordinateSystem</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H58" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="H58" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/verbatim_coordinate_system.xml</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>211</v>
+        <v>741</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="17">
@@ -6376,43 +6420,49 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C59" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D59" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
-        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimSRS")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimSRS</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
+      <c r="O59" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="17">
@@ -6422,49 +6472,43 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C60" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D60" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinatePrecision")</f>
+        <v>http://rs.tdwg.org/dwc/terms/coordinatePrecision</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="K60" s="4" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>221</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="17">
@@ -6474,51 +6518,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C61" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D61" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="I61" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L61" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
-        <v>https://github.com/hiscom/hispid/issues/13</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>466</v>
+        <v>216</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
@@ -6531,21 +6572,21 @@
     </row>
     <row r="62" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C62" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D62" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferencedBy</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>20</v>
@@ -6554,26 +6595,26 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="L62" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
         <v>https://github.com/hiscom/hispid/issues/13</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>229</v>
+        <v>462</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
@@ -6584,45 +6625,52 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C63" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D63" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceProtocol")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceProtocol</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>593</v>
+        <v>223</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+      <c r="J63" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="K63" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L63" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="L63" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/13")</f>
+        <v>https://github.com/hiscom/hispid/issues/13</v>
+      </c>
       <c r="M63" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="17">
@@ -6632,40 +6680,42 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C64" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D64" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferencedDate")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferencedDate</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>233</v>
+        <v>463</v>
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -6680,46 +6730,38 @@
     </row>
     <row r="65" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C65" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D65" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceSources")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceSources</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>235</v>
+        <v>590</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H65" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
-      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L65" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/19")</f>
-        <v>https://github.com/hiscom/hispid/issues/19</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -6732,40 +6774,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C66" s="6" t="str">
         <f t="shared" si="3"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D66" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceVerificationStatus</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H66" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/georeference_verification_status.xml</v>
+      </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L66" s="4"/>
+        <v>500</v>
+      </c>
+      <c r="L66" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/19")</f>
+        <v>https://github.com/hiscom/hispid/issues/19</v>
+      </c>
       <c r="M66" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -6778,47 +6828,43 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C67" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f t="shared" si="3"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D67" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/georeferenceRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/georeferenceRemarks</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4" t="s">
-        <v>469</v>
-      </c>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="M67" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="N67" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>242</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="17">
@@ -6828,46 +6874,46 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C68" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D68" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/nearestNamedPlace</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="I68" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="M68" s="4"/>
       <c r="N68" s="4" t="s">
-        <v>245</v>
+        <v>464</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
@@ -6880,24 +6926,24 @@
     </row>
     <row r="69" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C69" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D69" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumElevationInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/minimumElevationInMeters</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -6908,16 +6954,16 @@
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>470</v>
+        <v>241</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -6928,43 +6974,47 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C70" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D70" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumElevationInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/maximumElevationInMeters</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
+        <v>466</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="17">
@@ -6974,46 +7024,43 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C71" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D71" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimElevation")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimElevation</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
-      </c>
+      <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="M71" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="17">
@@ -7025,44 +7072,43 @@
     </row>
     <row r="72" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C72" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D72" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/elevationMethod")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/elevationMethod</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="H72" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/elevation_method.xml</v>
+      </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
       <c r="O72" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
@@ -7075,24 +7121,24 @@
     </row>
     <row r="73" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C73" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D73" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
-        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/minimumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/minimumDepthInMeters</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -7103,16 +7149,16 @@
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
@@ -7123,43 +7169,47 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C74" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D74" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
-        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/maximumDepthInMeters")</f>
+        <v>http://rs.tdwg.org/dwc/terms/maximumDepthInMeters</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="17">
@@ -7171,42 +7221,39 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C75" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D75" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/verbatimDepth")</f>
+        <v>http://rs.tdwg.org/dwc/terms/verbatimDepth</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L75" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
-        <v>https://github.com/hiscom/hispid/issues/2</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="N75" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
@@ -7218,51 +7265,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C76" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D76" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationID")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationID</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L76" s="4"/>
+      <c r="L76" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/2")</f>
+        <v>https://github.com/hiscom/hispid/issues/2</v>
+      </c>
       <c r="M76" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="P76" s="4" t="s">
-        <v>275</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
-      <c r="R76" s="4" t="s">
-        <v>700</v>
-      </c>
+      <c r="R76" s="4"/>
       <c r="S76" s="17">
         <v>42196</v>
       </c>
@@ -7270,23 +7314,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="C77" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D77" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationQualifier")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationQualifier</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>20</v>
@@ -7300,65 +7344,66 @@
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="S77" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T77" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T77" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="C78" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D78" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identificationQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identificationQualifier</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
-      </c>
+      <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="M78" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N78" s="4"/>
       <c r="O78" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
@@ -7371,47 +7416,45 @@
     </row>
     <row r="79" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C79" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D79" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/nameAddendum")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/nameAddendum</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>591</v>
+        <v>276</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="H79" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/name_addendum.xml</v>
+      </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L79" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
-        <v>https://github.com/hiscom/hispid/issues/16</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>283</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>471</v>
+        <v>277</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
@@ -7424,48 +7467,47 @@
     </row>
     <row r="80" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D80" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationVerificationStatus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationVerificationStatus</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>286</v>
+        <v>587</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
-      </c>
+      <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="L80" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/31")</f>
-        <v>https://github.com/hiscom/hispid/issues/31</v>
-      </c>
-      <c r="M80" s="4"/>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
+        <v>https://github.com/hiscom/hispid/issues/16</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="N80" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
@@ -7476,51 +7518,53 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D81" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/identifierRole")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/identifierRole</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="H81" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/identifier_role.xml</v>
+      </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4" t="s">
-        <v>288</v>
-      </c>
+      <c r="L81" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/31")</f>
+        <v>https://github.com/hiscom/hispid/issues/31</v>
+      </c>
+      <c r="M81" s="4"/>
       <c r="N81" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q81" s="4"/>
-      <c r="R81" s="4" t="s">
-        <v>705</v>
-      </c>
+      <c r="R81" s="4"/>
       <c r="S81" s="17">
         <v>42196</v>
       </c>
@@ -7530,24 +7574,24 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C82" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D82" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
-        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identifiedBy")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identifiedBy</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -7558,20 +7602,20 @@
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q82" s="4"/>
       <c r="R82" s="4" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="S82" s="17">
         <v>42196</v>
@@ -7582,24 +7626,24 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C83" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D83" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/dateIdentified")</f>
+        <v>http://rs.tdwg.org/dwc/terms/dateIdentified</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -7609,18 +7653,22 @@
         <v>22</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="M83" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="N83" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
+      <c r="R83" s="4" t="s">
+        <v>701</v>
+      </c>
       <c r="S83" s="17">
         <v>42196</v>
       </c>
@@ -7630,21 +7678,21 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C84" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D84" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/verbatimDateIdentified</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>20</v>
@@ -7656,19 +7704,16 @@
       <c r="K84" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L84" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
-        <v>https://github.com/hiscom/hispid/issues/16</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="N84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="O84" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
@@ -7679,48 +7724,47 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C85" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
-        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationReferences")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationReferences</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L85" s="4"/>
+      <c r="L85" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/16")</f>
+        <v>https://github.com/hiscom/hispid/issues/16</v>
+      </c>
       <c r="M85" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="N85" s="4" t="s">
-        <v>476</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N85" s="4"/>
       <c r="O85" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
@@ -7731,28 +7775,30 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C86" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D86" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/previousIdentifications")</f>
+        <v>http://rs.tdwg.org/dwc/terms/previousIdentifications</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -7761,14 +7807,16 @@
       </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="O86" s="4"/>
+        <v>472</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="P86" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
@@ -7779,47 +7827,44 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C87" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D87" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/identificationRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/identificationRemarks</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="4"/>
-      <c r="H87" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
-      </c>
+      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
+      <c r="M87" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="N87" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>310</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O87" s="4"/>
       <c r="P87" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
@@ -7830,54 +7875,47 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C88" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D88" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatusQualifier</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>506</v>
-      </c>
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status_qualifier.xml</v>
+      </c>
+      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/50")</f>
-        <v>https://github.com/hiscom/hispid/issues/50</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>311</v>
-      </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
@@ -7888,44 +7926,54 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C89" s="6" t="str">
         <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D89" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typeStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typeStatus</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+      <c r="H89" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/type_status.xml</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>502</v>
+      </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
+      <c r="L89" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/50")</f>
+        <v>https://github.com/hiscom/hispid/issues/50</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="N89" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
@@ -7936,45 +7984,45 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C90" s="6" t="str">
-        <f t="shared" ref="C90:C98" si="4">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D90" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
-        <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/typifiedName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/typifiedName</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="6" t="s">
-        <v>322</v>
-      </c>
+      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="4" t="s">
-        <v>323</v>
-      </c>
+      <c r="J90" s="4"/>
       <c r="K90" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="17">
@@ -7984,43 +8032,43 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C91" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C91:C99" si="4">HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D91" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
-        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRank")</f>
+        <v>http://rs.tdwg.org/dwc/terms/taxonRank</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="H91" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>478</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
@@ -8034,21 +8082,21 @@
     </row>
     <row r="92" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C92" s="6" t="str">
         <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D92" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
-        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/kingdom")</f>
+        <v>http://rs.tdwg.org/dwc/terms/kingdom</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>20</v>
@@ -8057,17 +8105,17 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
@@ -8082,21 +8130,21 @@
     </row>
     <row r="93" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C93" s="6" t="str">
         <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D93" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
-        <v>http://rs.tdwg.org/dwc/terms/class</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/phylum")</f>
+        <v>http://rs.tdwg.org/dwc/terms/phylum</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>20</v>
@@ -8105,17 +8153,17 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -8130,21 +8178,21 @@
     </row>
     <row r="94" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C94" s="6" t="str">
         <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D94" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
-        <v>http://rs.tdwg.org/dwc/terms/order</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/class")</f>
+        <v>http://rs.tdwg.org/dwc/terms/class</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>20</v>
@@ -8153,17 +8201,17 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
@@ -8178,21 +8226,21 @@
     </row>
     <row r="95" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C95" s="6" t="str">
         <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D95" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
-        <v>http://rs.tdwg.org/dwc/terms/family</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/order")</f>
+        <v>http://rs.tdwg.org/dwc/terms/order</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>20</v>
@@ -8201,24 +8249,20 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="O95" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="P95" s="4" t="s">
-        <v>339</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="17">
@@ -8230,21 +8274,21 @@
     </row>
     <row r="96" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C96" s="6" t="str">
         <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D96" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
-        <v>http://rs.tdwg.org/dwc/terms/genus</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/family")</f>
+        <v>http://rs.tdwg.org/dwc/terms/family</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>20</v>
@@ -8253,23 +8297,23 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -8282,21 +8326,21 @@
     </row>
     <row r="97" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C97" s="6" t="str">
         <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D97" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/genus")</f>
+        <v>http://rs.tdwg.org/dwc/terms/genus</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>20</v>
@@ -8305,21 +8349,23 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="O97" s="4"/>
+        <v>479</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="P97" s="4" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
@@ -8332,21 +8378,21 @@
     </row>
     <row r="98" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C98" s="6" t="str">
         <f t="shared" si="4"/>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D98" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
-        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/specificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/specificEpithet</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>20</v>
@@ -8355,23 +8401,21 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="O98" s="4" t="s">
-        <v>351</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="O98" s="4"/>
       <c r="P98" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
@@ -8382,21 +8426,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>703</v>
+        <v>344</v>
+      </c>
+      <c r="C99" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
+      </c>
+      <c r="D99" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/infraspecificEpithet")</f>
+        <v>http://rs.tdwg.org/dwc/terms/infraspecificEpithet</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>704</v>
+        <v>345</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>20</v>
@@ -8404,21 +8450,27 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="J99" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="K99" s="4" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
+        <v>344</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="Q99" s="4"/>
-      <c r="R99" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="R99" s="4"/>
       <c r="S99" s="17">
         <v>42196</v>
       </c>
@@ -8426,23 +8478,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C100" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
-        <v>http://rs.tdwg.org/dwc/terms/</v>
-      </c>
-      <c r="D100" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
+        <v>744</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>698</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>353</v>
+        <v>699</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>20</v>
@@ -8450,28 +8500,20 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="J100" s="4"/>
       <c r="K100" s="4" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="O100" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>355</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="S100" s="17">
         <v>42196</v>
@@ -8480,53 +8522,53 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C101" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D101" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
-        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificName")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificName</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="4" t="s">
-        <v>488</v>
-      </c>
+      <c r="I101" s="4"/>
       <c r="J101" s="4" t="s">
-        <v>489</v>
+        <v>350</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
+      <c r="R101" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="S101" s="17">
         <v>42196</v>
       </c>
@@ -8534,45 +8576,51 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C102" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D102" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
-        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/scientificNameAuthorship")</f>
+        <v>http://rs.tdwg.org/dwc/terms/scientificNameAuthorship</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="4"/>
-      <c r="H102" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="J102" s="4" t="s">
-        <v>362</v>
+        <v>485</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="17">
@@ -8582,45 +8630,45 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C103" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D103" s="6" t="str">
-        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
-        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/nomenclaturalCode")</f>
+        <v>http://rs.tdwg.org/dwc/terms/nomenclaturalCode</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="H103" s="6" t="s">
+        <v>357</v>
+      </c>
       <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="J103" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="K103" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>753</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="N103" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="O103" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="P103" s="4" t="s">
-        <v>364</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="17">
@@ -8630,101 +8678,99 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C104" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
         <v>http://rs.tdwg.org/dwc/terms/</v>
       </c>
       <c r="D104" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/taxonRemarks")</f>
+        <v>http://rs.tdwg.org/dwc/terms/taxonRemarks</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="P104" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="17">
+        <v>42196</v>
+      </c>
+      <c r="T104" s="17">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C105" s="6" t="str">
+        <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/")</f>
+        <v>http://rs.tdwg.org/dwc/terms/</v>
+      </c>
+      <c r="D105" s="6" t="str">
         <f>HYPERLINK("http://rs.tdwg.org/dwc/terms/vernacularName")</f>
         <v>http://rs.tdwg.org/dwc/terms/vernacularName</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="P104" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="S104" s="17">
-        <v>42196</v>
-      </c>
-      <c r="T104" s="17">
-        <v>42196</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C105" s="6" t="str">
-        <f t="shared" ref="C105:C134" si="5">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/</v>
-      </c>
-      <c r="D105" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
-      </c>
       <c r="E105" s="4" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>370</v>
-      </c>
+      <c r="G105" s="4"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="I105" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4" t="s">
-        <v>491</v>
-      </c>
+      <c r="M105" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="N105" s="4"/>
       <c r="O105" s="4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
+      <c r="R105" s="4" t="s">
+        <v>696</v>
+      </c>
       <c r="S105" s="17">
         <v>42196</v>
       </c>
@@ -8734,27 +8780,27 @@
     </row>
     <row r="106" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C106" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C106:C135" si="5">HYPERLINK("http://hiscom.chah.org.au/hispid/terms/")</f>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D106" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarGroupName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarGroupName</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -8765,13 +8811,13 @@
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
@@ -8784,27 +8830,27 @@
     </row>
     <row r="107" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C107" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D107" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivarName")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivarName</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -8815,13 +8861,13 @@
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
@@ -8832,47 +8878,46 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>576</v>
+        <v>315</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="C108" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D108" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>579</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/tradeDesignation")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/tradeDesignation</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G108" s="4"/>
+      <c r="G108" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H108" s="4"/>
-      <c r="I108" s="4" t="s">
-        <v>582</v>
-      </c>
+      <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L108" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
-        <v>https://github.com/hiscom/hispid/issues/11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
+      <c r="N108" s="4" t="s">
+        <v>488</v>
+      </c>
       <c r="O108" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
@@ -8883,33 +8928,35 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C109" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D109" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>580</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridFlag</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>575</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
+      <c r="I109" s="4" t="s">
+        <v>578</v>
+      </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L109" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
@@ -8917,8 +8964,12 @@
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
+      <c r="O109" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="17">
@@ -8930,21 +8981,21 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C110" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D110" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent1")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent1</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>20</v>
@@ -8954,7 +9005,7 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L110" s="6" t="str">
         <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
@@ -8962,12 +9013,8 @@
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
-      <c r="O110" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="P110" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="17">
@@ -8979,21 +9026,21 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>380</v>
+        <v>315</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>574</v>
       </c>
       <c r="C111" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D111" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/hybridParent2")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/hybridParent2</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>381</v>
+        <v>577</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>20</v>
@@ -9003,21 +9050,19 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="L111" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
-        <v>https://github.com/hiscom/hispid/issues/1</v>
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/11")</f>
+        <v>https://github.com/hiscom/hispid/issues/11</v>
       </c>
       <c r="M111" s="4"/>
-      <c r="N111" s="4" t="s">
-        <v>382</v>
-      </c>
+      <c r="N111" s="4"/>
       <c r="O111" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P111" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
@@ -9030,37 +9075,46 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>585</v>
+        <v>376</v>
       </c>
       <c r="C112" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D112" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/miscellaneousRemarks</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F112" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>747</v>
+        <v>22</v>
+      </c>
+      <c r="L112" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/1")</f>
+        <v>https://github.com/hiscom/hispid/issues/1</v>
       </c>
       <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
+      <c r="N112" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="P112" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="17">
@@ -9072,21 +9126,21 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C113" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D113" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataSeries")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataSeries</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -9094,10 +9148,10 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
@@ -9114,21 +9168,21 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C114" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D114" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataFascicle</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -9136,10 +9190,10 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -9154,48 +9208,39 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="C115" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D115" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/exsiccataNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/exsiccataNumber</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml</v>
-      </c>
+      <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L115" s="4"/>
+        <v>500</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>742</v>
+      </c>
       <c r="M115" s="4"/>
-      <c r="N115" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="O115" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="P115" s="4" t="s">
-        <v>384</v>
-      </c>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="17">
@@ -9207,53 +9252,47 @@
     </row>
     <row r="116" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>385</v>
+        <v>604</v>
       </c>
       <c r="C116" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D116" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/voucherFor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/voucherFor</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>386</v>
+        <v>591</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>387</v>
-      </c>
+      <c r="G116" s="4"/>
       <c r="H116" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/voucher_for.xml</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L116" s="6" t="s">
-        <v>750</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q116" s="4" t="s">
-        <v>494</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="17">
         <v>42196</v>
@@ -9262,45 +9301,55 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C117" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D117" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/provenanceTypeFlag</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="H117" s="4"/>
+        <v>383</v>
+      </c>
+      <c r="H117" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/provenance_type_flag.xml</v>
+      </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L117" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/59")</f>
-        <v>https://github.com/hiscom/hispid/issues/59</v>
+      <c r="L117" s="6" t="s">
+        <v>745</v>
       </c>
       <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
+      <c r="N117" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="O117" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="P117" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q117" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="R117" s="4"/>
       <c r="S117" s="17">
         <v>42196</v>
@@ -9309,48 +9358,45 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>392</v>
+        <v>759</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C118" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D118" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/cultivatedPlantProvenance</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4" t="s">
+        <v>387</v>
+      </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L118" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="L118" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/59")</f>
+        <v>https://github.com/hiscom/hispid/issues/59</v>
+      </c>
       <c r="M118" s="4"/>
-      <c r="N118" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="O118" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="P118" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q118" s="4" t="s">
-        <v>497</v>
-      </c>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="17">
         <v>42196</v>
@@ -9359,50 +9405,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C119" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D119" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/donor")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/donor</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>398</v>
-      </c>
+      <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="4" t="s">
-        <v>399</v>
-      </c>
+      <c r="J119" s="4"/>
       <c r="K119" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q119" s="4"/>
+        <v>391</v>
+      </c>
+      <c r="Q119" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="R119" s="4"/>
       <c r="S119" s="17">
         <v>42196</v>
@@ -9411,44 +9455,48 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="C120" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D120" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/duplicatesDistributedTo</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="4"/>
+      <c r="G120" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
+      <c r="J120" s="4" t="s">
+        <v>395</v>
+      </c>
       <c r="K120" s="4" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
@@ -9459,30 +9507,28 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C121" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D121" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanIdentifier")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanIdentifier</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -9492,13 +9538,13 @@
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
@@ -9509,28 +9555,30 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C122" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D122" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDestination")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDestination</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -9540,13 +9588,13 @@
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P122" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
@@ -9559,21 +9607,21 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C123" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D123" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanForBotanist")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanForBotanist</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>20</v>
@@ -9588,13 +9636,13 @@
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
@@ -9607,21 +9655,21 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C124" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D124" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanDate</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>20</v>
@@ -9636,13 +9684,13 @@
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
@@ -9655,21 +9703,21 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C125" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D125" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/loanReturnDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/loanReturnDate</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>20</v>
@@ -9677,17 +9725,21 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="4" t="s">
-        <v>420</v>
-      </c>
+      <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
+      <c r="N125" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="O125" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="P125" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="17">
@@ -9699,21 +9751,21 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C126" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D126" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitType")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitType</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>20</v>
@@ -9721,9 +9773,11 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
+      <c r="J126" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="K126" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
@@ -9741,21 +9795,21 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="C127" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D127" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitReferenceNumber</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>20</v>
@@ -9765,12 +9819,9 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L127" s="6" t="str">
-        <f t="shared" ref="L127:L134" si="6">HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
-        <v>https://github.com/hiscom/hispid/issues/10</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -9786,21 +9837,21 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C128" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D128" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedBy")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedBy</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>20</v>
@@ -9810,10 +9861,10 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L128" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L128:L135" si="6">HYPERLINK("https://github.com/hiscom/hispid/issues/10")</f>
         <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M128" s="4"/>
@@ -9831,31 +9882,31 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C129" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D129" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedTo")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedTo</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L129" s="6" t="str">
         <f t="shared" si="6"/>
@@ -9876,33 +9927,31 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C130" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D130" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitIssuedDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitIssuedDate</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L130" s="6" t="str">
         <f t="shared" si="6"/>
@@ -9921,36 +9970,35 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C131" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D131" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitValidDate")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitValidDate</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" s="4"/>
-      <c r="H131" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
-        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L131" s="6" t="str">
         <f t="shared" si="6"/>
@@ -9971,31 +10019,34 @@
     </row>
     <row r="132" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C132" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D132" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitStatus")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitStatus</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
+      <c r="H132" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml")</f>
+        <v>http://hiscom.rbg.vic.gov.au/hispid/vocabulary/permit_status.xml</v>
+      </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L132" s="6" t="str">
         <f t="shared" si="6"/>
@@ -10014,23 +10065,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C133" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D133" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitConditions")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitConditions</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>20</v>
@@ -10040,7 +10091,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L133" s="6" t="str">
         <f t="shared" si="6"/>
@@ -10061,21 +10112,21 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C134" s="6" t="str">
         <f t="shared" si="5"/>
         <v>http://hiscom.chah.org.au/hispid/terms/</v>
       </c>
       <c r="D134" s="6" t="str">
-        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
-        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitRemarks")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitRemarks</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>20</v>
@@ -10085,7 +10136,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L134" s="6" t="str">
         <f t="shared" si="6"/>
@@ -10106,19 +10157,21 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>575</v>
+        <v>413</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>539</v>
+        <v>433</v>
+      </c>
+      <c r="C135" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hiscom.chah.org.au/hispid/terms/</v>
+      </c>
+      <c r="D135" s="6" t="str">
+        <f>HYPERLINK("http://hiscom.chah.org.au/hispid/terms/permitLink")</f>
+        <v>http://hiscom.chah.org.au/hispid/terms/permitLink</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>564</v>
+        <v>434</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>20</v>
@@ -10128,20 +10181,18 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4" t="s">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="L135" s="6" t="str">
-        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/65")</f>
-        <v>https://github.com/hiscom/hispid/issues/65</v>
+        <f t="shared" si="6"/>
+        <v>https://github.com/hiscom/hispid/issues/10</v>
       </c>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
-      <c r="R135" s="4" t="s">
-        <v>655</v>
-      </c>
+      <c r="R135" s="4"/>
       <c r="S135" s="17">
         <v>42196</v>
       </c>
@@ -10151,40 +10202,41 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L136" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="L136" s="6" t="str">
+        <f>HYPERLINK("https://github.com/hiscom/hispid/issues/65")</f>
+        <v>https://github.com/hiscom/hispid/issues/65</v>
+      </c>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
       <c r="R136" s="4" t="s">
-        <v>694</v>
+        <v>650</v>
       </c>
       <c r="S136" s="17">
         <v>42196</v>
@@ -10195,31 +10247,31 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
@@ -10228,7 +10280,7 @@
       <c r="P137" s="4"/>
       <c r="Q137" s="4"/>
       <c r="R137" s="4" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="S137" s="17">
         <v>42196</v>
@@ -10237,33 +10289,33 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C138" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1/")</f>
-        <v>http://purl.org/dc/elements/1.1/</v>
-      </c>
-      <c r="D138" s="6" t="str">
-        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
-        <v>http://purl.org/dc/elements/1.1/source</v>
+        <v>538</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>537</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
@@ -10272,7 +10324,7 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="S138" s="17">
         <v>42196</v>
@@ -10281,21 +10333,23 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>543</v>
+        <v>521</v>
+      </c>
+      <c r="C139" s="6" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/")</f>
+        <v>http://purl.org/dc/elements/1.1/</v>
+      </c>
+      <c r="D139" s="6" t="str">
+        <f>HYPERLINK("http://purl.org/dc/elements/1.1/source")</f>
+        <v>http://purl.org/dc/elements/1.1/source</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>20</v>
@@ -10305,7 +10359,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
@@ -10313,8 +10367,8 @@
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
-      <c r="R139" s="13" t="s">
-        <v>618</v>
+      <c r="R139" s="4" t="s">
+        <v>649</v>
       </c>
       <c r="S139" s="17">
         <v>42196</v>
@@ -10325,19 +10379,19 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>4</v>
+        <v>523</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>20</v>
@@ -10347,7 +10401,7 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
@@ -10355,8 +10409,8 @@
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
-      <c r="R140" s="4" t="s">
-        <v>679</v>
+      <c r="R140" s="13" t="s">
+        <v>613</v>
       </c>
       <c r="S140" s="17">
         <v>42196</v>
@@ -10365,21 +10419,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>528</v>
+        <v>4</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>20</v>
@@ -10389,7 +10443,7 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
@@ -10398,7 +10452,7 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="S141" s="17">
         <v>42196</v>
@@ -10407,33 +10461,31 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="4"/>
-      <c r="H142" s="4" t="s">
-        <v>557</v>
-      </c>
+      <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
@@ -10442,7 +10494,7 @@
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="S142" s="17">
         <v>42196</v>
@@ -10451,44 +10503,42 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L143" s="6" t="s">
-        <v>748</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="S143" s="17">
         <v>42196</v>
@@ -10497,40 +10547,44 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
+      <c r="H144" s="4" t="s">
+        <v>554</v>
+      </c>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L144" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>743</v>
+      </c>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="S144" s="17">
         <v>42196</v>
@@ -10541,19 +10595,19 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>20</v>
@@ -10563,7 +10617,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
@@ -10572,7 +10626,7 @@
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="S145" s="17">
         <v>42196</v>
@@ -10581,21 +10635,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>20</v>
@@ -10605,7 +10659,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
@@ -10614,7 +10668,7 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="S146" s="17">
         <v>42196</v>
@@ -10623,21 +10677,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>20</v>
@@ -10647,7 +10701,7 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
@@ -10656,7 +10710,7 @@
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="4" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="S147" s="17">
         <v>42196</v>
@@ -10667,19 +10721,19 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>20</v>
@@ -10689,7 +10743,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
@@ -10698,7 +10752,7 @@
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="S148" s="17">
         <v>42196</v>
@@ -10709,19 +10763,19 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>20</v>
@@ -10731,7 +10785,7 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
@@ -10740,7 +10794,7 @@
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
       <c r="R149" s="4" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="S149" s="17">
         <v>42196</v>
@@ -10749,21 +10803,21 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>612</v>
+        <v>532</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>613</v>
+        <v>550</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="F150" 